--- a/Asseignment1/G10_Acceptance.Ass.1.xlsx
+++ b/Asseignment1/G10_Acceptance.Ass.1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abu Nawaf\labRep\Asseignment1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="345" windowWidth="20160" windowHeight="7725"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="553">
   <si>
     <r>
       <t xml:space="preserve">Acceptance Testing for Use Case: </t>
@@ -29,7 +34,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -84,7 +89,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -94,7 +99,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -105,7 +110,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -273,7 +278,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -283,7 +288,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -310,7 +315,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -320,7 +325,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +353,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -358,7 +363,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -370,7 +375,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -380,7 +385,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -485,7 +490,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -495,7 +500,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -536,7 +541,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -546,7 +551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -607,7 +612,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -617,7 +622,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -648,7 +653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -678,7 +683,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -688,7 +693,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -737,7 +742,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -747,7 +752,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -797,7 +802,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -844,7 +849,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -854,7 +859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -874,7 +879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -923,7 +928,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -934,7 +939,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1029,7 +1034,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1040,7 +1045,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1096,7 +1101,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1112,7 +1117,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1128,7 +1133,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1144,7 +1149,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1160,7 +1165,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1171,7 +1176,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1223,7 +1228,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1233,7 +1238,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1251,7 +1256,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1261,7 +1266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1287,7 +1292,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1297,7 +1302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1319,7 +1324,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1329,7 +1334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1345,7 +1350,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1355,7 +1360,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1378,7 +1383,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1388,7 +1393,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1411,7 +1416,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1421,7 +1426,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1443,7 +1448,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1453,7 +1458,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1469,7 +1474,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1479,7 +1484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1498,7 +1503,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1527,7 +1532,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1537,7 +1542,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1560,7 +1565,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1570,7 +1575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1597,7 +1602,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1637,7 +1642,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1647,7 +1652,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1668,7 +1673,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1678,7 +1683,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1688,7 +1693,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1709,7 +1714,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1719,7 +1724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1741,7 +1746,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1751,7 +1756,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1762,7 +1767,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1772,7 +1777,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1788,7 +1793,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1798,7 +1803,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1819,7 +1824,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1830,7 +1835,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1866,7 +1871,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1876,7 +1881,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1901,7 +1906,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1937,7 +1942,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1947,7 +1952,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1966,7 +1971,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1976,7 +1981,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1996,7 +2001,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2006,7 +2011,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2034,7 +2039,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2044,7 +2049,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2067,7 +2072,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2077,7 +2082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2103,7 +2108,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2113,7 +2118,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2136,7 +2141,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2146,7 +2151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2170,7 +2175,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2180,7 +2185,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2199,7 +2204,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2276,7 +2281,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2286,7 +2291,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2304,7 +2309,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2314,7 +2319,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2330,7 +2335,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2340,7 +2345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2379,7 +2384,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2389,7 +2394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2415,7 +2420,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2425,7 +2430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2450,7 +2455,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2460,7 +2465,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2486,7 +2491,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2496,7 +2501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2511,7 +2516,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2521,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2550,7 +2555,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2560,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2682,7 +2687,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2692,7 +2697,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2708,7 +2713,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2725,7 +2730,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2735,7 +2740,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2754,7 +2759,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2763,7 +2768,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2774,7 +2779,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2793,7 +2798,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2802,7 +2807,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2813,7 +2818,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2831,7 +2836,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3247,7 +3252,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3263,7 +3268,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3279,7 +3284,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3295,7 +3300,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3311,7 +3316,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3327,7 +3332,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3385,7 +3390,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3395,7 +3400,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3414,7 +3419,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3424,7 +3429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3441,7 +3446,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3451,7 +3456,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3470,7 +3475,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3480,7 +3485,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3497,7 +3502,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3507,7 +3512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3518,7 +3523,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3528,7 +3533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3546,7 +3551,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3556,7 +3561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3573,7 +3578,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3583,7 +3588,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3594,7 +3599,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3604,7 +3609,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3636,7 +3641,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3646,7 +3651,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3678,7 +3683,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3689,7 +3694,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3705,7 +3710,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3715,7 +3720,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3733,7 +3738,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3743,7 +3748,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3753,7 +3758,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3763,7 +3768,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3780,7 +3785,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3790,7 +3795,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3807,7 +3812,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3817,7 +3822,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3837,7 +3842,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3847,7 +3852,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3892,7 +3897,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3902,7 +3907,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3920,7 +3925,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3930,7 +3935,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3945,7 +3950,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3955,7 +3960,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3970,7 +3975,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3980,7 +3985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3995,7 +4000,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4005,7 +4010,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4020,7 +4025,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4030,7 +4035,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4040,7 +4045,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4057,7 +4062,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4067,7 +4072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4077,7 +4082,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4087,7 +4092,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4102,7 +4107,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4112,7 +4117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4127,7 +4132,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4137,7 +4142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4147,7 +4152,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4163,7 +4168,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4173,7 +4178,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4188,7 +4193,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4198,7 +4203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4213,7 +4218,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4223,7 +4228,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4240,7 +4245,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4250,7 +4255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4261,7 +4266,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4346,35 +4351,41 @@
     <t>Group Number 10</t>
   </si>
   <si>
-    <t xml:space="preserve">maisam marjieh </t>
-  </si>
-  <si>
     <t>mar.m94@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad Mnasra </t>
+  </si>
+  <si>
+    <t>ahmad.mnasra@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maisam Marjieh </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4382,7 +4393,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4390,7 +4401,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4399,7 +4410,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4407,7 +4418,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4416,7 +4427,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4424,7 +4435,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4433,7 +4444,7 @@
       <u/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4441,7 +4452,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4449,20 +4460,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -4470,7 +4481,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -4478,7 +4489,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -4487,13 +4498,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4501,14 +4512,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4517,7 +4528,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4525,7 +4536,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4534,7 +4545,7 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4543,7 +4554,7 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4551,27 +4562,27 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4579,7 +4590,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4622,7 +4633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -5003,32 +5014,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -5043,6 +5028,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5371,8 +5371,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5382,20 +5380,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5462,13 +5450,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5503,150 +5491,162 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -5682,12 +5682,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5729,7 +5732,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5764,7 +5767,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5975,44 +5978,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F434"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" style="37" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="46.875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="36.875" style="37" customWidth="1"/>
     <col min="4" max="4" width="29" style="37" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="37"/>
+    <col min="5" max="16384" width="9.125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="154" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="148" t="s">
         <v>548</v>
       </c>
-      <c r="B1" s="155">
+      <c r="B1" s="149">
         <v>42464</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" s="150" t="s">
         <v>549</v>
       </c>
-      <c r="B2" s="156" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="189" t="s">
+      <c r="B3" s="150" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="189"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>1</v>
       </c>
@@ -6022,7 +6033,7 @@
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -6032,7 +6043,7 @@
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>5</v>
       </c>
@@ -6040,7 +6051,7 @@
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>6</v>
       </c>
@@ -6050,13 +6061,13 @@
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>8</v>
       </c>
@@ -6064,7 +6075,7 @@
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>9</v>
       </c>
@@ -6076,7 +6087,7 @@
       </c>
       <c r="D15" s="36"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="43">
         <v>111</v>
       </c>
@@ -6088,7 +6099,7 @@
       </c>
       <c r="D16" s="36"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="43">
         <v>222</v>
       </c>
@@ -6100,7 +6111,7 @@
       </c>
       <c r="D17" s="36"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>333</v>
       </c>
@@ -6112,29 +6123,29 @@
       </c>
       <c r="D18" s="36"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="199" t="s">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="163"/>
-      <c r="C19" s="164"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="154"/>
       <c r="D19" s="36"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75">
-      <c r="A21" s="188" t="s">
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="188"/>
-      <c r="C21" s="188"/>
-      <c r="D21" s="188"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
         <v>17</v>
       </c>
@@ -6148,7 +6159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="60">
+    <row r="23" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
         <v>21</v>
       </c>
@@ -6162,7 +6173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="60">
+    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
         <v>25</v>
       </c>
@@ -6176,7 +6187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="60">
+    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
         <v>28</v>
       </c>
@@ -6190,7 +6201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60">
+    <row r="26" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
         <v>32</v>
       </c>
@@ -6204,7 +6215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="75">
+    <row r="27" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A27" s="49" t="s">
         <v>35</v>
       </c>
@@ -6218,7 +6229,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="60">
+    <row r="28" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A28" s="49" t="s">
         <v>39</v>
       </c>
@@ -6232,17 +6243,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="203" t="s">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="159" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="203"/>
-      <c r="C32" s="203"/>
-      <c r="D32" s="203"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>1</v>
       </c>
@@ -6252,7 +6263,7 @@
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>3</v>
       </c>
@@ -6262,14 +6273,14 @@
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
     </row>
-    <row r="36" spans="1:6" ht="45">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>6</v>
       </c>
@@ -6279,11 +6290,11 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>8</v>
       </c>
@@ -6293,7 +6304,7 @@
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="52" t="s">
         <v>46</v>
       </c>
@@ -6306,7 +6317,7 @@
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="54">
         <v>123456789</v>
       </c>
@@ -6319,7 +6330,7 @@
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>987654321</v>
       </c>
@@ -6332,35 +6343,35 @@
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
       <c r="E42" s="36"/>
       <c r="F42" s="36"/>
     </row>
-    <row r="43" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A43" s="199" t="s">
+    <row r="43" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="200"/>
-      <c r="C43" s="201"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="157"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E44" s="36"/>
       <c r="F44" s="36"/>
     </row>
-    <row r="45" spans="1:6" ht="18.75">
-      <c r="A45" s="202" t="s">
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="202"/>
-      <c r="C45" s="202"/>
-      <c r="D45" s="202"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="48" t="s">
         <v>17</v>
       </c>
@@ -6376,7 +6387,7 @@
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
     </row>
-    <row r="47" spans="1:6" ht="60">
+    <row r="47" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A47" s="57" t="s">
         <v>52</v>
       </c>
@@ -6392,7 +6403,7 @@
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
     </row>
-    <row r="48" spans="1:6" ht="60">
+    <row r="48" spans="1:6" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A48" s="57" t="s">
         <v>56</v>
       </c>
@@ -6408,7 +6419,7 @@
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
     </row>
-    <row r="49" spans="1:6" ht="60">
+    <row r="49" spans="1:6" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A49" s="57" t="s">
         <v>60</v>
       </c>
@@ -6424,7 +6435,7 @@
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
     </row>
-    <row r="50" spans="1:6" ht="60">
+    <row r="50" spans="1:6" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A50" s="58" t="s">
         <v>64</v>
       </c>
@@ -6440,7 +6451,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
     </row>
-    <row r="51" spans="1:6" ht="60">
+    <row r="51" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A51" s="57" t="s">
         <v>67</v>
       </c>
@@ -6454,7 +6465,7 @@
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
     </row>
-    <row r="52" spans="1:6" ht="60">
+    <row r="52" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A52" s="57" t="s">
         <v>70</v>
       </c>
@@ -6468,7 +6479,7 @@
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
     </row>
-    <row r="53" spans="1:6" ht="60">
+    <row r="53" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A53" s="57" t="s">
         <v>73</v>
       </c>
@@ -6482,7 +6493,7 @@
       <c r="E53" s="36"/>
       <c r="F53" s="36"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
@@ -6490,17 +6501,17 @@
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="189" t="s">
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="151" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="189"/>
+      <c r="B55" s="151"/>
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
       <c r="F55" s="50"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>1</v>
       </c>
@@ -6512,7 +6523,7 @@
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>3</v>
       </c>
@@ -6524,7 +6535,7 @@
       <c r="E57" s="36"/>
       <c r="F57" s="36"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>5</v>
       </c>
@@ -6534,7 +6545,7 @@
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
     </row>
-    <row r="59" spans="1:6" ht="30">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>6</v>
       </c>
@@ -6546,7 +6557,7 @@
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -6554,7 +6565,7 @@
       <c r="E60" s="36"/>
       <c r="F60" s="36"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
         <v>8</v>
       </c>
@@ -6564,7 +6575,7 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="57" t="s">
         <v>46</v>
       </c>
@@ -6576,7 +6587,7 @@
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="59">
         <v>123456789</v>
       </c>
@@ -6588,7 +6599,7 @@
       <c r="E63" s="36"/>
       <c r="F63" s="36"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="59">
         <v>987654321</v>
       </c>
@@ -6600,7 +6611,7 @@
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="60"/>
       <c r="B65" s="61"/>
       <c r="C65" s="36"/>
@@ -6608,15 +6619,15 @@
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="190"/>
-      <c r="B66" s="191"/>
-      <c r="C66" s="191"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="160"/>
+      <c r="B66" s="161"/>
+      <c r="C66" s="161"/>
       <c r="D66" s="36"/>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -6624,17 +6635,17 @@
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
     </row>
-    <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="188" t="s">
+    <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="188"/>
-      <c r="C68" s="188"/>
-      <c r="D68" s="188"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="155"/>
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="48" t="s">
         <v>17</v>
       </c>
@@ -6650,7 +6661,7 @@
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
     </row>
-    <row r="70" spans="1:6" ht="120">
+    <row r="70" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A70" s="57" t="s">
         <v>80</v>
       </c>
@@ -6664,7 +6675,7 @@
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
     </row>
-    <row r="71" spans="1:6" ht="120">
+    <row r="71" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A71" s="57" t="s">
         <v>83</v>
       </c>
@@ -6680,7 +6691,7 @@
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
     </row>
-    <row r="72" spans="1:6" ht="120">
+    <row r="72" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A72" s="57" t="s">
         <v>56</v>
       </c>
@@ -6696,7 +6707,7 @@
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
     </row>
-    <row r="73" spans="1:6" ht="120">
+    <row r="73" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A73" s="57" t="s">
         <v>67</v>
       </c>
@@ -6710,7 +6721,7 @@
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
     </row>
-    <row r="74" spans="1:6" ht="120">
+    <row r="74" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A74" s="57" t="s">
         <v>89</v>
       </c>
@@ -6726,7 +6737,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="36"/>
     </row>
-    <row r="75" spans="1:6" ht="120">
+    <row r="75" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A75" s="57" t="s">
         <v>93</v>
       </c>
@@ -6740,7 +6751,7 @@
       <c r="E75" s="36"/>
       <c r="F75" s="36"/>
     </row>
-    <row r="76" spans="1:6" ht="120">
+    <row r="76" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A76" s="57" t="s">
         <v>96</v>
       </c>
@@ -6754,7 +6765,7 @@
       <c r="E76" s="36"/>
       <c r="F76" s="36"/>
     </row>
-    <row r="77" spans="1:6" ht="120">
+    <row r="77" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A77" s="57" t="s">
         <v>99</v>
       </c>
@@ -6770,7 +6781,7 @@
       <c r="E77" s="36"/>
       <c r="F77" s="36"/>
     </row>
-    <row r="78" spans="1:6" ht="120">
+    <row r="78" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A78" s="57" t="s">
         <v>103</v>
       </c>
@@ -6784,7 +6795,7 @@
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
     </row>
-    <row r="79" spans="1:6" ht="120">
+    <row r="79" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A79" s="57" t="s">
         <v>106</v>
       </c>
@@ -6800,7 +6811,7 @@
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
     </row>
-    <row r="80" spans="1:6" ht="120">
+    <row r="80" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A80" s="57" t="s">
         <v>110</v>
       </c>
@@ -6814,7 +6825,7 @@
       <c r="E80" s="36"/>
       <c r="F80" s="36"/>
     </row>
-    <row r="81" spans="1:6" ht="120">
+    <row r="81" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A81" s="57" t="s">
         <v>113</v>
       </c>
@@ -6830,7 +6841,7 @@
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
     </row>
-    <row r="82" spans="1:6" ht="120">
+    <row r="82" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A82" s="57" t="s">
         <v>117</v>
       </c>
@@ -6844,7 +6855,7 @@
       <c r="E82" s="36"/>
       <c r="F82" s="36"/>
     </row>
-    <row r="83" spans="1:6" ht="120">
+    <row r="83" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A83" s="57" t="s">
         <v>119</v>
       </c>
@@ -6858,7 +6869,7 @@
       <c r="E83" s="36"/>
       <c r="F83" s="36"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -6866,17 +6877,17 @@
       <c r="E84" s="36"/>
       <c r="F84" s="36"/>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="189" t="s">
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="151" t="s">
         <v>121</v>
       </c>
-      <c r="B85" s="189"/>
+      <c r="B85" s="151"/>
       <c r="C85" s="50"/>
       <c r="D85" s="50"/>
       <c r="E85" s="50"/>
       <c r="F85" s="50"/>
     </row>
-    <row r="86" spans="1:6" ht="30">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>1</v>
       </c>
@@ -6888,7 +6899,7 @@
       <c r="E86" s="36"/>
       <c r="F86" s="36"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>3</v>
       </c>
@@ -6900,7 +6911,7 @@
       <c r="E87" s="36"/>
       <c r="F87" s="36"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>5</v>
       </c>
@@ -6910,7 +6921,7 @@
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
     </row>
-    <row r="89" spans="1:6" ht="30">
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>6</v>
       </c>
@@ -6922,7 +6933,7 @@
       <c r="E89" s="36"/>
       <c r="F89" s="36"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -6930,7 +6941,7 @@
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
         <v>8</v>
       </c>
@@ -6940,7 +6951,7 @@
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="57" t="s">
         <v>125</v>
       </c>
@@ -6952,7 +6963,7 @@
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="59">
         <v>123456789</v>
       </c>
@@ -6964,7 +6975,7 @@
       <c r="E93" s="36"/>
       <c r="F93" s="36"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="59">
         <v>153351215</v>
       </c>
@@ -6976,17 +6987,17 @@
       <c r="E94" s="36"/>
       <c r="F94" s="36"/>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="190" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B95" s="191"/>
-      <c r="C95" s="191"/>
+      <c r="B95" s="161"/>
+      <c r="C95" s="161"/>
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -6994,17 +7005,17 @@
       <c r="E96" s="36"/>
       <c r="F96" s="36"/>
     </row>
-    <row r="97" spans="1:6" ht="18.75">
-      <c r="A97" s="188" t="s">
+    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="188"/>
-      <c r="C97" s="188"/>
-      <c r="D97" s="188"/>
+      <c r="B97" s="155"/>
+      <c r="C97" s="155"/>
+      <c r="D97" s="155"/>
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="48" t="s">
         <v>17</v>
       </c>
@@ -7020,7 +7031,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="36"/>
     </row>
-    <row r="99" spans="1:6" ht="45">
+    <row r="99" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A99" s="57" t="s">
         <v>127</v>
       </c>
@@ -7036,7 +7047,7 @@
       <c r="E99" s="36"/>
       <c r="F99" s="36"/>
     </row>
-    <row r="100" spans="1:6" ht="45">
+    <row r="100" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A100" s="57" t="s">
         <v>56</v>
       </c>
@@ -7052,7 +7063,7 @@
       <c r="E100" s="36"/>
       <c r="F100" s="36"/>
     </row>
-    <row r="101" spans="1:6" ht="45">
+    <row r="101" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A101" s="57" t="s">
         <v>132</v>
       </c>
@@ -7066,7 +7077,7 @@
       <c r="E101" s="36"/>
       <c r="F101" s="36"/>
     </row>
-    <row r="102" spans="1:6" ht="45">
+    <row r="102" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A102" s="57" t="s">
         <v>134</v>
       </c>
@@ -7082,7 +7093,7 @@
       <c r="E102" s="36"/>
       <c r="F102" s="36"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -7090,17 +7101,17 @@
       <c r="E103" s="36"/>
       <c r="F103" s="36"/>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="189" t="s">
+    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="151" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="189"/>
+      <c r="B104" s="151"/>
       <c r="C104" s="63"/>
       <c r="D104" s="63"/>
       <c r="E104" s="50"/>
       <c r="F104" s="50"/>
     </row>
-    <row r="105" spans="1:6" ht="75">
+    <row r="105" spans="1:6" ht="75" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>1</v>
       </c>
@@ -7112,7 +7123,7 @@
       <c r="E105" s="36"/>
       <c r="F105" s="36"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>3</v>
       </c>
@@ -7124,7 +7135,7 @@
       <c r="E106" s="36"/>
       <c r="F106" s="36"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>5</v>
       </c>
@@ -7134,7 +7145,7 @@
       <c r="E107" s="36"/>
       <c r="F107" s="36"/>
     </row>
-    <row r="108" spans="1:6" ht="45">
+    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>6</v>
       </c>
@@ -7146,7 +7157,7 @@
       <c r="E108" s="36"/>
       <c r="F108" s="36"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="64"/>
@@ -7154,7 +7165,7 @@
       <c r="E109" s="36"/>
       <c r="F109" s="36"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
         <v>8</v>
       </c>
@@ -7164,7 +7175,7 @@
       <c r="E110" s="36"/>
       <c r="F110" s="36"/>
     </row>
-    <row r="111" spans="1:6" ht="30">
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A111" s="57" t="s">
         <v>125</v>
       </c>
@@ -7178,7 +7189,7 @@
       <c r="E111" s="36"/>
       <c r="F111" s="36"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="59">
         <v>123456789</v>
       </c>
@@ -7192,7 +7203,7 @@
       <c r="E112" s="36"/>
       <c r="F112" s="36"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="59">
         <v>987654321</v>
       </c>
@@ -7206,7 +7217,7 @@
       <c r="E113" s="36"/>
       <c r="F113" s="36"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="59"/>
       <c r="B114" s="66"/>
       <c r="C114" s="65"/>
@@ -7214,17 +7225,17 @@
       <c r="E114" s="36"/>
       <c r="F114" s="36"/>
     </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A115" s="192" t="s">
+    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="B115" s="193"/>
-      <c r="C115" s="194"/>
+      <c r="B115" s="163"/>
+      <c r="C115" s="164"/>
       <c r="D115" s="64"/>
       <c r="E115" s="36"/>
       <c r="F115" s="36"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="64"/>
@@ -7232,17 +7243,17 @@
       <c r="E116" s="36"/>
       <c r="F116" s="36"/>
     </row>
-    <row r="117" spans="1:6" ht="18.75">
-      <c r="A117" s="195" t="s">
+    <row r="117" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A117" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="B117" s="195"/>
-      <c r="C117" s="195"/>
-      <c r="D117" s="195"/>
+      <c r="B117" s="165"/>
+      <c r="C117" s="165"/>
+      <c r="D117" s="165"/>
       <c r="E117" s="36"/>
       <c r="F117" s="36"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="48" t="s">
         <v>17</v>
       </c>
@@ -7258,7 +7269,7 @@
       <c r="E118" s="36"/>
       <c r="F118" s="36"/>
     </row>
-    <row r="119" spans="1:6" ht="90">
+    <row r="119" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A119" s="57" t="s">
         <v>144</v>
       </c>
@@ -7274,7 +7285,7 @@
       <c r="E119" s="36"/>
       <c r="F119" s="36"/>
     </row>
-    <row r="120" spans="1:6" ht="105">
+    <row r="120" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A120" s="57" t="s">
         <v>148</v>
       </c>
@@ -7290,7 +7301,7 @@
       <c r="E120" s="36"/>
       <c r="F120" s="36"/>
     </row>
-    <row r="121" spans="1:6" ht="105">
+    <row r="121" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A121" s="57" t="s">
         <v>152</v>
       </c>
@@ -7304,7 +7315,7 @@
       <c r="E121" s="36"/>
       <c r="F121" s="36"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -7312,17 +7323,17 @@
       <c r="E122" s="36"/>
       <c r="F122" s="36"/>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="189" t="s">
+    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="151" t="s">
         <v>180</v>
       </c>
-      <c r="B123" s="189"/>
+      <c r="B123" s="151"/>
       <c r="C123" s="50"/>
       <c r="D123" s="50"/>
       <c r="E123" s="50"/>
       <c r="F123" s="50"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>1</v>
       </c>
@@ -7334,7 +7345,7 @@
       <c r="E124" s="36"/>
       <c r="F124" s="36"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>3</v>
       </c>
@@ -7346,7 +7357,7 @@
       <c r="E125" s="36"/>
       <c r="F125" s="36"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>5</v>
       </c>
@@ -7356,7 +7367,7 @@
       <c r="E126" s="36"/>
       <c r="F126" s="36"/>
     </row>
-    <row r="127" spans="1:6" ht="45">
+    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>6</v>
       </c>
@@ -7368,7 +7379,7 @@
       <c r="E127" s="36"/>
       <c r="F127" s="36"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -7376,7 +7387,7 @@
       <c r="E128" s="36"/>
       <c r="F128" s="36"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
         <v>8</v>
       </c>
@@ -7386,7 +7397,7 @@
       <c r="E129" s="36"/>
       <c r="F129" s="36"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="57" t="s">
         <v>157</v>
       </c>
@@ -7406,7 +7417,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <v>15324</v>
       </c>
@@ -7426,7 +7437,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30">
+    <row r="132" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <v>15344</v>
       </c>
@@ -7446,7 +7457,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <v>45878</v>
       </c>
@@ -7466,7 +7477,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="18"/>
       <c r="B134" s="59">
         <v>153153153</v>
@@ -7476,17 +7487,17 @@
       <c r="E134" s="18"/>
       <c r="F134" s="18"/>
     </row>
-    <row r="135" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A135" s="196" t="s">
+    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="166" t="s">
         <v>165</v>
       </c>
-      <c r="B135" s="197"/>
-      <c r="C135" s="198"/>
+      <c r="B135" s="167"/>
+      <c r="C135" s="168"/>
       <c r="D135" s="36"/>
       <c r="E135" s="36"/>
       <c r="F135" s="36"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -7494,17 +7505,17 @@
       <c r="E136" s="36"/>
       <c r="F136" s="36"/>
     </row>
-    <row r="137" spans="1:6" ht="18.75">
-      <c r="A137" s="188" t="s">
+    <row r="137" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A137" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="188"/>
-      <c r="C137" s="188"/>
-      <c r="D137" s="188"/>
+      <c r="B137" s="155"/>
+      <c r="C137" s="155"/>
+      <c r="D137" s="155"/>
       <c r="E137" s="36"/>
       <c r="F137" s="36"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="48" t="s">
         <v>17</v>
       </c>
@@ -7520,7 +7531,7 @@
       <c r="E138" s="36"/>
       <c r="F138" s="36"/>
     </row>
-    <row r="139" spans="1:6" ht="90">
+    <row r="139" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A139" s="57" t="s">
         <v>166</v>
       </c>
@@ -7534,7 +7545,7 @@
       <c r="E139" s="36"/>
       <c r="F139" s="36"/>
     </row>
-    <row r="140" spans="1:6" ht="45">
+    <row r="140" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A140" s="57" t="s">
         <v>169</v>
       </c>
@@ -7550,7 +7561,7 @@
       <c r="E140" s="36"/>
       <c r="F140" s="36"/>
     </row>
-    <row r="141" spans="1:6" ht="75">
+    <row r="141" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A141" s="57" t="s">
         <v>173</v>
       </c>
@@ -7566,15 +7577,15 @@
       <c r="E141" s="36"/>
       <c r="F141" s="36"/>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="176" t="s">
+    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="169" t="s">
         <v>181</v>
       </c>
-      <c r="B144" s="176"/>
+      <c r="B144" s="169"/>
       <c r="C144" s="76"/>
       <c r="D144" s="76"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="77" t="s">
         <v>1</v>
       </c>
@@ -7584,7 +7595,7 @@
       <c r="C145" s="76"/>
       <c r="D145" s="76"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="77" t="s">
         <v>3</v>
       </c>
@@ -7592,7 +7603,7 @@
       <c r="C146" s="76"/>
       <c r="D146" s="76"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="77" t="s">
         <v>5</v>
       </c>
@@ -7600,7 +7611,7 @@
       <c r="C147" s="76"/>
       <c r="D147" s="76"/>
     </row>
-    <row r="148" spans="1:4" ht="60">
+    <row r="148" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A148" s="77" t="s">
         <v>183</v>
       </c>
@@ -7610,7 +7621,7 @@
       <c r="C148" s="76"/>
       <c r="D148" s="76"/>
     </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1">
+    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="80" t="s">
         <v>8</v>
       </c>
@@ -7618,7 +7629,7 @@
       <c r="C149" s="76"/>
       <c r="D149" s="76"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="81" t="s">
         <v>185</v>
       </c>
@@ -7630,7 +7641,7 @@
       </c>
       <c r="D150" s="83"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="84">
         <v>205916148</v>
       </c>
@@ -7642,7 +7653,7 @@
       </c>
       <c r="D151" s="86"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="84">
         <v>312321546</v>
       </c>
@@ -7654,7 +7665,7 @@
       </c>
       <c r="D152" s="86"/>
     </row>
-    <row r="153" spans="1:4" ht="15.75" thickBot="1">
+    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="87">
         <v>205916145</v>
       </c>
@@ -7664,29 +7675,29 @@
       <c r="C153" s="89"/>
       <c r="D153" s="89"/>
     </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A154" s="182" t="s">
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="B154" s="183"/>
-      <c r="C154" s="184"/>
+      <c r="B154" s="171"/>
+      <c r="C154" s="172"/>
       <c r="D154" s="90"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="76"/>
       <c r="B155" s="76"/>
       <c r="C155" s="76"/>
       <c r="D155" s="76"/>
     </row>
-    <row r="156" spans="1:4" ht="18.75">
-      <c r="A156" s="175" t="s">
+    <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A156" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="B156" s="175"/>
-      <c r="C156" s="175"/>
-      <c r="D156" s="175"/>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="B156" s="173"/>
+      <c r="C156" s="173"/>
+      <c r="D156" s="173"/>
+    </row>
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="91" t="s">
         <v>17</v>
       </c>
@@ -7700,7 +7711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="45">
+    <row r="158" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A158" s="92" t="s">
         <v>187</v>
       </c>
@@ -7714,7 +7725,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="105">
+    <row r="159" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A159" s="92" t="s">
         <v>191</v>
       </c>
@@ -7728,7 +7739,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="60">
+    <row r="160" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A160" s="92" t="s">
         <v>195</v>
       </c>
@@ -7742,7 +7753,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="60">
+    <row r="161" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A161" s="92" t="s">
         <v>199</v>
       </c>
@@ -7756,7 +7767,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="45">
+    <row r="162" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A162" s="92" t="s">
         <v>132</v>
       </c>
@@ -7770,7 +7781,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="45">
+    <row r="163" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A163" s="92" t="s">
         <v>206</v>
       </c>
@@ -7782,7 +7793,7 @@
       </c>
       <c r="D163" s="94"/>
     </row>
-    <row r="164" spans="1:4" ht="45">
+    <row r="164" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A164" s="92" t="s">
         <v>209</v>
       </c>
@@ -7796,15 +7807,15 @@
         <v>212</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="176" t="s">
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="B167" s="176"/>
+      <c r="B167" s="169"/>
       <c r="C167" s="76"/>
       <c r="D167" s="76"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="77" t="s">
         <v>1</v>
       </c>
@@ -7814,7 +7825,7 @@
       <c r="C168" s="76"/>
       <c r="D168" s="76"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="77" t="s">
         <v>3</v>
       </c>
@@ -7824,7 +7835,7 @@
       <c r="C169" s="76"/>
       <c r="D169" s="76"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="77" t="s">
         <v>5</v>
       </c>
@@ -7832,7 +7843,7 @@
       <c r="C170" s="76"/>
       <c r="D170" s="76"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="77" t="s">
         <v>6</v>
       </c>
@@ -7842,41 +7853,41 @@
       <c r="C171" s="76"/>
       <c r="D171" s="76"/>
     </row>
-    <row r="172" spans="1:4" ht="15.75" thickBot="1">
+    <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="76"/>
       <c r="B172" s="76"/>
       <c r="C172" s="76"/>
       <c r="D172" s="76"/>
     </row>
-    <row r="173" spans="1:4" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A173" s="185" t="s">
+    <row r="173" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="174" t="s">
         <v>321</v>
       </c>
-      <c r="B173" s="186"/>
-      <c r="C173" s="187"/>
+      <c r="B173" s="175"/>
+      <c r="C173" s="176"/>
       <c r="D173" s="76"/>
     </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1">
+    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="101"/>
       <c r="B174" s="101"/>
       <c r="C174" s="102"/>
       <c r="D174" s="90"/>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="174"/>
-      <c r="B175" s="174"/>
-      <c r="C175" s="174"/>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="180"/>
+      <c r="B175" s="180"/>
+      <c r="C175" s="180"/>
       <c r="D175" s="76"/>
     </row>
-    <row r="176" spans="1:4" ht="18.75">
-      <c r="A176" s="175" t="s">
+    <row r="176" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A176" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="B176" s="175"/>
-      <c r="C176" s="175"/>
-      <c r="D176" s="175"/>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="B176" s="173"/>
+      <c r="C176" s="173"/>
+      <c r="D176" s="173"/>
+    </row>
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="91" t="s">
         <v>17</v>
       </c>
@@ -7890,7 +7901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="60">
+    <row r="178" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A178" s="92" t="s">
         <v>52</v>
       </c>
@@ -7902,7 +7913,7 @@
       </c>
       <c r="D178" s="94"/>
     </row>
-    <row r="179" spans="1:4" ht="45">
+    <row r="179" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A179" s="92" t="s">
         <v>219</v>
       </c>
@@ -7916,7 +7927,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="60">
+    <row r="180" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A180" s="92" t="s">
         <v>223</v>
       </c>
@@ -7928,15 +7939,15 @@
       </c>
       <c r="D180" s="94"/>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="176" t="s">
+    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183" s="169" t="s">
         <v>225</v>
       </c>
-      <c r="B183" s="176"/>
+      <c r="B183" s="169"/>
       <c r="C183" s="76"/>
       <c r="D183" s="76"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="77" t="s">
         <v>1</v>
       </c>
@@ -7946,7 +7957,7 @@
       <c r="C184" s="76"/>
       <c r="D184" s="76"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="77" t="s">
         <v>3</v>
       </c>
@@ -7956,7 +7967,7 @@
       <c r="C185" s="76"/>
       <c r="D185" s="76"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="77" t="s">
         <v>5</v>
       </c>
@@ -7964,7 +7975,7 @@
       <c r="C186" s="76"/>
       <c r="D186" s="76"/>
     </row>
-    <row r="187" spans="1:4" ht="30">
+    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A187" s="77" t="s">
         <v>6</v>
       </c>
@@ -7974,7 +7985,7 @@
       <c r="C187" s="76"/>
       <c r="D187" s="76"/>
     </row>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1">
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="80" t="s">
         <v>8</v>
       </c>
@@ -7982,7 +7993,7 @@
       <c r="C188" s="76"/>
       <c r="D188" s="76"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="81" t="s">
         <v>185</v>
       </c>
@@ -7992,7 +8003,7 @@
       <c r="C189" s="83"/>
       <c r="D189" s="76"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="84">
         <v>312312221</v>
       </c>
@@ -8002,7 +8013,7 @@
       <c r="C190" s="86"/>
       <c r="D190" s="76"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="84">
         <v>205495621</v>
       </c>
@@ -8012,23 +8023,23 @@
       <c r="C191" s="86"/>
       <c r="D191" s="76"/>
     </row>
-    <row r="192" spans="1:4" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A192" s="177" t="s">
+    <row r="192" spans="1:4" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="181" t="s">
         <v>322</v>
       </c>
-      <c r="B192" s="178"/>
-      <c r="C192" s="179"/>
+      <c r="B192" s="182"/>
+      <c r="C192" s="183"/>
       <c r="D192" s="76"/>
     </row>
-    <row r="193" spans="1:4" ht="18.75">
-      <c r="A193" s="175" t="s">
+    <row r="193" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A193" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="B193" s="175"/>
-      <c r="C193" s="175"/>
-      <c r="D193" s="175"/>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="B193" s="173"/>
+      <c r="C193" s="173"/>
+      <c r="D193" s="173"/>
+    </row>
+    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="91" t="s">
         <v>17</v>
       </c>
@@ -8042,7 +8053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="60">
+    <row r="195" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A195" s="92" t="s">
         <v>230</v>
       </c>
@@ -8056,7 +8067,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="60">
+    <row r="196" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A196" s="92" t="s">
         <v>233</v>
       </c>
@@ -8070,7 +8081,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="75">
+    <row r="197" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A197" s="92" t="s">
         <v>236</v>
       </c>
@@ -8084,7 +8095,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="75">
+    <row r="198" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A198" s="92" t="s">
         <v>239</v>
       </c>
@@ -8098,7 +8109,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="75">
+    <row r="199" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A199" s="92" t="s">
         <v>242</v>
       </c>
@@ -8112,7 +8123,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="90">
+    <row r="200" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A200" s="92" t="s">
         <v>246</v>
       </c>
@@ -8126,7 +8137,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="75">
+    <row r="201" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A201" s="92" t="s">
         <v>249</v>
       </c>
@@ -8140,7 +8151,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="75">
+    <row r="202" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A202" s="92" t="s">
         <v>252</v>
       </c>
@@ -8154,7 +8165,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="75">
+    <row r="203" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A203" s="92" t="s">
         <v>255</v>
       </c>
@@ -8166,7 +8177,7 @@
       </c>
       <c r="D203" s="94"/>
     </row>
-    <row r="204" spans="1:4" ht="75">
+    <row r="204" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A204" s="92" t="s">
         <v>256</v>
       </c>
@@ -8180,27 +8191,27 @@
         <v>257</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="76"/>
       <c r="B205" s="76"/>
       <c r="C205" s="76"/>
       <c r="D205" s="76"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="76"/>
       <c r="B206" s="76"/>
       <c r="C206" s="76"/>
       <c r="D206" s="76"/>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="176" t="s">
+    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A207" s="169" t="s">
         <v>258</v>
       </c>
-      <c r="B207" s="176"/>
+      <c r="B207" s="169"/>
       <c r="C207" s="76"/>
       <c r="D207" s="76"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="77" t="s">
         <v>1</v>
       </c>
@@ -8210,7 +8221,7 @@
       <c r="C208" s="76"/>
       <c r="D208" s="76"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="77" t="s">
         <v>3</v>
       </c>
@@ -8220,7 +8231,7 @@
       <c r="C209" s="76"/>
       <c r="D209" s="76"/>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="77" t="s">
         <v>5</v>
       </c>
@@ -8228,7 +8239,7 @@
       <c r="C210" s="76"/>
       <c r="D210" s="76"/>
     </row>
-    <row r="211" spans="1:4" ht="30">
+    <row r="211" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" s="77" t="s">
         <v>6</v>
       </c>
@@ -8238,13 +8249,13 @@
       <c r="C211" s="76"/>
       <c r="D211" s="76"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="76"/>
       <c r="B212" s="76"/>
       <c r="C212" s="76"/>
       <c r="D212" s="76"/>
     </row>
-    <row r="213" spans="1:4" ht="15.75" thickBot="1">
+    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="80" t="s">
         <v>8</v>
       </c>
@@ -8252,7 +8263,7 @@
       <c r="C213" s="76"/>
       <c r="D213" s="76"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="81" t="s">
         <v>185</v>
       </c>
@@ -8262,7 +8273,7 @@
       <c r="C214" s="83"/>
       <c r="D214" s="76"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="84">
         <v>205495161</v>
       </c>
@@ -8272,7 +8283,7 @@
       <c r="C215" s="86"/>
       <c r="D215" s="76"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="84">
         <v>205495162</v>
       </c>
@@ -8282,23 +8293,23 @@
       <c r="C216" s="86"/>
       <c r="D216" s="90"/>
     </row>
-    <row r="217" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A217" s="180" t="s">
+    <row r="217" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="184" t="s">
         <v>324</v>
       </c>
-      <c r="B217" s="181"/>
-      <c r="C217" s="181"/>
+      <c r="B217" s="185"/>
+      <c r="C217" s="185"/>
       <c r="D217" s="76"/>
     </row>
-    <row r="218" spans="1:4" ht="18.75">
-      <c r="A218" s="175" t="s">
+    <row r="218" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A218" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="B218" s="175"/>
-      <c r="C218" s="175"/>
-      <c r="D218" s="175"/>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="B218" s="173"/>
+      <c r="C218" s="173"/>
+      <c r="D218" s="173"/>
+    </row>
+    <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="91" t="s">
         <v>17</v>
       </c>
@@ -8312,7 +8323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="90">
+    <row r="220" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A220" s="92" t="s">
         <v>260</v>
       </c>
@@ -8326,7 +8337,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="75">
+    <row r="221" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A221" s="92" t="s">
         <v>191</v>
       </c>
@@ -8340,7 +8351,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="105">
+    <row r="222" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A222" s="92" t="s">
         <v>199</v>
       </c>
@@ -8354,7 +8365,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="75">
+    <row r="223" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A223" s="92" t="s">
         <v>268</v>
       </c>
@@ -8368,7 +8379,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="75">
+    <row r="224" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A224" s="92" t="s">
         <v>272</v>
       </c>
@@ -8382,7 +8393,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="75">
+    <row r="225" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A225" s="92" t="s">
         <v>275</v>
       </c>
@@ -8396,7 +8407,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="90">
+    <row r="226" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A226" s="92" t="s">
         <v>278</v>
       </c>
@@ -8410,7 +8421,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="75">
+    <row r="227" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A227" s="92" t="s">
         <v>281</v>
       </c>
@@ -8424,39 +8435,39 @@
         <v>283</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="76"/>
       <c r="B228" s="76"/>
       <c r="C228" s="76"/>
       <c r="D228" s="76"/>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="76"/>
       <c r="B229" s="76"/>
       <c r="C229" s="76"/>
       <c r="D229" s="76"/>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="76"/>
       <c r="B230" s="76"/>
       <c r="C230" s="76"/>
       <c r="D230" s="76"/>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="76"/>
       <c r="B231" s="76"/>
       <c r="C231" s="76"/>
       <c r="D231" s="76"/>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="176" t="s">
+    <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A232" s="169" t="s">
         <v>284</v>
       </c>
-      <c r="B232" s="176"/>
+      <c r="B232" s="169"/>
       <c r="C232" s="76"/>
       <c r="D232" s="76"/>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="77" t="s">
         <v>1</v>
       </c>
@@ -8466,7 +8477,7 @@
       <c r="C233" s="76"/>
       <c r="D233" s="76"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="77" t="s">
         <v>3</v>
       </c>
@@ -8476,7 +8487,7 @@
       <c r="C234" s="76"/>
       <c r="D234" s="76"/>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="77" t="s">
         <v>5</v>
       </c>
@@ -8484,7 +8495,7 @@
       <c r="C235" s="76"/>
       <c r="D235" s="76"/>
     </row>
-    <row r="236" spans="1:4" ht="45">
+    <row r="236" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A236" s="77" t="s">
         <v>6</v>
       </c>
@@ -8494,13 +8505,13 @@
       <c r="C236" s="76"/>
       <c r="D236" s="76"/>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="76"/>
       <c r="B237" s="76"/>
       <c r="C237" s="76"/>
       <c r="D237" s="76"/>
     </row>
-    <row r="238" spans="1:4" ht="15.75" thickBot="1">
+    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="80" t="s">
         <v>8</v>
       </c>
@@ -8508,7 +8519,7 @@
       <c r="C238" s="76"/>
       <c r="D238" s="76"/>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="81" t="s">
         <v>185</v>
       </c>
@@ -8522,7 +8533,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="95">
         <v>312546893</v>
       </c>
@@ -8536,7 +8547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="84">
         <v>205495161</v>
       </c>
@@ -8550,21 +8561,21 @@
         <v>293</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="100"/>
       <c r="B242" s="76"/>
       <c r="C242" s="76"/>
       <c r="D242" s="76"/>
     </row>
-    <row r="243" spans="1:4" ht="18.75">
-      <c r="A243" s="175" t="s">
+    <row r="243" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A243" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="B243" s="175"/>
-      <c r="C243" s="175"/>
-      <c r="D243" s="175"/>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="B243" s="173"/>
+      <c r="C243" s="173"/>
+      <c r="D243" s="173"/>
+    </row>
+    <row r="244" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="91" t="s">
         <v>17</v>
       </c>
@@ -8578,7 +8589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="90">
+    <row r="245" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A245" s="92" t="s">
         <v>294</v>
       </c>
@@ -8592,7 +8603,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="90">
+    <row r="246" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A246" s="92" t="s">
         <v>298</v>
       </c>
@@ -8606,7 +8617,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="75">
+    <row r="247" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A247" s="92" t="s">
         <v>268</v>
       </c>
@@ -8620,7 +8631,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="75">
+    <row r="248" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A248" s="92" t="s">
         <v>191</v>
       </c>
@@ -8634,7 +8645,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="75">
+    <row r="249" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A249" s="92" t="s">
         <v>199</v>
       </c>
@@ -8648,7 +8659,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="105">
+    <row r="250" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A250" s="92" t="s">
         <v>306</v>
       </c>
@@ -8662,7 +8673,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="75">
+    <row r="251" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A251" s="92" t="s">
         <v>309</v>
       </c>
@@ -8676,7 +8687,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="75">
+    <row r="252" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A252" s="92" t="s">
         <v>312</v>
       </c>
@@ -8690,7 +8701,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="75">
+    <row r="253" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A253" s="92" t="s">
         <v>315</v>
       </c>
@@ -8704,7 +8715,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="75">
+    <row r="254" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A254" s="92" t="s">
         <v>318</v>
       </c>
@@ -8718,15 +8729,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15.75">
-      <c r="A257" s="167" t="s">
+    <row r="257" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A257" s="186" t="s">
         <v>356</v>
       </c>
-      <c r="B257" s="167"/>
+      <c r="B257" s="186"/>
       <c r="C257" s="103"/>
       <c r="D257" s="103"/>
     </row>
-    <row r="258" spans="1:4" ht="15.75">
+    <row r="258" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A258" s="104" t="s">
         <v>1</v>
       </c>
@@ -8736,7 +8747,7 @@
       <c r="C258" s="103"/>
       <c r="D258" s="103"/>
     </row>
-    <row r="259" spans="1:4" ht="15.75">
+    <row r="259" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A259" s="104" t="s">
         <v>3</v>
       </c>
@@ -8746,7 +8757,7 @@
       <c r="C259" s="103"/>
       <c r="D259" s="103"/>
     </row>
-    <row r="260" spans="1:4" ht="15.75">
+    <row r="260" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A260" s="104" t="s">
         <v>5</v>
       </c>
@@ -8754,7 +8765,7 @@
       <c r="C260" s="103"/>
       <c r="D260" s="103"/>
     </row>
-    <row r="261" spans="1:4" ht="47.25">
+    <row r="261" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A261" s="104" t="s">
         <v>6</v>
       </c>
@@ -8764,137 +8775,137 @@
       <c r="C261" s="103"/>
       <c r="D261" s="103"/>
     </row>
-    <row r="262" spans="1:4" ht="15.75">
+    <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="103"/>
       <c r="B262" s="103"/>
       <c r="C262" s="103"/>
       <c r="D262" s="103"/>
     </row>
-    <row r="263" spans="1:4" ht="15.75">
+    <row r="263" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A263" s="107" t="s">
         <v>8</v>
       </c>
       <c r="C263" s="103"/>
       <c r="D263" s="103"/>
     </row>
-    <row r="264" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A264" s="121"/>
+    <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="115"/>
       <c r="B264" s="103"/>
       <c r="C264" s="103"/>
       <c r="D264" s="103"/>
     </row>
-    <row r="265" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A265" s="173" t="s">
+    <row r="265" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="177" t="s">
         <v>497</v>
       </c>
-      <c r="B265" s="169"/>
-      <c r="C265" s="170"/>
+      <c r="B265" s="178"/>
+      <c r="C265" s="179"/>
       <c r="D265" s="103"/>
     </row>
-    <row r="266" spans="1:4" ht="15.75">
+    <row r="266" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="103"/>
       <c r="B266" s="103"/>
       <c r="C266" s="103"/>
       <c r="D266" s="103"/>
     </row>
-    <row r="267" spans="1:4" ht="15.75">
-      <c r="A267" s="166" t="s">
+    <row r="267" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A267" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B267" s="166"/>
-      <c r="C267" s="166"/>
-      <c r="D267" s="166"/>
-    </row>
-    <row r="268" spans="1:4" ht="15.75">
-      <c r="A268" s="122" t="s">
+      <c r="B267" s="188"/>
+      <c r="C267" s="188"/>
+      <c r="D267" s="188"/>
+    </row>
+    <row r="268" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A268" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B268" s="122" t="s">
+      <c r="B268" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="122" t="s">
+      <c r="C268" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D268" s="122" t="s">
+      <c r="D268" s="116" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="78.75">
-      <c r="A269" s="123" t="s">
+    <row r="269" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A269" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B269" s="124" t="s">
+      <c r="B269" s="118" t="s">
         <v>496</v>
       </c>
-      <c r="C269" s="124" t="s">
+      <c r="C269" s="118" t="s">
         <v>328</v>
       </c>
-      <c r="D269" s="125" t="s">
+      <c r="D269" s="119" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="63">
-      <c r="A270" s="123" t="s">
+    <row r="270" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A270" s="117" t="s">
         <v>330</v>
       </c>
-      <c r="B270" s="124" t="s">
+      <c r="B270" s="118" t="s">
         <v>331</v>
       </c>
-      <c r="C270" s="125" t="s">
+      <c r="C270" s="119" t="s">
         <v>332</v>
       </c>
-      <c r="D270" s="125" t="s">
+      <c r="D270" s="119" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="63">
-      <c r="A271" s="123" t="s">
+    <row r="271" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A271" s="117" t="s">
         <v>334</v>
       </c>
-      <c r="B271" s="124" t="s">
+      <c r="B271" s="118" t="s">
         <v>357</v>
       </c>
-      <c r="C271" s="125" t="s">
+      <c r="C271" s="119" t="s">
         <v>335</v>
       </c>
-      <c r="D271" s="125" t="s">
+      <c r="D271" s="119" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="78.75">
-      <c r="A272" s="123" t="s">
+    <row r="272" spans="1:4" ht="75.75" x14ac:dyDescent="0.2">
+      <c r="A272" s="117" t="s">
         <v>337</v>
       </c>
-      <c r="B272" s="124" t="s">
+      <c r="B272" s="118" t="s">
         <v>358</v>
       </c>
-      <c r="C272" s="125" t="s">
+      <c r="C272" s="119" t="s">
         <v>338</v>
       </c>
-      <c r="D272" s="125"/>
-    </row>
-    <row r="273" spans="1:4" ht="78.75">
-      <c r="A273" s="129" t="s">
+      <c r="D272" s="119"/>
+    </row>
+    <row r="273" spans="1:4" ht="75.75" x14ac:dyDescent="0.2">
+      <c r="A273" s="123" t="s">
         <v>339</v>
       </c>
-      <c r="B273" s="124" t="s">
+      <c r="B273" s="118" t="s">
         <v>359</v>
       </c>
-      <c r="C273" s="127" t="s">
+      <c r="C273" s="121" t="s">
         <v>340</v>
       </c>
-      <c r="D273" s="125"/>
-    </row>
-    <row r="276" spans="1:4" ht="15.75">
-      <c r="A276" s="167" t="s">
+      <c r="D273" s="119"/>
+    </row>
+    <row r="276" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A276" s="186" t="s">
         <v>360</v>
       </c>
-      <c r="B276" s="167"/>
+      <c r="B276" s="186"/>
       <c r="C276" s="103"/>
       <c r="D276" s="103"/>
     </row>
-    <row r="277" spans="1:4" ht="94.5">
-      <c r="A277" s="151" t="s">
+    <row r="277" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="145" t="s">
         <v>1</v>
       </c>
       <c r="B277" s="105" t="s">
@@ -8903,7 +8914,7 @@
       <c r="C277" s="103"/>
       <c r="D277" s="103"/>
     </row>
-    <row r="278" spans="1:4" ht="15.75">
+    <row r="278" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A278" s="104" t="s">
         <v>3</v>
       </c>
@@ -8913,7 +8924,7 @@
       <c r="C278" s="103"/>
       <c r="D278" s="103"/>
     </row>
-    <row r="279" spans="1:4" ht="15.75">
+    <row r="279" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A279" s="104" t="s">
         <v>5</v>
       </c>
@@ -8923,7 +8934,7 @@
       <c r="C279" s="103"/>
       <c r="D279" s="103"/>
     </row>
-    <row r="280" spans="1:4" ht="31.5">
+    <row r="280" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A280" s="104" t="s">
         <v>6</v>
       </c>
@@ -8933,13 +8944,13 @@
       <c r="C280" s="103"/>
       <c r="D280" s="103"/>
     </row>
-    <row r="281" spans="1:4" ht="15.75">
+    <row r="281" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="103"/>
       <c r="B281" s="103"/>
       <c r="C281" s="103"/>
       <c r="D281" s="103"/>
     </row>
-    <row r="282" spans="1:4" ht="16.5" thickBot="1">
+    <row r="282" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="107" t="s">
         <v>8</v>
       </c>
@@ -8949,239 +8960,233 @@
       <c r="C282" s="103"/>
       <c r="D282" s="103"/>
     </row>
-    <row r="283" spans="1:4" ht="15.75">
+    <row r="283" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="108" t="s">
         <v>46</v>
       </c>
       <c r="B283" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C283" s="110" t="s">
+      <c r="C283" s="201" t="s">
         <v>345</v>
       </c>
-      <c r="D283" s="111" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A284" s="112">
+      <c r="D283" s="198"/>
+    </row>
+    <row r="284" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="110">
         <v>123456359</v>
       </c>
-      <c r="B284" s="113" t="s">
+      <c r="B284" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="C284" s="114" t="s">
+      <c r="C284" s="203" t="s">
         <v>346</v>
       </c>
-      <c r="D284" s="115">
-        <v>3512426</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A285" s="112">
+      <c r="D284" s="199"/>
+    </row>
+    <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="110">
         <v>123456789</v>
       </c>
-      <c r="B285" s="113" t="s">
+      <c r="B285" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="C285" s="114" t="s">
+      <c r="C285" s="112" t="s">
         <v>347</v>
       </c>
-      <c r="D285" s="116">
-        <v>2544552</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A286" s="117">
+      <c r="D285" s="199"/>
+    </row>
+    <row r="286" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="113">
         <v>547854478</v>
       </c>
-      <c r="B286" s="118" t="s">
+      <c r="B286" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="C286" s="119"/>
-      <c r="D286" s="120"/>
-    </row>
-    <row r="287" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A287" s="121"/>
+      <c r="C286" s="202"/>
+      <c r="D286" s="200"/>
+    </row>
+    <row r="287" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="115"/>
       <c r="B287" s="103"/>
       <c r="C287" s="103"/>
       <c r="D287" s="103"/>
     </row>
-    <row r="288" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A288" s="168" t="s">
+    <row r="288" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="189" t="s">
         <v>348</v>
       </c>
-      <c r="B288" s="169"/>
-      <c r="C288" s="170"/>
+      <c r="B288" s="178"/>
+      <c r="C288" s="179"/>
       <c r="D288" s="103"/>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="103"/>
       <c r="B289" s="103"/>
       <c r="C289" s="103"/>
       <c r="D289" s="103"/>
     </row>
-    <row r="290" spans="1:4" ht="15.75">
-      <c r="A290" s="166" t="s">
+    <row r="290" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A290" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B290" s="166"/>
-      <c r="C290" s="166"/>
-      <c r="D290" s="166"/>
-    </row>
-    <row r="291" spans="1:4" ht="15.75">
-      <c r="A291" s="122" t="s">
+      <c r="B290" s="188"/>
+      <c r="C290" s="188"/>
+      <c r="D290" s="188"/>
+    </row>
+    <row r="291" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A291" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B291" s="122" t="s">
+      <c r="B291" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C291" s="122" t="s">
+      <c r="C291" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D291" s="122" t="s">
+      <c r="D291" s="116" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="94.5">
-      <c r="A292" s="123" t="s">
+    <row r="292" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A292" s="117" t="s">
         <v>349</v>
       </c>
-      <c r="B292" s="124" t="s">
+      <c r="B292" s="118" t="s">
         <v>502</v>
       </c>
-      <c r="C292" s="124" t="s">
+      <c r="C292" s="118" t="s">
         <v>498</v>
       </c>
-      <c r="D292" s="125" t="s">
+      <c r="D292" s="119" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="94.5">
-      <c r="A293" s="123" t="s">
+    <row r="293" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A293" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="B293" s="124" t="s">
+      <c r="B293" s="118" t="s">
         <v>501</v>
       </c>
-      <c r="C293" s="124" t="s">
+      <c r="C293" s="118" t="s">
         <v>499</v>
       </c>
-      <c r="D293" s="125" t="s">
+      <c r="D293" s="119" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="63">
-      <c r="A294" s="123" t="s">
+    <row r="294" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A294" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B294" s="124" t="s">
+      <c r="B294" s="118" t="s">
         <v>503</v>
       </c>
-      <c r="C294" s="124" t="s">
+      <c r="C294" s="118" t="s">
         <v>500</v>
       </c>
-      <c r="D294" s="125" t="s">
+      <c r="D294" s="119" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="94.5">
-      <c r="A295" s="123" t="s">
+    <row r="295" spans="1:4" ht="90.75" x14ac:dyDescent="0.2">
+      <c r="A295" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="B295" s="124" t="s">
+      <c r="B295" s="118" t="s">
         <v>505</v>
       </c>
-      <c r="C295" s="124" t="s">
+      <c r="C295" s="118" t="s">
         <v>504</v>
       </c>
-      <c r="D295" s="125" t="s">
+      <c r="D295" s="119" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="63">
-      <c r="A296" s="126" t="s">
+    <row r="296" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A296" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B296" s="127" t="s">
+      <c r="B296" s="121" t="s">
         <v>506</v>
       </c>
-      <c r="C296" s="127" t="s">
+      <c r="C296" s="121" t="s">
         <v>507</v>
       </c>
-      <c r="D296" s="128" t="s">
+      <c r="D296" s="122" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="47.25">
-      <c r="A297" s="126" t="s">
+    <row r="297" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A297" s="120" t="s">
         <v>352</v>
       </c>
-      <c r="B297" s="127" t="s">
+      <c r="B297" s="121" t="s">
         <v>508</v>
       </c>
-      <c r="C297" s="127" t="s">
+      <c r="C297" s="121" t="s">
         <v>355</v>
       </c>
-      <c r="D297" s="128" t="s">
+      <c r="D297" s="122" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="94.5">
-      <c r="A298" s="123" t="s">
+    <row r="298" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A298" s="117" t="s">
         <v>353</v>
       </c>
-      <c r="B298" s="124" t="s">
+      <c r="B298" s="118" t="s">
         <v>510</v>
       </c>
-      <c r="C298" s="125" t="s">
+      <c r="C298" s="119" t="s">
         <v>509</v>
       </c>
-      <c r="D298" s="125" t="s">
+      <c r="D298" s="119" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="94.5">
-      <c r="A299" s="123" t="s">
+    <row r="299" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A299" s="117" t="s">
         <v>513</v>
       </c>
-      <c r="B299" s="124" t="s">
+      <c r="B299" s="118" t="s">
         <v>514</v>
       </c>
-      <c r="C299" s="125" t="s">
+      <c r="C299" s="119" t="s">
         <v>515</v>
       </c>
-      <c r="D299" s="125" t="s">
+      <c r="D299" s="119" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="94.5">
-      <c r="A300" s="129" t="s">
+    <row r="300" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A300" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="B300" s="124" t="s">
+      <c r="B300" s="118" t="s">
         <v>511</v>
       </c>
-      <c r="C300" s="127" t="s">
+      <c r="C300" s="121" t="s">
         <v>354</v>
       </c>
-      <c r="D300" s="125"/>
-    </row>
-    <row r="301" spans="1:4" ht="15.75">
-      <c r="A301" s="130"/>
-      <c r="B301" s="130"/>
-      <c r="C301" s="130"/>
-      <c r="D301" s="130"/>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="157" t="s">
+      <c r="D300" s="119"/>
+    </row>
+    <row r="301" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A301" s="124"/>
+      <c r="B301" s="124"/>
+      <c r="C301" s="124"/>
+      <c r="D301" s="124"/>
+    </row>
+    <row r="303" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A303" s="190" t="s">
         <v>474</v>
       </c>
-      <c r="B303" s="157"/>
+      <c r="B303" s="190"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>1</v>
       </c>
@@ -9191,7 +9196,7 @@
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>3</v>
       </c>
@@ -9201,7 +9206,7 @@
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>5</v>
       </c>
@@ -9209,7 +9214,7 @@
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>6</v>
       </c>
@@ -9219,13 +9224,13 @@
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="1:4" ht="15.75" thickBot="1">
+    <row r="309" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>8</v>
       </c>
@@ -9233,7 +9238,7 @@
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>363</v>
       </c>
@@ -9245,11 +9250,11 @@
       </c>
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="9">
         <v>111</v>
       </c>
-      <c r="B311" s="131">
+      <c r="B311" s="125">
         <v>42290</v>
       </c>
       <c r="C311" s="11">
@@ -9257,38 +9262,38 @@
       </c>
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="1:4" ht="15.75" thickBot="1">
+    <row r="312" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9">
         <v>222</v>
       </c>
-      <c r="B312" s="131">
+      <c r="B312" s="125">
         <v>42300</v>
       </c>
       <c r="C312" s="11"/>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A313" s="171" t="s">
+    <row r="313" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="B313" s="159"/>
-      <c r="C313" s="160"/>
+      <c r="B313" s="192"/>
+      <c r="C313" s="193"/>
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="1:4" ht="18.75">
+    <row r="315" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A315" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B315" s="15"/>
       <c r="C315" s="15"/>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="16" t="s">
         <v>17</v>
       </c>
@@ -9302,7 +9307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="60">
+    <row r="317" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A317" s="17" t="s">
         <v>365</v>
       </c>
@@ -9316,7 +9321,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="60">
+    <row r="318" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A318" s="17" t="s">
         <v>369</v>
       </c>
@@ -9330,7 +9335,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="60">
+    <row r="319" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A319" s="17" t="s">
         <v>373</v>
       </c>
@@ -9344,7 +9349,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="60">
+    <row r="320" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A320" s="17" t="s">
         <v>375</v>
       </c>
@@ -9358,7 +9363,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="45">
+    <row r="321" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A321" s="17" t="s">
         <v>379</v>
       </c>
@@ -9372,7 +9377,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="45">
+    <row r="322" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A322" s="17" t="s">
         <v>383</v>
       </c>
@@ -9384,38 +9389,38 @@
       </c>
       <c r="D322" s="19"/>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="157" t="s">
+    <row r="327" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A327" s="190" t="s">
         <v>475</v>
       </c>
-      <c r="B327" s="157"/>
+      <c r="B327" s="190"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="1:4" ht="21.75" customHeight="1">
+    <row r="328" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>1</v>
       </c>
@@ -9425,7 +9430,7 @@
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>3</v>
       </c>
@@ -9435,7 +9440,7 @@
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>5</v>
       </c>
@@ -9443,7 +9448,7 @@
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>6</v>
       </c>
@@ -9453,8 +9458,8 @@
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="1:4" ht="30">
-      <c r="A332" s="152" t="s">
+    <row r="332" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A332" s="146" t="s">
         <v>530</v>
       </c>
       <c r="B332" s="1" t="s">
@@ -9463,7 +9468,7 @@
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
     </row>
-    <row r="333" spans="1:4" ht="15.75" thickBot="1">
+    <row r="333" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>8</v>
       </c>
@@ -9471,7 +9476,7 @@
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>532</v>
       </c>
@@ -9479,7 +9484,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="9">
         <v>111</v>
       </c>
@@ -9487,7 +9492,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="9">
         <v>222</v>
       </c>
@@ -9495,25 +9500,25 @@
         <v>546</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15.75" thickBot="1">
+    <row r="337" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
     </row>
-    <row r="338" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A338" s="172" t="s">
+    <row r="338" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="194" t="s">
         <v>529</v>
       </c>
-      <c r="B338" s="159"/>
-      <c r="C338" s="160"/>
+      <c r="B338" s="192"/>
+      <c r="C338" s="193"/>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="1:4" ht="18.75">
+    <row r="340" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A340" s="15" t="s">
         <v>16</v>
       </c>
@@ -9521,7 +9526,7 @@
       <c r="C340" s="15"/>
       <c r="D340" s="15"/>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="16" t="s">
         <v>17</v>
       </c>
@@ -9535,7 +9540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="75">
+    <row r="342" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A342" s="17" t="s">
         <v>387</v>
       </c>
@@ -9549,7 +9554,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="60">
+    <row r="343" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A343" s="17" t="s">
         <v>541</v>
       </c>
@@ -9561,7 +9566,7 @@
       </c>
       <c r="D343" s="19"/>
     </row>
-    <row r="344" spans="1:4" ht="90">
+    <row r="344" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A344" s="17" t="s">
         <v>536</v>
       </c>
@@ -9575,7 +9580,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="90">
+    <row r="345" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A345" s="17" t="s">
         <v>389</v>
       </c>
@@ -9589,14 +9594,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="161" t="s">
+    <row r="348" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A348" s="195" t="s">
         <v>476</v>
       </c>
-      <c r="B348" s="161"/>
+      <c r="B348" s="195"/>
       <c r="C348"/>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="22" t="s">
         <v>1</v>
       </c>
@@ -9606,7 +9611,7 @@
       <c r="C349"/>
       <c r="D349"/>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="22" t="s">
         <v>3</v>
       </c>
@@ -9616,7 +9621,7 @@
       <c r="C350"/>
       <c r="D350"/>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="22" t="s">
         <v>5</v>
       </c>
@@ -9624,7 +9629,7 @@
       <c r="C351"/>
       <c r="D351"/>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="22" t="s">
         <v>6</v>
       </c>
@@ -9634,13 +9639,13 @@
       <c r="C352"/>
       <c r="D352"/>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
       <c r="D353"/>
     </row>
-    <row r="354" spans="1:4" ht="15.75" thickBot="1">
+    <row r="354" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="24" t="s">
         <v>8</v>
       </c>
@@ -9650,75 +9655,75 @@
       <c r="C354"/>
       <c r="D354"/>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="25" t="s">
         <v>395</v>
       </c>
       <c r="B355" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C355" s="132" t="s">
+      <c r="C355" s="126" t="s">
         <v>396</v>
       </c>
       <c r="D355"/>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="26" t="s">
         <v>397</v>
       </c>
       <c r="B356" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C356" s="133"/>
+      <c r="C356" s="127"/>
       <c r="D356"/>
     </row>
-    <row r="357" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A357" s="134" t="s">
+    <row r="357" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="128" t="s">
         <v>398</v>
       </c>
-      <c r="B357" s="135" t="s">
+      <c r="B357" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C357" s="136"/>
+      <c r="C357" s="130"/>
       <c r="D357"/>
     </row>
-    <row r="358" spans="1:4" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A358" s="162" t="s">
+    <row r="358" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="187" t="s">
         <v>399</v>
       </c>
-      <c r="B358" s="163"/>
-      <c r="C358" s="164"/>
+      <c r="B358" s="153"/>
+      <c r="C358" s="154"/>
       <c r="D358"/>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
       <c r="D359"/>
     </row>
-    <row r="360" spans="1:4" ht="18.75">
-      <c r="A360" s="137" t="s">
+    <row r="360" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A360" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B360" s="137"/>
-      <c r="C360" s="137"/>
-      <c r="D360" s="137"/>
-    </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="138" t="s">
+      <c r="B360" s="131"/>
+      <c r="C360" s="131"/>
+      <c r="D360" s="131"/>
+    </row>
+    <row r="361" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A361" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="B361" s="138" t="s">
+      <c r="B361" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C361" s="138" t="s">
+      <c r="C361" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="D361" s="138" t="s">
+      <c r="D361" s="132" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="56.25" customHeight="1">
+    <row r="362" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="17" t="s">
         <v>400</v>
       </c>
@@ -9732,7 +9737,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="61.5" customHeight="1">
+    <row r="363" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="17" t="s">
         <v>483</v>
       </c>
@@ -9746,8 +9751,8 @@
         <v>404</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="60">
-      <c r="A364" s="139" t="s">
+    <row r="364" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A364" s="133" t="s">
         <v>405</v>
       </c>
       <c r="B364" s="30" t="s">
@@ -9756,10 +9761,10 @@
       <c r="C364" s="61" t="s">
         <v>406</v>
       </c>
-      <c r="D364" s="150"/>
-    </row>
-    <row r="365" spans="1:4" ht="45">
-      <c r="A365" s="139" t="s">
+      <c r="D364" s="144"/>
+    </row>
+    <row r="365" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A365" s="133" t="s">
         <v>407</v>
       </c>
       <c r="B365" s="30" t="s">
@@ -9772,14 +9777,14 @@
         <v>410</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="161" t="s">
+    <row r="368" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A368" s="195" t="s">
         <v>477</v>
       </c>
-      <c r="B368" s="161"/>
+      <c r="B368" s="195"/>
       <c r="C368"/>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="22" t="s">
         <v>1</v>
       </c>
@@ -9788,7 +9793,7 @@
       </c>
       <c r="C369"/>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="22" t="s">
         <v>3</v>
       </c>
@@ -9798,7 +9803,7 @@
       <c r="C370"/>
       <c r="D370"/>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="22" t="s">
         <v>5</v>
       </c>
@@ -9806,7 +9811,7 @@
       <c r="C371"/>
       <c r="D371"/>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="22" t="s">
         <v>6</v>
       </c>
@@ -9816,13 +9821,13 @@
       <c r="C372"/>
       <c r="D372"/>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373"/>
     </row>
-    <row r="374" spans="1:4" ht="15.75" thickBot="1">
+    <row r="374" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="24" t="s">
         <v>8</v>
       </c>
@@ -9832,81 +9837,81 @@
       <c r="C374"/>
       <c r="D374"/>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="25" t="s">
         <v>395</v>
       </c>
       <c r="B375" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C375" s="132" t="s">
+      <c r="C375" s="126" t="s">
         <v>396</v>
       </c>
       <c r="D375"/>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="26" t="s">
         <v>415</v>
       </c>
       <c r="B376" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C376" s="133"/>
+      <c r="C376" s="127"/>
       <c r="D376"/>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="26" t="s">
         <v>416</v>
       </c>
       <c r="B377" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C377" s="133"/>
+      <c r="C377" s="127"/>
       <c r="D377"/>
     </row>
-    <row r="378" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A378" s="134"/>
-      <c r="B378" s="135"/>
-      <c r="C378" s="136"/>
+    <row r="378" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="128"/>
+      <c r="B378" s="129"/>
+      <c r="C378" s="130"/>
       <c r="D378"/>
     </row>
-    <row r="379" spans="1:4" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A379" s="162" t="s">
+    <row r="379" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="187" t="s">
         <v>417</v>
       </c>
-      <c r="B379" s="163"/>
-      <c r="C379" s="164"/>
+      <c r="B379" s="153"/>
+      <c r="C379" s="154"/>
       <c r="D379"/>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
       <c r="D380"/>
     </row>
-    <row r="381" spans="1:4" ht="18.75">
-      <c r="A381" s="137" t="s">
+    <row r="381" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A381" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B381" s="137"/>
-      <c r="C381" s="137"/>
-      <c r="D381" s="137"/>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="138" t="s">
+      <c r="B381" s="131"/>
+      <c r="C381" s="131"/>
+      <c r="D381" s="131"/>
+    </row>
+    <row r="382" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A382" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="B382" s="138" t="s">
+      <c r="B382" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C382" s="138" t="s">
+      <c r="C382" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="D382" s="138" t="s">
+      <c r="D382" s="132" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="60">
+    <row r="383" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A383" s="17" t="s">
         <v>418</v>
       </c>
@@ -9920,20 +9925,20 @@
         <v>420</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="51" customHeight="1">
-      <c r="A384" s="149" t="s">
+    <row r="384" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="143" t="s">
         <v>405</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C384" s="153" t="s">
+      <c r="C384" s="147" t="s">
         <v>422</v>
       </c>
       <c r="D384" s="30"/>
     </row>
-    <row r="385" spans="1:4" ht="64.5" customHeight="1">
-      <c r="A385" s="149" t="s">
+    <row r="385" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="143" t="s">
         <v>423</v>
       </c>
       <c r="B385" s="30" t="s">
@@ -9944,8 +9949,8 @@
       </c>
       <c r="D385" s="30"/>
     </row>
-    <row r="386" spans="1:4" ht="45">
-      <c r="A386" s="149" t="s">
+    <row r="386" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A386" s="143" t="s">
         <v>481</v>
       </c>
       <c r="B386" s="30" t="s">
@@ -9958,8 +9963,8 @@
         <v>426</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="45">
-      <c r="A387" s="149" t="s">
+    <row r="387" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A387" s="143" t="s">
         <v>427</v>
       </c>
       <c r="B387" s="30" t="s">
@@ -9972,14 +9977,14 @@
         <v>430</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="157" t="s">
+    <row r="390" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A390" s="190" t="s">
         <v>478</v>
       </c>
-      <c r="B390" s="157"/>
+      <c r="B390" s="190"/>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>1</v>
       </c>
@@ -9988,7 +9993,7 @@
       </c>
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>3</v>
       </c>
@@ -9998,7 +10003,7 @@
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>5</v>
       </c>
@@ -10006,7 +10011,7 @@
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
     </row>
-    <row r="394" spans="1:4" ht="30">
+    <row r="394" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>6</v>
       </c>
@@ -10016,13 +10021,13 @@
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
     </row>
-    <row r="396" spans="1:4" ht="15.75" thickBot="1">
+    <row r="396" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>8</v>
       </c>
@@ -10032,7 +10037,7 @@
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
         <v>395</v>
       </c>
@@ -10044,51 +10049,51 @@
       </c>
       <c r="D397" s="1"/>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="9" t="s">
         <v>415</v>
       </c>
       <c r="B398" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C398" s="140" t="s">
+      <c r="C398" s="134" t="s">
         <v>436</v>
       </c>
       <c r="D398" s="1"/>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>416</v>
       </c>
       <c r="B399" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C399" s="140" t="s">
+      <c r="C399" s="134" t="s">
         <v>437</v>
       </c>
       <c r="D399" s="1"/>
     </row>
-    <row r="400" spans="1:4" ht="15.75" thickBot="1">
+    <row r="400" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A400" s="12"/>
       <c r="B400" s="13"/>
       <c r="C400" s="14"/>
       <c r="D400" s="1"/>
     </row>
-    <row r="401" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A401" s="165" t="s">
+    <row r="401" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="197" t="s">
         <v>438</v>
       </c>
-      <c r="B401" s="159"/>
-      <c r="C401" s="160"/>
+      <c r="B401" s="192"/>
+      <c r="C401" s="193"/>
       <c r="D401" s="1"/>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
     </row>
-    <row r="403" spans="1:4" ht="18.75">
+    <row r="403" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A403" s="15" t="s">
         <v>16</v>
       </c>
@@ -10096,7 +10101,7 @@
       <c r="C403" s="15"/>
       <c r="D403" s="15"/>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="16" t="s">
         <v>17</v>
       </c>
@@ -10110,7 +10115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="30">
+    <row r="405" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A405" s="27" t="s">
         <v>400</v>
       </c>
@@ -10124,7 +10129,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="30">
+    <row r="406" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A406" s="27" t="s">
         <v>407</v>
       </c>
@@ -10138,7 +10143,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="30">
+    <row r="407" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="28" t="s">
         <v>444</v>
@@ -10146,14 +10151,14 @@
       <c r="C407" s="28"/>
       <c r="D407" s="29"/>
     </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="157" t="s">
+    <row r="410" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A410" s="190" t="s">
         <v>479</v>
       </c>
-      <c r="B410" s="157"/>
+      <c r="B410" s="190"/>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>1</v>
       </c>
@@ -10162,7 +10167,7 @@
       </c>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>3</v>
       </c>
@@ -10172,7 +10177,7 @@
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
         <v>5</v>
       </c>
@@ -10180,7 +10185,7 @@
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>6</v>
       </c>
@@ -10190,13 +10195,13 @@
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
     </row>
-    <row r="416" spans="1:4" ht="15.75" thickBot="1">
+    <row r="416" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>8</v>
       </c>
@@ -10206,7 +10211,7 @@
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="6" t="s">
         <v>395</v>
       </c>
@@ -10218,81 +10223,81 @@
       </c>
       <c r="D417" s="1"/>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="9" t="s">
         <v>415</v>
       </c>
       <c r="B418" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C418" s="140" t="s">
+      <c r="C418" s="134" t="s">
         <v>436</v>
       </c>
       <c r="D418" s="1"/>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="9" t="s">
         <v>450</v>
       </c>
       <c r="B419" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C419" s="140" t="s">
+      <c r="C419" s="134" t="s">
         <v>451</v>
       </c>
       <c r="D419" s="1"/>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="B420" s="141" t="s">
+      <c r="B420" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="C420" s="142" t="s">
+      <c r="C420" s="136" t="s">
         <v>437</v>
       </c>
       <c r="D420" s="1"/>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="12" t="s">
         <v>452</v>
       </c>
       <c r="B421" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C421" s="142" t="s">
+      <c r="C421" s="136" t="s">
         <v>453</v>
       </c>
       <c r="D421" s="1"/>
     </row>
-    <row r="422" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A422" s="143" t="s">
+    <row r="422" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="137" t="s">
         <v>454</v>
       </c>
-      <c r="B422" s="144" t="s">
+      <c r="B422" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="C422" s="145" t="s">
+      <c r="C422" s="139" t="s">
         <v>455</v>
       </c>
       <c r="D422" s="1"/>
     </row>
-    <row r="423" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A423" s="158" t="s">
+    <row r="423" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="196" t="s">
         <v>456</v>
       </c>
-      <c r="B423" s="159"/>
-      <c r="C423" s="160"/>
+      <c r="B423" s="192"/>
+      <c r="C423" s="193"/>
       <c r="D423" s="1"/>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
     </row>
-    <row r="425" spans="1:4" ht="18.75">
+    <row r="425" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A425" s="15" t="s">
         <v>16</v>
       </c>
@@ -10300,7 +10305,7 @@
       <c r="C425" s="15"/>
       <c r="D425" s="15"/>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="16" t="s">
         <v>17</v>
       </c>
@@ -10314,7 +10319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="60">
+    <row r="427" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A427" s="27" t="s">
         <v>457</v>
       </c>
@@ -10326,7 +10331,7 @@
       </c>
       <c r="D427" s="29"/>
     </row>
-    <row r="428" spans="1:4" ht="60">
+    <row r="428" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A428" s="27" t="s">
         <v>460</v>
       </c>
@@ -10338,7 +10343,7 @@
       </c>
       <c r="D428" s="29"/>
     </row>
-    <row r="429" spans="1:4" ht="102.75" customHeight="1">
+    <row r="429" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="27" t="s">
         <v>467</v>
       </c>
@@ -10352,7 +10357,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="60">
+    <row r="430" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A430" s="27" t="s">
         <v>471</v>
       </c>
@@ -10366,7 +10371,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="60">
+    <row r="431" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A431" s="27" t="s">
         <v>463</v>
       </c>
@@ -10380,22 +10385,49 @@
         <v>466</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="146"/>
-      <c r="B432" s="147"/>
-      <c r="C432" s="147"/>
-    </row>
-    <row r="434" spans="4:4">
-      <c r="D434" s="148"/>
+    <row r="432" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A432" s="140"/>
+      <c r="B432" s="141"/>
+      <c r="C432" s="141"/>
+    </row>
+    <row r="434" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D434" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A410:B410"/>
+    <mergeCell ref="A423:C423"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A390:B390"/>
+    <mergeCell ref="A401:C401"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A173:C173"/>
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A66:C66"/>
@@ -10408,45 +10440,19 @@
     <mergeCell ref="A117:D117"/>
     <mergeCell ref="A123:B123"/>
     <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A348:B348"/>
-    <mergeCell ref="A410:B410"/>
-    <mergeCell ref="A423:C423"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A390:B390"/>
-    <mergeCell ref="A401:C401"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10456,7 +10462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10468,7 +10474,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Asseignment1/G10_Acceptance.Ass.1.xlsx
+++ b/Asseignment1/G10_Acceptance.Ass.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abu Nawaf\labRep\Asseignment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aj_pa\labRep\Asseignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="555">
   <si>
     <r>
       <t xml:space="preserve">Acceptance Testing for Use Case: </t>
@@ -34,7 +34,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -89,7 +89,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -99,7 +99,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -110,7 +110,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -278,7 +278,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -288,7 +288,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -315,7 +315,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,7 +325,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -353,7 +353,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -363,7 +363,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -375,7 +375,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,7 +385,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -490,7 +490,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -500,7 +500,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -541,7 +541,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -551,7 +551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -612,7 +612,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -622,7 +622,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -653,7 +653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -683,7 +683,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -693,7 +693,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -742,7 +742,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -752,7 +752,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -802,7 +802,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -849,7 +849,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -859,7 +859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -879,7 +879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -928,7 +928,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -939,7 +939,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1034,7 +1034,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1045,7 +1045,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1101,7 +1101,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1117,7 +1117,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1133,7 +1133,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1149,7 +1149,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1165,7 +1165,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1176,7 +1176,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1228,7 +1228,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1238,7 +1238,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1256,7 +1256,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1266,7 +1266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1292,7 +1292,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1302,7 +1302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1324,7 +1324,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1334,7 +1334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1350,7 +1350,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1360,7 +1360,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1383,7 +1383,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1393,7 +1393,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1416,7 +1416,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1426,7 +1426,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1448,7 +1448,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1458,7 +1458,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1474,7 +1474,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1484,7 +1484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1503,7 +1503,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1532,7 +1532,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1542,7 +1542,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1565,7 +1565,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1575,7 +1575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1602,7 +1602,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1642,7 +1642,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1652,7 +1652,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1673,7 +1673,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1683,7 +1683,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1693,7 +1693,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1714,7 +1714,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1724,7 +1724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1746,7 +1746,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1756,7 +1756,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1767,7 +1767,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1777,7 +1777,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1793,7 +1793,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1803,7 +1803,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1824,7 +1824,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1835,7 +1835,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1871,7 +1871,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1881,7 +1881,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1906,7 +1906,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1942,7 +1942,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1952,7 +1952,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1971,7 +1971,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1981,7 +1981,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2001,7 +2001,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2011,7 +2011,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2039,7 +2039,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2049,7 +2049,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2072,7 +2072,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2082,7 +2082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2108,7 +2108,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2118,7 +2118,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2141,7 +2141,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2151,7 +2151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2175,7 +2175,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2185,7 +2185,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2204,7 +2204,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2281,7 +2281,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2291,7 +2291,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2309,7 +2309,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2319,7 +2319,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2335,7 +2335,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2345,7 +2345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2384,7 +2384,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2394,7 +2394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2420,7 +2420,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2430,7 +2430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2455,7 +2455,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2465,7 +2465,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2491,7 +2491,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2501,7 +2501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2516,7 +2516,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2555,7 +2555,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2687,7 +2687,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2697,7 +2697,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2713,7 +2713,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2730,7 +2730,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2740,7 +2740,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2759,7 +2759,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2768,7 +2768,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2779,7 +2779,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2798,7 +2798,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2807,7 +2807,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2818,7 +2818,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2836,7 +2836,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3252,7 +3252,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3268,7 +3268,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3284,7 +3284,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3300,7 +3300,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3316,7 +3316,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3332,7 +3332,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3390,7 +3390,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3400,7 +3400,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3419,7 +3419,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3429,7 +3429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3446,7 +3446,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3456,7 +3456,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3475,7 +3475,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3485,7 +3485,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3502,7 +3502,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3512,7 +3512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3523,7 +3523,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3533,7 +3533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3551,7 +3551,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3561,7 +3561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3578,7 +3578,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3588,7 +3588,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3599,7 +3599,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3609,7 +3609,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3641,7 +3641,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3651,7 +3651,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3683,7 +3683,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3694,7 +3694,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3710,7 +3710,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3720,7 +3720,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3738,7 +3738,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3748,7 +3748,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3758,7 +3758,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3768,7 +3768,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3785,7 +3785,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3795,7 +3795,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3812,7 +3812,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3822,7 +3822,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3842,7 +3842,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3852,7 +3852,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3897,7 +3897,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3907,7 +3907,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3925,7 +3925,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3935,7 +3935,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3950,7 +3950,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3960,7 +3960,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3975,7 +3975,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3985,7 +3985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4000,7 +4000,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4010,7 +4010,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4025,7 +4025,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4035,7 +4035,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4045,7 +4045,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4062,7 +4062,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4072,7 +4072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4082,7 +4082,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4092,7 +4092,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4107,7 +4107,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4117,7 +4117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4132,7 +4132,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4142,7 +4142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4152,7 +4152,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4168,7 +4168,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4178,7 +4178,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4193,7 +4193,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4203,7 +4203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4218,7 +4218,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4228,7 +4228,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4245,7 +4245,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4255,7 +4255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4266,7 +4266,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4362,30 +4362,36 @@
   <si>
     <t xml:space="preserve">Maisam Marjieh </t>
   </si>
+  <si>
+    <t>Bolous Abu-Jaber</t>
+  </si>
+  <si>
+    <t>ajbolous@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4393,7 +4399,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4401,7 +4407,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4410,7 +4416,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4418,7 +4424,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4427,7 +4433,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4435,7 +4441,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFC00000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4444,7 +4450,7 @@
       <u/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4452,7 +4458,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4460,20 +4466,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -4481,7 +4487,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -4489,7 +4495,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -4498,13 +4504,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4512,14 +4518,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4528,7 +4534,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4536,7 +4542,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4545,7 +4551,7 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4554,7 +4560,7 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4562,27 +4568,27 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF002060"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4590,7 +4596,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5490,147 +5496,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5642,6 +5507,147 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5765,6 +5771,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5800,6 +5823,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5978,20 +6018,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F434"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A409" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="37" customWidth="1"/>
-    <col min="2" max="2" width="46.875" style="37" customWidth="1"/>
-    <col min="3" max="3" width="36.875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="37" customWidth="1"/>
     <col min="4" max="4" width="29" style="37" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" style="37"/>
+    <col min="5" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="148" t="s">
         <v>548</v>
       </c>
@@ -5999,7 +6039,7 @@
         <v>42464</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="37" t="s">
         <v>552</v>
       </c>
@@ -6007,7 +6047,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="37" t="s">
         <v>550</v>
       </c>
@@ -6015,15 +6055,23 @@
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="151" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="B4" s="150" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="151"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
         <v>1</v>
       </c>
@@ -6033,7 +6081,7 @@
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -6043,7 +6091,7 @@
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="20" t="s">
         <v>5</v>
       </c>
@@ -6051,7 +6099,7 @@
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="20" t="s">
         <v>6</v>
       </c>
@@ -6061,13 +6109,13 @@
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
       <c r="A14" s="21" t="s">
         <v>8</v>
       </c>
@@ -6075,7 +6123,7 @@
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
         <v>9</v>
       </c>
@@ -6087,7 +6135,7 @@
       </c>
       <c r="D15" s="36"/>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="43">
         <v>111</v>
       </c>
@@ -6099,7 +6147,7 @@
       </c>
       <c r="D16" s="36"/>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="43">
         <v>222</v>
       </c>
@@ -6111,7 +6159,7 @@
       </c>
       <c r="D17" s="36"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
       <c r="A18" s="45">
         <v>333</v>
       </c>
@@ -6123,29 +6171,29 @@
       </c>
       <c r="D18" s="36"/>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="152" t="s">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A19" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="36"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
     </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="155" t="s">
+    <row r="21" spans="1:6" ht="18.75">
+      <c r="A21" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21" s="188"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="48" t="s">
         <v>17</v>
       </c>
@@ -6159,7 +6207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="60">
       <c r="A23" s="49" t="s">
         <v>21</v>
       </c>
@@ -6173,7 +6221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="60">
       <c r="A24" s="49" t="s">
         <v>25</v>
       </c>
@@ -6187,7 +6235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="60">
       <c r="A25" s="49" t="s">
         <v>28</v>
       </c>
@@ -6201,7 +6249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="60">
       <c r="A26" s="49" t="s">
         <v>32</v>
       </c>
@@ -6215,7 +6263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="75">
       <c r="A27" s="49" t="s">
         <v>35</v>
       </c>
@@ -6229,7 +6277,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="60">
       <c r="A28" s="49" t="s">
         <v>39</v>
       </c>
@@ -6243,17 +6291,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="159" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="203" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="203"/>
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="22" t="s">
         <v>1</v>
       </c>
@@ -6263,7 +6311,7 @@
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="22" t="s">
         <v>3</v>
       </c>
@@ -6273,14 +6321,14 @@
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
     </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="45">
       <c r="A36" s="22" t="s">
         <v>6</v>
       </c>
@@ -6290,11 +6338,11 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1">
       <c r="A38" s="24" t="s">
         <v>8</v>
       </c>
@@ -6304,7 +6352,7 @@
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
     </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="52" t="s">
         <v>46</v>
       </c>
@@ -6317,7 +6365,7 @@
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="54">
         <v>123456789</v>
       </c>
@@ -6330,7 +6378,7 @@
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1">
       <c r="A41" s="55">
         <v>987654321</v>
       </c>
@@ -6343,35 +6391,35 @@
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
       <c r="A42" s="56"/>
       <c r="E42" s="36"/>
       <c r="F42" s="36"/>
     </row>
-    <row r="43" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="152" t="s">
+    <row r="43" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A43" s="199" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="157"/>
+      <c r="B43" s="200"/>
+      <c r="C43" s="201"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="E44" s="36"/>
       <c r="F44" s="36"/>
     </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="158" t="s">
+    <row r="45" spans="1:6" ht="18.75">
+      <c r="A45" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="158"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
+      <c r="B45" s="202"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="202"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
     </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="48" t="s">
         <v>17</v>
       </c>
@@ -6387,7 +6435,7 @@
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
     </row>
-    <row r="47" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="60">
       <c r="A47" s="57" t="s">
         <v>52</v>
       </c>
@@ -6403,7 +6451,7 @@
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
     </row>
-    <row r="48" spans="1:6" ht="57.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="60">
       <c r="A48" s="57" t="s">
         <v>56</v>
       </c>
@@ -6419,7 +6467,7 @@
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
     </row>
-    <row r="49" spans="1:6" ht="57.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="60">
       <c r="A49" s="57" t="s">
         <v>60</v>
       </c>
@@ -6435,7 +6483,7 @@
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
     </row>
-    <row r="50" spans="1:6" ht="58.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="60">
       <c r="A50" s="58" t="s">
         <v>64</v>
       </c>
@@ -6451,7 +6499,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
     </row>
-    <row r="51" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="60">
       <c r="A51" s="57" t="s">
         <v>67</v>
       </c>
@@ -6465,7 +6513,7 @@
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
     </row>
-    <row r="52" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="60">
       <c r="A52" s="57" t="s">
         <v>70</v>
       </c>
@@ -6479,7 +6527,7 @@
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
     </row>
-    <row r="53" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="60">
       <c r="A53" s="57" t="s">
         <v>73</v>
       </c>
@@ -6493,7 +6541,7 @@
       <c r="E53" s="36"/>
       <c r="F53" s="36"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
@@ -6501,17 +6549,17 @@
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
     </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="151" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" s="189" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="151"/>
+      <c r="B55" s="189"/>
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
       <c r="F55" s="50"/>
     </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="20" t="s">
         <v>1</v>
       </c>
@@ -6523,7 +6571,7 @@
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
     </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="20" t="s">
         <v>3</v>
       </c>
@@ -6535,7 +6583,7 @@
       <c r="E57" s="36"/>
       <c r="F57" s="36"/>
     </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="20" t="s">
         <v>5</v>
       </c>
@@ -6545,7 +6593,7 @@
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="30">
       <c r="A59" s="20" t="s">
         <v>6</v>
       </c>
@@ -6557,7 +6605,7 @@
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -6565,7 +6613,7 @@
       <c r="E60" s="36"/>
       <c r="F60" s="36"/>
     </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="21" t="s">
         <v>8</v>
       </c>
@@ -6575,7 +6623,7 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
     </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="57" t="s">
         <v>46</v>
       </c>
@@ -6587,7 +6635,7 @@
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="59">
         <v>123456789</v>
       </c>
@@ -6599,7 +6647,7 @@
       <c r="E63" s="36"/>
       <c r="F63" s="36"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="59">
         <v>987654321</v>
       </c>
@@ -6611,7 +6659,7 @@
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="60"/>
       <c r="B65" s="61"/>
       <c r="C65" s="36"/>
@@ -6619,15 +6667,15 @@
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="160"/>
-      <c r="B66" s="161"/>
-      <c r="C66" s="161"/>
+    <row r="66" spans="1:6">
+      <c r="A66" s="190"/>
+      <c r="B66" s="191"/>
+      <c r="C66" s="191"/>
       <c r="D66" s="36"/>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -6635,17 +6683,17 @@
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
     </row>
-    <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="155" t="s">
+    <row r="68" spans="1:6" ht="18.75">
+      <c r="A68" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="155"/>
-      <c r="C68" s="155"/>
-      <c r="D68" s="155"/>
+      <c r="B68" s="188"/>
+      <c r="C68" s="188"/>
+      <c r="D68" s="188"/>
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
     </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="48" t="s">
         <v>17</v>
       </c>
@@ -6661,7 +6709,7 @@
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
     </row>
-    <row r="70" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="120">
       <c r="A70" s="57" t="s">
         <v>80</v>
       </c>
@@ -6675,7 +6723,7 @@
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
     </row>
-    <row r="71" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="120">
       <c r="A71" s="57" t="s">
         <v>83</v>
       </c>
@@ -6691,7 +6739,7 @@
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
     </row>
-    <row r="72" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="120">
       <c r="A72" s="57" t="s">
         <v>56</v>
       </c>
@@ -6707,7 +6755,7 @@
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
     </row>
-    <row r="73" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="120">
       <c r="A73" s="57" t="s">
         <v>67</v>
       </c>
@@ -6721,7 +6769,7 @@
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
     </row>
-    <row r="74" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="120">
       <c r="A74" s="57" t="s">
         <v>89</v>
       </c>
@@ -6737,7 +6785,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="36"/>
     </row>
-    <row r="75" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="120">
       <c r="A75" s="57" t="s">
         <v>93</v>
       </c>
@@ -6751,7 +6799,7 @@
       <c r="E75" s="36"/>
       <c r="F75" s="36"/>
     </row>
-    <row r="76" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="120">
       <c r="A76" s="57" t="s">
         <v>96</v>
       </c>
@@ -6765,7 +6813,7 @@
       <c r="E76" s="36"/>
       <c r="F76" s="36"/>
     </row>
-    <row r="77" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="120">
       <c r="A77" s="57" t="s">
         <v>99</v>
       </c>
@@ -6781,7 +6829,7 @@
       <c r="E77" s="36"/>
       <c r="F77" s="36"/>
     </row>
-    <row r="78" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="120">
       <c r="A78" s="57" t="s">
         <v>103</v>
       </c>
@@ -6795,7 +6843,7 @@
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
     </row>
-    <row r="79" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="120">
       <c r="A79" s="57" t="s">
         <v>106</v>
       </c>
@@ -6811,7 +6859,7 @@
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
     </row>
-    <row r="80" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="120">
       <c r="A80" s="57" t="s">
         <v>110</v>
       </c>
@@ -6825,7 +6873,7 @@
       <c r="E80" s="36"/>
       <c r="F80" s="36"/>
     </row>
-    <row r="81" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="120">
       <c r="A81" s="57" t="s">
         <v>113</v>
       </c>
@@ -6841,7 +6889,7 @@
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
     </row>
-    <row r="82" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="120">
       <c r="A82" s="57" t="s">
         <v>117</v>
       </c>
@@ -6855,7 +6903,7 @@
       <c r="E82" s="36"/>
       <c r="F82" s="36"/>
     </row>
-    <row r="83" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="120">
       <c r="A83" s="57" t="s">
         <v>119</v>
       </c>
@@ -6869,7 +6917,7 @@
       <c r="E83" s="36"/>
       <c r="F83" s="36"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -6877,17 +6925,17 @@
       <c r="E84" s="36"/>
       <c r="F84" s="36"/>
     </row>
-    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="151" t="s">
+    <row r="85" spans="1:6">
+      <c r="A85" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="B85" s="151"/>
+      <c r="B85" s="189"/>
       <c r="C85" s="50"/>
       <c r="D85" s="50"/>
       <c r="E85" s="50"/>
       <c r="F85" s="50"/>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="30">
       <c r="A86" s="20" t="s">
         <v>1</v>
       </c>
@@ -6899,7 +6947,7 @@
       <c r="E86" s="36"/>
       <c r="F86" s="36"/>
     </row>
-    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="20" t="s">
         <v>3</v>
       </c>
@@ -6911,7 +6959,7 @@
       <c r="E87" s="36"/>
       <c r="F87" s="36"/>
     </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="20" t="s">
         <v>5</v>
       </c>
@@ -6921,7 +6969,7 @@
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="30">
       <c r="A89" s="20" t="s">
         <v>6</v>
       </c>
@@ -6933,7 +6981,7 @@
       <c r="E89" s="36"/>
       <c r="F89" s="36"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -6941,7 +6989,7 @@
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
     </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="21" t="s">
         <v>8</v>
       </c>
@@ -6951,7 +6999,7 @@
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
     </row>
-    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="57" t="s">
         <v>125</v>
       </c>
@@ -6963,7 +7011,7 @@
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="59">
         <v>123456789</v>
       </c>
@@ -6975,7 +7023,7 @@
       <c r="E93" s="36"/>
       <c r="F93" s="36"/>
     </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="59">
         <v>153351215</v>
       </c>
@@ -6987,17 +7035,17 @@
       <c r="E94" s="36"/>
       <c r="F94" s="36"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="160" t="s">
+    <row r="95" spans="1:6">
+      <c r="A95" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="B95" s="161"/>
-      <c r="C95" s="161"/>
+      <c r="B95" s="191"/>
+      <c r="C95" s="191"/>
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -7005,17 +7053,17 @@
       <c r="E96" s="36"/>
       <c r="F96" s="36"/>
     </row>
-    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="155" t="s">
+    <row r="97" spans="1:6" ht="18.75">
+      <c r="A97" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="155"/>
-      <c r="C97" s="155"/>
-      <c r="D97" s="155"/>
+      <c r="B97" s="188"/>
+      <c r="C97" s="188"/>
+      <c r="D97" s="188"/>
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
     </row>
-    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="48" t="s">
         <v>17</v>
       </c>
@@ -7031,7 +7079,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="36"/>
     </row>
-    <row r="99" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="45">
       <c r="A99" s="57" t="s">
         <v>127</v>
       </c>
@@ -7047,7 +7095,7 @@
       <c r="E99" s="36"/>
       <c r="F99" s="36"/>
     </row>
-    <row r="100" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="45">
       <c r="A100" s="57" t="s">
         <v>56</v>
       </c>
@@ -7063,7 +7111,7 @@
       <c r="E100" s="36"/>
       <c r="F100" s="36"/>
     </row>
-    <row r="101" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="45">
       <c r="A101" s="57" t="s">
         <v>132</v>
       </c>
@@ -7077,7 +7125,7 @@
       <c r="E101" s="36"/>
       <c r="F101" s="36"/>
     </row>
-    <row r="102" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="45">
       <c r="A102" s="57" t="s">
         <v>134</v>
       </c>
@@ -7093,7 +7141,7 @@
       <c r="E102" s="36"/>
       <c r="F102" s="36"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -7101,17 +7149,17 @@
       <c r="E103" s="36"/>
       <c r="F103" s="36"/>
     </row>
-    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="151" t="s">
+    <row r="104" spans="1:6">
+      <c r="A104" s="189" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="151"/>
+      <c r="B104" s="189"/>
       <c r="C104" s="63"/>
       <c r="D104" s="63"/>
       <c r="E104" s="50"/>
       <c r="F104" s="50"/>
     </row>
-    <row r="105" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="75">
       <c r="A105" s="20" t="s">
         <v>1</v>
       </c>
@@ -7123,7 +7171,7 @@
       <c r="E105" s="36"/>
       <c r="F105" s="36"/>
     </row>
-    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" s="20" t="s">
         <v>3</v>
       </c>
@@ -7135,7 +7183,7 @@
       <c r="E106" s="36"/>
       <c r="F106" s="36"/>
     </row>
-    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="20" t="s">
         <v>5</v>
       </c>
@@ -7145,7 +7193,7 @@
       <c r="E107" s="36"/>
       <c r="F107" s="36"/>
     </row>
-    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="45">
       <c r="A108" s="20" t="s">
         <v>6</v>
       </c>
@@ -7157,7 +7205,7 @@
       <c r="E108" s="36"/>
       <c r="F108" s="36"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="64"/>
@@ -7165,7 +7213,7 @@
       <c r="E109" s="36"/>
       <c r="F109" s="36"/>
     </row>
-    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="21" t="s">
         <v>8</v>
       </c>
@@ -7175,7 +7223,7 @@
       <c r="E110" s="36"/>
       <c r="F110" s="36"/>
     </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="30">
       <c r="A111" s="57" t="s">
         <v>125</v>
       </c>
@@ -7189,7 +7237,7 @@
       <c r="E111" s="36"/>
       <c r="F111" s="36"/>
     </row>
-    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" s="59">
         <v>123456789</v>
       </c>
@@ -7203,7 +7251,7 @@
       <c r="E112" s="36"/>
       <c r="F112" s="36"/>
     </row>
-    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="59">
         <v>987654321</v>
       </c>
@@ -7217,7 +7265,7 @@
       <c r="E113" s="36"/>
       <c r="F113" s="36"/>
     </row>
-    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="59"/>
       <c r="B114" s="66"/>
       <c r="C114" s="65"/>
@@ -7225,17 +7273,17 @@
       <c r="E114" s="36"/>
       <c r="F114" s="36"/>
     </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="162" t="s">
+    <row r="115" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A115" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="B115" s="163"/>
-      <c r="C115" s="164"/>
+      <c r="B115" s="193"/>
+      <c r="C115" s="194"/>
       <c r="D115" s="64"/>
       <c r="E115" s="36"/>
       <c r="F115" s="36"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="64"/>
@@ -7243,17 +7291,17 @@
       <c r="E116" s="36"/>
       <c r="F116" s="36"/>
     </row>
-    <row r="117" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A117" s="165" t="s">
+    <row r="117" spans="1:6" ht="18.75">
+      <c r="A117" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="B117" s="165"/>
-      <c r="C117" s="165"/>
-      <c r="D117" s="165"/>
+      <c r="B117" s="195"/>
+      <c r="C117" s="195"/>
+      <c r="D117" s="195"/>
       <c r="E117" s="36"/>
       <c r="F117" s="36"/>
     </row>
-    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" s="48" t="s">
         <v>17</v>
       </c>
@@ -7269,7 +7317,7 @@
       <c r="E118" s="36"/>
       <c r="F118" s="36"/>
     </row>
-    <row r="119" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="90">
       <c r="A119" s="57" t="s">
         <v>144</v>
       </c>
@@ -7285,7 +7333,7 @@
       <c r="E119" s="36"/>
       <c r="F119" s="36"/>
     </row>
-    <row r="120" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="105">
       <c r="A120" s="57" t="s">
         <v>148</v>
       </c>
@@ -7301,7 +7349,7 @@
       <c r="E120" s="36"/>
       <c r="F120" s="36"/>
     </row>
-    <row r="121" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="105">
       <c r="A121" s="57" t="s">
         <v>152</v>
       </c>
@@ -7315,7 +7363,7 @@
       <c r="E121" s="36"/>
       <c r="F121" s="36"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -7323,17 +7371,17 @@
       <c r="E122" s="36"/>
       <c r="F122" s="36"/>
     </row>
-    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="151" t="s">
+    <row r="123" spans="1:6">
+      <c r="A123" s="189" t="s">
         <v>180</v>
       </c>
-      <c r="B123" s="151"/>
+      <c r="B123" s="189"/>
       <c r="C123" s="50"/>
       <c r="D123" s="50"/>
       <c r="E123" s="50"/>
       <c r="F123" s="50"/>
     </row>
-    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" s="20" t="s">
         <v>1</v>
       </c>
@@ -7345,7 +7393,7 @@
       <c r="E124" s="36"/>
       <c r="F124" s="36"/>
     </row>
-    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="20" t="s">
         <v>3</v>
       </c>
@@ -7357,7 +7405,7 @@
       <c r="E125" s="36"/>
       <c r="F125" s="36"/>
     </row>
-    <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="20" t="s">
         <v>5</v>
       </c>
@@ -7367,7 +7415,7 @@
       <c r="E126" s="36"/>
       <c r="F126" s="36"/>
     </row>
-    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="45">
       <c r="A127" s="20" t="s">
         <v>6</v>
       </c>
@@ -7379,7 +7427,7 @@
       <c r="E127" s="36"/>
       <c r="F127" s="36"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -7387,7 +7435,7 @@
       <c r="E128" s="36"/>
       <c r="F128" s="36"/>
     </row>
-    <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" s="21" t="s">
         <v>8</v>
       </c>
@@ -7397,7 +7445,7 @@
       <c r="E129" s="36"/>
       <c r="F129" s="36"/>
     </row>
-    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" s="57" t="s">
         <v>157</v>
       </c>
@@ -7417,7 +7465,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" s="18">
         <v>15324</v>
       </c>
@@ -7437,7 +7485,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="30">
       <c r="A132" s="18">
         <v>15344</v>
       </c>
@@ -7457,7 +7505,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" s="18">
         <v>45878</v>
       </c>
@@ -7477,7 +7525,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" s="18"/>
       <c r="B134" s="59">
         <v>153153153</v>
@@ -7487,17 +7535,17 @@
       <c r="E134" s="18"/>
       <c r="F134" s="18"/>
     </row>
-    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="166" t="s">
+    <row r="135" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A135" s="196" t="s">
         <v>165</v>
       </c>
-      <c r="B135" s="167"/>
-      <c r="C135" s="168"/>
+      <c r="B135" s="197"/>
+      <c r="C135" s="198"/>
       <c r="D135" s="36"/>
       <c r="E135" s="36"/>
       <c r="F135" s="36"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -7505,17 +7553,17 @@
       <c r="E136" s="36"/>
       <c r="F136" s="36"/>
     </row>
-    <row r="137" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A137" s="155" t="s">
+    <row r="137" spans="1:6" ht="18.75">
+      <c r="A137" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="155"/>
-      <c r="C137" s="155"/>
-      <c r="D137" s="155"/>
+      <c r="B137" s="188"/>
+      <c r="C137" s="188"/>
+      <c r="D137" s="188"/>
       <c r="E137" s="36"/>
       <c r="F137" s="36"/>
     </row>
-    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" s="48" t="s">
         <v>17</v>
       </c>
@@ -7531,7 +7579,7 @@
       <c r="E138" s="36"/>
       <c r="F138" s="36"/>
     </row>
-    <row r="139" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="90">
       <c r="A139" s="57" t="s">
         <v>166</v>
       </c>
@@ -7545,7 +7593,7 @@
       <c r="E139" s="36"/>
       <c r="F139" s="36"/>
     </row>
-    <row r="140" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="45">
       <c r="A140" s="57" t="s">
         <v>169</v>
       </c>
@@ -7561,7 +7609,7 @@
       <c r="E140" s="36"/>
       <c r="F140" s="36"/>
     </row>
-    <row r="141" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="75">
       <c r="A141" s="57" t="s">
         <v>173</v>
       </c>
@@ -7577,15 +7625,15 @@
       <c r="E141" s="36"/>
       <c r="F141" s="36"/>
     </row>
-    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="169" t="s">
+    <row r="144" spans="1:6">
+      <c r="A144" s="176" t="s">
         <v>181</v>
       </c>
-      <c r="B144" s="169"/>
+      <c r="B144" s="176"/>
       <c r="C144" s="76"/>
       <c r="D144" s="76"/>
     </row>
-    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" s="77" t="s">
         <v>1</v>
       </c>
@@ -7595,7 +7643,7 @@
       <c r="C145" s="76"/>
       <c r="D145" s="76"/>
     </row>
-    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" s="77" t="s">
         <v>3</v>
       </c>
@@ -7603,7 +7651,7 @@
       <c r="C146" s="76"/>
       <c r="D146" s="76"/>
     </row>
-    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147" s="77" t="s">
         <v>5</v>
       </c>
@@ -7611,7 +7659,7 @@
       <c r="C147" s="76"/>
       <c r="D147" s="76"/>
     </row>
-    <row r="148" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="60">
       <c r="A148" s="77" t="s">
         <v>183</v>
       </c>
@@ -7621,7 +7669,7 @@
       <c r="C148" s="76"/>
       <c r="D148" s="76"/>
     </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="15.75" thickBot="1">
       <c r="A149" s="80" t="s">
         <v>8</v>
       </c>
@@ -7629,7 +7677,7 @@
       <c r="C149" s="76"/>
       <c r="D149" s="76"/>
     </row>
-    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" s="81" t="s">
         <v>185</v>
       </c>
@@ -7641,7 +7689,7 @@
       </c>
       <c r="D150" s="83"/>
     </row>
-    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" s="84">
         <v>205916148</v>
       </c>
@@ -7653,7 +7701,7 @@
       </c>
       <c r="D151" s="86"/>
     </row>
-    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" s="84">
         <v>312321546</v>
       </c>
@@ -7665,7 +7713,7 @@
       </c>
       <c r="D152" s="86"/>
     </row>
-    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="15.75" thickBot="1">
       <c r="A153" s="87">
         <v>205916145</v>
       </c>
@@ -7675,29 +7723,29 @@
       <c r="C153" s="89"/>
       <c r="D153" s="89"/>
     </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="170" t="s">
+    <row r="154" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A154" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="B154" s="171"/>
-      <c r="C154" s="172"/>
+      <c r="B154" s="183"/>
+      <c r="C154" s="184"/>
       <c r="D154" s="90"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155" s="76"/>
       <c r="B155" s="76"/>
       <c r="C155" s="76"/>
       <c r="D155" s="76"/>
     </row>
-    <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A156" s="173" t="s">
+    <row r="156" spans="1:4" ht="18.75">
+      <c r="A156" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B156" s="173"/>
-      <c r="C156" s="173"/>
-      <c r="D156" s="173"/>
-    </row>
-    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B156" s="175"/>
+      <c r="C156" s="175"/>
+      <c r="D156" s="175"/>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="91" t="s">
         <v>17</v>
       </c>
@@ -7711,7 +7759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="45">
       <c r="A158" s="92" t="s">
         <v>187</v>
       </c>
@@ -7725,7 +7773,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="105">
       <c r="A159" s="92" t="s">
         <v>191</v>
       </c>
@@ -7739,7 +7787,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="60">
       <c r="A160" s="92" t="s">
         <v>195</v>
       </c>
@@ -7753,7 +7801,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="60">
       <c r="A161" s="92" t="s">
         <v>199</v>
       </c>
@@ -7767,7 +7815,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="45">
       <c r="A162" s="92" t="s">
         <v>132</v>
       </c>
@@ -7781,7 +7829,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="45">
       <c r="A163" s="92" t="s">
         <v>206</v>
       </c>
@@ -7793,7 +7841,7 @@
       </c>
       <c r="D163" s="94"/>
     </row>
-    <row r="164" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="45">
       <c r="A164" s="92" t="s">
         <v>209</v>
       </c>
@@ -7807,15 +7855,15 @@
         <v>212</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="169" t="s">
+    <row r="167" spans="1:4">
+      <c r="A167" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="B167" s="169"/>
+      <c r="B167" s="176"/>
       <c r="C167" s="76"/>
       <c r="D167" s="76"/>
     </row>
-    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168" s="77" t="s">
         <v>1</v>
       </c>
@@ -7825,7 +7873,7 @@
       <c r="C168" s="76"/>
       <c r="D168" s="76"/>
     </row>
-    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169" s="77" t="s">
         <v>3</v>
       </c>
@@ -7835,7 +7883,7 @@
       <c r="C169" s="76"/>
       <c r="D169" s="76"/>
     </row>
-    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" s="77" t="s">
         <v>5</v>
       </c>
@@ -7843,7 +7891,7 @@
       <c r="C170" s="76"/>
       <c r="D170" s="76"/>
     </row>
-    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171" s="77" t="s">
         <v>6</v>
       </c>
@@ -7853,41 +7901,41 @@
       <c r="C171" s="76"/>
       <c r="D171" s="76"/>
     </row>
-    <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="15.75" thickBot="1">
       <c r="A172" s="76"/>
       <c r="B172" s="76"/>
       <c r="C172" s="76"/>
       <c r="D172" s="76"/>
     </row>
-    <row r="173" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="174" t="s">
+    <row r="173" spans="1:4" ht="39.75" customHeight="1" thickBot="1">
+      <c r="A173" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="B173" s="175"/>
-      <c r="C173" s="176"/>
+      <c r="B173" s="186"/>
+      <c r="C173" s="187"/>
       <c r="D173" s="76"/>
     </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="15.75" thickBot="1">
       <c r="A174" s="101"/>
       <c r="B174" s="101"/>
       <c r="C174" s="102"/>
       <c r="D174" s="90"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="180"/>
-      <c r="B175" s="180"/>
-      <c r="C175" s="180"/>
+    <row r="175" spans="1:4">
+      <c r="A175" s="174"/>
+      <c r="B175" s="174"/>
+      <c r="C175" s="174"/>
       <c r="D175" s="76"/>
     </row>
-    <row r="176" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A176" s="173" t="s">
+    <row r="176" spans="1:4" ht="18.75">
+      <c r="A176" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B176" s="173"/>
-      <c r="C176" s="173"/>
-      <c r="D176" s="173"/>
-    </row>
-    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B176" s="175"/>
+      <c r="C176" s="175"/>
+      <c r="D176" s="175"/>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="91" t="s">
         <v>17</v>
       </c>
@@ -7901,7 +7949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="60">
       <c r="A178" s="92" t="s">
         <v>52</v>
       </c>
@@ -7913,7 +7961,7 @@
       </c>
       <c r="D178" s="94"/>
     </row>
-    <row r="179" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="45">
       <c r="A179" s="92" t="s">
         <v>219</v>
       </c>
@@ -7927,7 +7975,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="60">
       <c r="A180" s="92" t="s">
         <v>223</v>
       </c>
@@ -7939,15 +7987,15 @@
       </c>
       <c r="D180" s="94"/>
     </row>
-    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="169" t="s">
+    <row r="183" spans="1:4">
+      <c r="A183" s="176" t="s">
         <v>225</v>
       </c>
-      <c r="B183" s="169"/>
+      <c r="B183" s="176"/>
       <c r="C183" s="76"/>
       <c r="D183" s="76"/>
     </row>
-    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184" s="77" t="s">
         <v>1</v>
       </c>
@@ -7957,7 +8005,7 @@
       <c r="C184" s="76"/>
       <c r="D184" s="76"/>
     </row>
-    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185" s="77" t="s">
         <v>3</v>
       </c>
@@ -7967,7 +8015,7 @@
       <c r="C185" s="76"/>
       <c r="D185" s="76"/>
     </row>
-    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" s="77" t="s">
         <v>5</v>
       </c>
@@ -7975,7 +8023,7 @@
       <c r="C186" s="76"/>
       <c r="D186" s="76"/>
     </row>
-    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="30">
       <c r="A187" s="77" t="s">
         <v>6</v>
       </c>
@@ -7985,7 +8033,7 @@
       <c r="C187" s="76"/>
       <c r="D187" s="76"/>
     </row>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="15.75" thickBot="1">
       <c r="A188" s="80" t="s">
         <v>8</v>
       </c>
@@ -7993,7 +8041,7 @@
       <c r="C188" s="76"/>
       <c r="D188" s="76"/>
     </row>
-    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" s="81" t="s">
         <v>185</v>
       </c>
@@ -8003,7 +8051,7 @@
       <c r="C189" s="83"/>
       <c r="D189" s="76"/>
     </row>
-    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" s="84">
         <v>312312221</v>
       </c>
@@ -8013,7 +8061,7 @@
       <c r="C190" s="86"/>
       <c r="D190" s="76"/>
     </row>
-    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" s="84">
         <v>205495621</v>
       </c>
@@ -8023,23 +8071,23 @@
       <c r="C191" s="86"/>
       <c r="D191" s="76"/>
     </row>
-    <row r="192" spans="1:4" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="181" t="s">
+    <row r="192" spans="1:4" ht="52.5" customHeight="1" thickBot="1">
+      <c r="A192" s="177" t="s">
         <v>322</v>
       </c>
-      <c r="B192" s="182"/>
-      <c r="C192" s="183"/>
+      <c r="B192" s="178"/>
+      <c r="C192" s="179"/>
       <c r="D192" s="76"/>
     </row>
-    <row r="193" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A193" s="173" t="s">
+    <row r="193" spans="1:4" ht="18.75">
+      <c r="A193" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B193" s="173"/>
-      <c r="C193" s="173"/>
-      <c r="D193" s="173"/>
-    </row>
-    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B193" s="175"/>
+      <c r="C193" s="175"/>
+      <c r="D193" s="175"/>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="91" t="s">
         <v>17</v>
       </c>
@@ -8053,7 +8101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="60">
       <c r="A195" s="92" t="s">
         <v>230</v>
       </c>
@@ -8067,7 +8115,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="60">
       <c r="A196" s="92" t="s">
         <v>233</v>
       </c>
@@ -8081,7 +8129,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="75">
       <c r="A197" s="92" t="s">
         <v>236</v>
       </c>
@@ -8095,7 +8143,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="75">
       <c r="A198" s="92" t="s">
         <v>239</v>
       </c>
@@ -8109,7 +8157,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="75">
       <c r="A199" s="92" t="s">
         <v>242</v>
       </c>
@@ -8123,7 +8171,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="90">
       <c r="A200" s="92" t="s">
         <v>246</v>
       </c>
@@ -8137,7 +8185,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="75">
       <c r="A201" s="92" t="s">
         <v>249</v>
       </c>
@@ -8151,7 +8199,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="75">
       <c r="A202" s="92" t="s">
         <v>252</v>
       </c>
@@ -8165,7 +8213,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="75">
       <c r="A203" s="92" t="s">
         <v>255</v>
       </c>
@@ -8177,7 +8225,7 @@
       </c>
       <c r="D203" s="94"/>
     </row>
-    <row r="204" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="75">
       <c r="A204" s="92" t="s">
         <v>256</v>
       </c>
@@ -8191,27 +8239,27 @@
         <v>257</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4">
       <c r="A205" s="76"/>
       <c r="B205" s="76"/>
       <c r="C205" s="76"/>
       <c r="D205" s="76"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4">
       <c r="A206" s="76"/>
       <c r="B206" s="76"/>
       <c r="C206" s="76"/>
       <c r="D206" s="76"/>
     </row>
-    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A207" s="169" t="s">
+    <row r="207" spans="1:4">
+      <c r="A207" s="176" t="s">
         <v>258</v>
       </c>
-      <c r="B207" s="169"/>
+      <c r="B207" s="176"/>
       <c r="C207" s="76"/>
       <c r="D207" s="76"/>
     </row>
-    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4">
       <c r="A208" s="77" t="s">
         <v>1</v>
       </c>
@@ -8221,7 +8269,7 @@
       <c r="C208" s="76"/>
       <c r="D208" s="76"/>
     </row>
-    <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4">
       <c r="A209" s="77" t="s">
         <v>3</v>
       </c>
@@ -8231,7 +8279,7 @@
       <c r="C209" s="76"/>
       <c r="D209" s="76"/>
     </row>
-    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4">
       <c r="A210" s="77" t="s">
         <v>5</v>
       </c>
@@ -8239,7 +8287,7 @@
       <c r="C210" s="76"/>
       <c r="D210" s="76"/>
     </row>
-    <row r="211" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="30">
       <c r="A211" s="77" t="s">
         <v>6</v>
       </c>
@@ -8249,13 +8297,13 @@
       <c r="C211" s="76"/>
       <c r="D211" s="76"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4">
       <c r="A212" s="76"/>
       <c r="B212" s="76"/>
       <c r="C212" s="76"/>
       <c r="D212" s="76"/>
     </row>
-    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="15.75" thickBot="1">
       <c r="A213" s="80" t="s">
         <v>8</v>
       </c>
@@ -8263,7 +8311,7 @@
       <c r="C213" s="76"/>
       <c r="D213" s="76"/>
     </row>
-    <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4">
       <c r="A214" s="81" t="s">
         <v>185</v>
       </c>
@@ -8273,7 +8321,7 @@
       <c r="C214" s="83"/>
       <c r="D214" s="76"/>
     </row>
-    <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4">
       <c r="A215" s="84">
         <v>205495161</v>
       </c>
@@ -8283,7 +8331,7 @@
       <c r="C215" s="86"/>
       <c r="D215" s="76"/>
     </row>
-    <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4">
       <c r="A216" s="84">
         <v>205495162</v>
       </c>
@@ -8293,23 +8341,23 @@
       <c r="C216" s="86"/>
       <c r="D216" s="90"/>
     </row>
-    <row r="217" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="184" t="s">
+    <row r="217" spans="1:4" ht="51.75" customHeight="1">
+      <c r="A217" s="180" t="s">
         <v>324</v>
       </c>
-      <c r="B217" s="185"/>
-      <c r="C217" s="185"/>
+      <c r="B217" s="181"/>
+      <c r="C217" s="181"/>
       <c r="D217" s="76"/>
     </row>
-    <row r="218" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A218" s="173" t="s">
+    <row r="218" spans="1:4" ht="18.75">
+      <c r="A218" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B218" s="173"/>
-      <c r="C218" s="173"/>
-      <c r="D218" s="173"/>
-    </row>
-    <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B218" s="175"/>
+      <c r="C218" s="175"/>
+      <c r="D218" s="175"/>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" s="91" t="s">
         <v>17</v>
       </c>
@@ -8323,7 +8371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="90">
       <c r="A220" s="92" t="s">
         <v>260</v>
       </c>
@@ -8337,7 +8385,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="75">
       <c r="A221" s="92" t="s">
         <v>191</v>
       </c>
@@ -8351,7 +8399,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="105">
       <c r="A222" s="92" t="s">
         <v>199</v>
       </c>
@@ -8365,7 +8413,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="75">
       <c r="A223" s="92" t="s">
         <v>268</v>
       </c>
@@ -8379,7 +8427,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="75">
       <c r="A224" s="92" t="s">
         <v>272</v>
       </c>
@@ -8393,7 +8441,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="75">
       <c r="A225" s="92" t="s">
         <v>275</v>
       </c>
@@ -8407,7 +8455,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="90">
       <c r="A226" s="92" t="s">
         <v>278</v>
       </c>
@@ -8421,7 +8469,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="75">
       <c r="A227" s="92" t="s">
         <v>281</v>
       </c>
@@ -8435,39 +8483,39 @@
         <v>283</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228" s="76"/>
       <c r="B228" s="76"/>
       <c r="C228" s="76"/>
       <c r="D228" s="76"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229" s="76"/>
       <c r="B229" s="76"/>
       <c r="C229" s="76"/>
       <c r="D229" s="76"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230" s="76"/>
       <c r="B230" s="76"/>
       <c r="C230" s="76"/>
       <c r="D230" s="76"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4">
       <c r="A231" s="76"/>
       <c r="B231" s="76"/>
       <c r="C231" s="76"/>
       <c r="D231" s="76"/>
     </row>
-    <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A232" s="169" t="s">
+    <row r="232" spans="1:4">
+      <c r="A232" s="176" t="s">
         <v>284</v>
       </c>
-      <c r="B232" s="169"/>
+      <c r="B232" s="176"/>
       <c r="C232" s="76"/>
       <c r="D232" s="76"/>
     </row>
-    <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4">
       <c r="A233" s="77" t="s">
         <v>1</v>
       </c>
@@ -8477,7 +8525,7 @@
       <c r="C233" s="76"/>
       <c r="D233" s="76"/>
     </row>
-    <row r="234" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4">
       <c r="A234" s="77" t="s">
         <v>3</v>
       </c>
@@ -8487,7 +8535,7 @@
       <c r="C234" s="76"/>
       <c r="D234" s="76"/>
     </row>
-    <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4">
       <c r="A235" s="77" t="s">
         <v>5</v>
       </c>
@@ -8495,7 +8543,7 @@
       <c r="C235" s="76"/>
       <c r="D235" s="76"/>
     </row>
-    <row r="236" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="45">
       <c r="A236" s="77" t="s">
         <v>6</v>
       </c>
@@ -8505,13 +8553,13 @@
       <c r="C236" s="76"/>
       <c r="D236" s="76"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4">
       <c r="A237" s="76"/>
       <c r="B237" s="76"/>
       <c r="C237" s="76"/>
       <c r="D237" s="76"/>
     </row>
-    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="15.75" thickBot="1">
       <c r="A238" s="80" t="s">
         <v>8</v>
       </c>
@@ -8519,7 +8567,7 @@
       <c r="C238" s="76"/>
       <c r="D238" s="76"/>
     </row>
-    <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239" s="81" t="s">
         <v>185</v>
       </c>
@@ -8533,7 +8581,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240" s="95">
         <v>312546893</v>
       </c>
@@ -8547,7 +8595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4">
       <c r="A241" s="84">
         <v>205495161</v>
       </c>
@@ -8561,21 +8609,21 @@
         <v>293</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4">
       <c r="A242" s="100"/>
       <c r="B242" s="76"/>
       <c r="C242" s="76"/>
       <c r="D242" s="76"/>
     </row>
-    <row r="243" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A243" s="173" t="s">
+    <row r="243" spans="1:4" ht="18.75">
+      <c r="A243" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B243" s="173"/>
-      <c r="C243" s="173"/>
-      <c r="D243" s="173"/>
-    </row>
-    <row r="244" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B243" s="175"/>
+      <c r="C243" s="175"/>
+      <c r="D243" s="175"/>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" s="91" t="s">
         <v>17</v>
       </c>
@@ -8589,7 +8637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="90">
       <c r="A245" s="92" t="s">
         <v>294</v>
       </c>
@@ -8603,7 +8651,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="90">
       <c r="A246" s="92" t="s">
         <v>298</v>
       </c>
@@ -8617,7 +8665,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="75">
       <c r="A247" s="92" t="s">
         <v>268</v>
       </c>
@@ -8631,7 +8679,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="75">
       <c r="A248" s="92" t="s">
         <v>191</v>
       </c>
@@ -8645,7 +8693,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="75">
       <c r="A249" s="92" t="s">
         <v>199</v>
       </c>
@@ -8659,7 +8707,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="105">
       <c r="A250" s="92" t="s">
         <v>306</v>
       </c>
@@ -8673,7 +8721,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="75">
       <c r="A251" s="92" t="s">
         <v>309</v>
       </c>
@@ -8687,7 +8735,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="75">
       <c r="A252" s="92" t="s">
         <v>312</v>
       </c>
@@ -8701,7 +8749,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="75">
       <c r="A253" s="92" t="s">
         <v>315</v>
       </c>
@@ -8715,7 +8763,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="75">
       <c r="A254" s="92" t="s">
         <v>318</v>
       </c>
@@ -8729,15 +8777,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A257" s="186" t="s">
+    <row r="257" spans="1:4" ht="15.75">
+      <c r="A257" s="167" t="s">
         <v>356</v>
       </c>
-      <c r="B257" s="186"/>
+      <c r="B257" s="167"/>
       <c r="C257" s="103"/>
       <c r="D257" s="103"/>
     </row>
-    <row r="258" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="15.75">
       <c r="A258" s="104" t="s">
         <v>1</v>
       </c>
@@ -8747,7 +8795,7 @@
       <c r="C258" s="103"/>
       <c r="D258" s="103"/>
     </row>
-    <row r="259" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="15.75">
       <c r="A259" s="104" t="s">
         <v>3</v>
       </c>
@@ -8757,7 +8805,7 @@
       <c r="C259" s="103"/>
       <c r="D259" s="103"/>
     </row>
-    <row r="260" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="15.75">
       <c r="A260" s="104" t="s">
         <v>5</v>
       </c>
@@ -8765,7 +8813,7 @@
       <c r="C260" s="103"/>
       <c r="D260" s="103"/>
     </row>
-    <row r="261" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="47.25">
       <c r="A261" s="104" t="s">
         <v>6</v>
       </c>
@@ -8775,48 +8823,48 @@
       <c r="C261" s="103"/>
       <c r="D261" s="103"/>
     </row>
-    <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="15.75">
       <c r="A262" s="103"/>
       <c r="B262" s="103"/>
       <c r="C262" s="103"/>
       <c r="D262" s="103"/>
     </row>
-    <row r="263" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="15.75">
       <c r="A263" s="107" t="s">
         <v>8</v>
       </c>
       <c r="C263" s="103"/>
       <c r="D263" s="103"/>
     </row>
-    <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="16.5" thickBot="1">
       <c r="A264" s="115"/>
       <c r="B264" s="103"/>
       <c r="C264" s="103"/>
       <c r="D264" s="103"/>
     </row>
-    <row r="265" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="177" t="s">
+    <row r="265" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A265" s="173" t="s">
         <v>497</v>
       </c>
-      <c r="B265" s="178"/>
-      <c r="C265" s="179"/>
+      <c r="B265" s="169"/>
+      <c r="C265" s="170"/>
       <c r="D265" s="103"/>
     </row>
-    <row r="266" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="15.75">
       <c r="A266" s="103"/>
       <c r="B266" s="103"/>
       <c r="C266" s="103"/>
       <c r="D266" s="103"/>
     </row>
-    <row r="267" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A267" s="188" t="s">
+    <row r="267" spans="1:4" ht="15.75">
+      <c r="A267" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B267" s="188"/>
-      <c r="C267" s="188"/>
-      <c r="D267" s="188"/>
-    </row>
-    <row r="268" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B267" s="166"/>
+      <c r="C267" s="166"/>
+      <c r="D267" s="166"/>
+    </row>
+    <row r="268" spans="1:4" ht="15.75">
       <c r="A268" s="116" t="s">
         <v>17</v>
       </c>
@@ -8830,7 +8878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="78.75">
       <c r="A269" s="117" t="s">
         <v>52</v>
       </c>
@@ -8844,7 +8892,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="63">
       <c r="A270" s="117" t="s">
         <v>330</v>
       </c>
@@ -8858,7 +8906,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="63">
       <c r="A271" s="117" t="s">
         <v>334</v>
       </c>
@@ -8872,7 +8920,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="75.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="78.75">
       <c r="A272" s="117" t="s">
         <v>337</v>
       </c>
@@ -8884,7 +8932,7 @@
       </c>
       <c r="D272" s="119"/>
     </row>
-    <row r="273" spans="1:4" ht="75.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="78.75">
       <c r="A273" s="123" t="s">
         <v>339</v>
       </c>
@@ -8896,15 +8944,15 @@
       </c>
       <c r="D273" s="119"/>
     </row>
-    <row r="276" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A276" s="186" t="s">
+    <row r="276" spans="1:4" ht="15.75">
+      <c r="A276" s="167" t="s">
         <v>360</v>
       </c>
-      <c r="B276" s="186"/>
+      <c r="B276" s="167"/>
       <c r="C276" s="103"/>
       <c r="D276" s="103"/>
     </row>
-    <row r="277" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="94.5">
       <c r="A277" s="145" t="s">
         <v>1</v>
       </c>
@@ -8914,7 +8962,7 @@
       <c r="C277" s="103"/>
       <c r="D277" s="103"/>
     </row>
-    <row r="278" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="15.75">
       <c r="A278" s="104" t="s">
         <v>3</v>
       </c>
@@ -8924,7 +8972,7 @@
       <c r="C278" s="103"/>
       <c r="D278" s="103"/>
     </row>
-    <row r="279" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="15.75">
       <c r="A279" s="104" t="s">
         <v>5</v>
       </c>
@@ -8934,7 +8982,7 @@
       <c r="C279" s="103"/>
       <c r="D279" s="103"/>
     </row>
-    <row r="280" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="31.5">
       <c r="A280" s="104" t="s">
         <v>6</v>
       </c>
@@ -8944,13 +8992,13 @@
       <c r="C280" s="103"/>
       <c r="D280" s="103"/>
     </row>
-    <row r="281" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="15.75">
       <c r="A281" s="103"/>
       <c r="B281" s="103"/>
       <c r="C281" s="103"/>
       <c r="D281" s="103"/>
     </row>
-    <row r="282" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="16.5" thickBot="1">
       <c r="A282" s="107" t="s">
         <v>8</v>
       </c>
@@ -8960,31 +9008,31 @@
       <c r="C282" s="103"/>
       <c r="D282" s="103"/>
     </row>
-    <row r="283" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="15.75">
       <c r="A283" s="108" t="s">
         <v>46</v>
       </c>
       <c r="B283" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C283" s="201" t="s">
+      <c r="C283" s="154" t="s">
         <v>345</v>
       </c>
-      <c r="D283" s="198"/>
-    </row>
-    <row r="284" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D283" s="151"/>
+    </row>
+    <row r="284" spans="1:4" ht="16.5" thickBot="1">
       <c r="A284" s="110">
         <v>123456359</v>
       </c>
       <c r="B284" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="C284" s="203" t="s">
+      <c r="C284" s="156" t="s">
         <v>346</v>
       </c>
-      <c r="D284" s="199"/>
-    </row>
-    <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D284" s="152"/>
+    </row>
+    <row r="285" spans="1:4" ht="16.5" thickBot="1">
       <c r="A285" s="110">
         <v>123456789</v>
       </c>
@@ -8994,47 +9042,47 @@
       <c r="C285" s="112" t="s">
         <v>347</v>
       </c>
-      <c r="D285" s="199"/>
-    </row>
-    <row r="286" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D285" s="152"/>
+    </row>
+    <row r="286" spans="1:4" ht="16.5" thickBot="1">
       <c r="A286" s="113">
         <v>547854478</v>
       </c>
       <c r="B286" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="C286" s="202"/>
-      <c r="D286" s="200"/>
-    </row>
-    <row r="287" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C286" s="155"/>
+      <c r="D286" s="153"/>
+    </row>
+    <row r="287" spans="1:4" ht="16.5" thickBot="1">
       <c r="A287" s="115"/>
       <c r="B287" s="103"/>
       <c r="C287" s="103"/>
       <c r="D287" s="103"/>
     </row>
-    <row r="288" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="189" t="s">
+    <row r="288" spans="1:4" ht="36" customHeight="1" thickBot="1">
+      <c r="A288" s="168" t="s">
         <v>348</v>
       </c>
-      <c r="B288" s="178"/>
-      <c r="C288" s="179"/>
+      <c r="B288" s="169"/>
+      <c r="C288" s="170"/>
       <c r="D288" s="103"/>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="15" customHeight="1">
       <c r="A289" s="103"/>
       <c r="B289" s="103"/>
       <c r="C289" s="103"/>
       <c r="D289" s="103"/>
     </row>
-    <row r="290" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A290" s="188" t="s">
+    <row r="290" spans="1:4" ht="15.75">
+      <c r="A290" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B290" s="188"/>
-      <c r="C290" s="188"/>
-      <c r="D290" s="188"/>
-    </row>
-    <row r="291" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B290" s="166"/>
+      <c r="C290" s="166"/>
+      <c r="D290" s="166"/>
+    </row>
+    <row r="291" spans="1:4" ht="15.75">
       <c r="A291" s="116" t="s">
         <v>17</v>
       </c>
@@ -9048,7 +9096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="94.5">
       <c r="A292" s="117" t="s">
         <v>349</v>
       </c>
@@ -9062,7 +9110,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="94.5">
       <c r="A293" s="117" t="s">
         <v>351</v>
       </c>
@@ -9076,7 +9124,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="63">
       <c r="A294" s="117" t="s">
         <v>56</v>
       </c>
@@ -9090,7 +9138,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="90.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="94.5">
       <c r="A295" s="117" t="s">
         <v>60</v>
       </c>
@@ -9104,7 +9152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="63">
       <c r="A296" s="120" t="s">
         <v>56</v>
       </c>
@@ -9118,7 +9166,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="47.25">
       <c r="A297" s="120" t="s">
         <v>352</v>
       </c>
@@ -9132,7 +9180,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="94.5">
       <c r="A298" s="117" t="s">
         <v>353</v>
       </c>
@@ -9146,7 +9194,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="94.5">
       <c r="A299" s="117" t="s">
         <v>513</v>
       </c>
@@ -9160,7 +9208,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="94.5">
       <c r="A300" s="123" t="s">
         <v>73</v>
       </c>
@@ -9172,21 +9220,21 @@
       </c>
       <c r="D300" s="119"/>
     </row>
-    <row r="301" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="15.75">
       <c r="A301" s="124"/>
       <c r="B301" s="124"/>
       <c r="C301" s="124"/>
       <c r="D301" s="124"/>
     </row>
-    <row r="303" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A303" s="190" t="s">
+    <row r="303" spans="1:4">
+      <c r="A303" s="157" t="s">
         <v>474</v>
       </c>
-      <c r="B303" s="190"/>
+      <c r="B303" s="157"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4">
       <c r="A304" s="2" t="s">
         <v>1</v>
       </c>
@@ -9196,7 +9244,7 @@
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4">
       <c r="A305" s="2" t="s">
         <v>3</v>
       </c>
@@ -9206,7 +9254,7 @@
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4">
       <c r="A306" s="2" t="s">
         <v>5</v>
       </c>
@@ -9214,7 +9262,7 @@
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4">
       <c r="A307" s="2" t="s">
         <v>6</v>
       </c>
@@ -9224,13 +9272,13 @@
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="15.75" thickBot="1">
       <c r="A309" s="5" t="s">
         <v>8</v>
       </c>
@@ -9238,7 +9286,7 @@
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4">
       <c r="A310" s="6" t="s">
         <v>363</v>
       </c>
@@ -9250,7 +9298,7 @@
       </c>
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4">
       <c r="A311" s="9">
         <v>111</v>
       </c>
@@ -9262,7 +9310,7 @@
       </c>
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="15.75" thickBot="1">
       <c r="A312" s="9">
         <v>222</v>
       </c>
@@ -9272,28 +9320,28 @@
       <c r="C312" s="11"/>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="191" t="s">
+    <row r="313" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A313" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="B313" s="192"/>
-      <c r="C313" s="193"/>
+      <c r="B313" s="159"/>
+      <c r="C313" s="160"/>
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="18.75">
       <c r="A315" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B315" s="15"/>
       <c r="C315" s="15"/>
     </row>
-    <row r="316" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4">
       <c r="A316" s="16" t="s">
         <v>17</v>
       </c>
@@ -9307,7 +9355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="60">
       <c r="A317" s="17" t="s">
         <v>365</v>
       </c>
@@ -9321,7 +9369,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="60">
       <c r="A318" s="17" t="s">
         <v>369</v>
       </c>
@@ -9335,7 +9383,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="60">
       <c r="A319" s="17" t="s">
         <v>373</v>
       </c>
@@ -9349,7 +9397,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="60">
       <c r="A320" s="17" t="s">
         <v>375</v>
       </c>
@@ -9363,7 +9411,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="45">
       <c r="A321" s="17" t="s">
         <v>379</v>
       </c>
@@ -9377,7 +9425,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="45">
       <c r="A322" s="17" t="s">
         <v>383</v>
       </c>
@@ -9389,38 +9437,38 @@
       </c>
       <c r="D322" s="19"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A327" s="190" t="s">
+    <row r="327" spans="1:4">
+      <c r="A327" s="157" t="s">
         <v>475</v>
       </c>
-      <c r="B327" s="190"/>
+      <c r="B327" s="157"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="21.75" customHeight="1">
       <c r="A328" s="2" t="s">
         <v>1</v>
       </c>
@@ -9430,7 +9478,7 @@
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
         <v>3</v>
       </c>
@@ -9440,7 +9488,7 @@
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4">
       <c r="A330" s="2" t="s">
         <v>5</v>
       </c>
@@ -9448,7 +9496,7 @@
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4">
       <c r="A331" s="2" t="s">
         <v>6</v>
       </c>
@@ -9458,7 +9506,7 @@
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="30">
       <c r="A332" s="146" t="s">
         <v>530</v>
       </c>
@@ -9468,7 +9516,7 @@
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
     </row>
-    <row r="333" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="15.75" thickBot="1">
       <c r="A333" s="5" t="s">
         <v>8</v>
       </c>
@@ -9476,7 +9524,7 @@
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4">
       <c r="A334" s="6" t="s">
         <v>532</v>
       </c>
@@ -9484,7 +9532,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4">
       <c r="A335" s="9">
         <v>111</v>
       </c>
@@ -9492,7 +9540,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4">
       <c r="A336" s="9">
         <v>222</v>
       </c>
@@ -9500,25 +9548,25 @@
         <v>546</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="15.75" thickBot="1">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
     </row>
-    <row r="338" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="194" t="s">
+    <row r="338" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A338" s="172" t="s">
         <v>529</v>
       </c>
-      <c r="B338" s="192"/>
-      <c r="C338" s="193"/>
+      <c r="B338" s="159"/>
+      <c r="C338" s="160"/>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="18.75">
       <c r="A340" s="15" t="s">
         <v>16</v>
       </c>
@@ -9526,7 +9574,7 @@
       <c r="C340" s="15"/>
       <c r="D340" s="15"/>
     </row>
-    <row r="341" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4">
       <c r="A341" s="16" t="s">
         <v>17</v>
       </c>
@@ -9540,7 +9588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="75">
       <c r="A342" s="17" t="s">
         <v>387</v>
       </c>
@@ -9554,7 +9602,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="60">
       <c r="A343" s="17" t="s">
         <v>541</v>
       </c>
@@ -9566,7 +9614,7 @@
       </c>
       <c r="D343" s="19"/>
     </row>
-    <row r="344" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="90">
       <c r="A344" s="17" t="s">
         <v>536</v>
       </c>
@@ -9580,7 +9628,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="90">
       <c r="A345" s="17" t="s">
         <v>389</v>
       </c>
@@ -9594,14 +9642,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A348" s="195" t="s">
+    <row r="348" spans="1:4">
+      <c r="A348" s="161" t="s">
         <v>476</v>
       </c>
-      <c r="B348" s="195"/>
+      <c r="B348" s="161"/>
       <c r="C348"/>
     </row>
-    <row r="349" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4">
       <c r="A349" s="22" t="s">
         <v>1</v>
       </c>
@@ -9611,7 +9659,7 @@
       <c r="C349"/>
       <c r="D349"/>
     </row>
-    <row r="350" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4">
       <c r="A350" s="22" t="s">
         <v>3</v>
       </c>
@@ -9621,7 +9669,7 @@
       <c r="C350"/>
       <c r="D350"/>
     </row>
-    <row r="351" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="22" t="s">
         <v>5</v>
       </c>
@@ -9629,7 +9677,7 @@
       <c r="C351"/>
       <c r="D351"/>
     </row>
-    <row r="352" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4">
       <c r="A352" s="22" t="s">
         <v>6</v>
       </c>
@@ -9639,13 +9687,13 @@
       <c r="C352"/>
       <c r="D352"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
       <c r="D353"/>
     </row>
-    <row r="354" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="15.75" thickBot="1">
       <c r="A354" s="24" t="s">
         <v>8</v>
       </c>
@@ -9655,7 +9703,7 @@
       <c r="C354"/>
       <c r="D354"/>
     </row>
-    <row r="355" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="25" t="s">
         <v>395</v>
       </c>
@@ -9667,7 +9715,7 @@
       </c>
       <c r="D355"/>
     </row>
-    <row r="356" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="26" t="s">
         <v>397</v>
       </c>
@@ -9677,7 +9725,7 @@
       <c r="C356" s="127"/>
       <c r="D356"/>
     </row>
-    <row r="357" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="15.75" thickBot="1">
       <c r="A357" s="128" t="s">
         <v>398</v>
       </c>
@@ -9687,21 +9735,21 @@
       <c r="C357" s="130"/>
       <c r="D357"/>
     </row>
-    <row r="358" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="187" t="s">
+    <row r="358" spans="1:4" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A358" s="162" t="s">
         <v>399</v>
       </c>
-      <c r="B358" s="153"/>
-      <c r="C358" s="154"/>
+      <c r="B358" s="163"/>
+      <c r="C358" s="164"/>
       <c r="D358"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
       <c r="D359"/>
     </row>
-    <row r="360" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="18.75">
       <c r="A360" s="131" t="s">
         <v>16</v>
       </c>
@@ -9709,7 +9757,7 @@
       <c r="C360" s="131"/>
       <c r="D360" s="131"/>
     </row>
-    <row r="361" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="132" t="s">
         <v>17</v>
       </c>
@@ -9723,7 +9771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" ht="56.25" customHeight="1">
       <c r="A362" s="17" t="s">
         <v>400</v>
       </c>
@@ -9737,7 +9785,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" ht="61.5" customHeight="1">
       <c r="A363" s="17" t="s">
         <v>483</v>
       </c>
@@ -9751,7 +9799,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" ht="60">
       <c r="A364" s="133" t="s">
         <v>405</v>
       </c>
@@ -9763,7 +9811,7 @@
       </c>
       <c r="D364" s="144"/>
     </row>
-    <row r="365" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" ht="45">
       <c r="A365" s="133" t="s">
         <v>407</v>
       </c>
@@ -9777,14 +9825,14 @@
         <v>410</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A368" s="195" t="s">
+    <row r="368" spans="1:4">
+      <c r="A368" s="161" t="s">
         <v>477</v>
       </c>
-      <c r="B368" s="195"/>
+      <c r="B368" s="161"/>
       <c r="C368"/>
     </row>
-    <row r="369" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4">
       <c r="A369" s="22" t="s">
         <v>1</v>
       </c>
@@ -9793,7 +9841,7 @@
       </c>
       <c r="C369"/>
     </row>
-    <row r="370" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4">
       <c r="A370" s="22" t="s">
         <v>3</v>
       </c>
@@ -9803,7 +9851,7 @@
       <c r="C370"/>
       <c r="D370"/>
     </row>
-    <row r="371" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="22" t="s">
         <v>5</v>
       </c>
@@ -9811,7 +9859,7 @@
       <c r="C371"/>
       <c r="D371"/>
     </row>
-    <row r="372" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4">
       <c r="A372" s="22" t="s">
         <v>6</v>
       </c>
@@ -9821,13 +9869,13 @@
       <c r="C372"/>
       <c r="D372"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373"/>
     </row>
-    <row r="374" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="15.75" thickBot="1">
       <c r="A374" s="24" t="s">
         <v>8</v>
       </c>
@@ -9837,7 +9885,7 @@
       <c r="C374"/>
       <c r="D374"/>
     </row>
-    <row r="375" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="25" t="s">
         <v>395</v>
       </c>
@@ -9849,7 +9897,7 @@
       </c>
       <c r="D375"/>
     </row>
-    <row r="376" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="26" t="s">
         <v>415</v>
       </c>
@@ -9859,7 +9907,7 @@
       <c r="C376" s="127"/>
       <c r="D376"/>
     </row>
-    <row r="377" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="26" t="s">
         <v>416</v>
       </c>
@@ -9869,27 +9917,27 @@
       <c r="C377" s="127"/>
       <c r="D377"/>
     </row>
-    <row r="378" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="15.75" thickBot="1">
       <c r="A378" s="128"/>
       <c r="B378" s="129"/>
       <c r="C378" s="130"/>
       <c r="D378"/>
     </row>
-    <row r="379" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="187" t="s">
+    <row r="379" spans="1:4" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A379" s="162" t="s">
         <v>417</v>
       </c>
-      <c r="B379" s="153"/>
-      <c r="C379" s="154"/>
+      <c r="B379" s="163"/>
+      <c r="C379" s="164"/>
       <c r="D379"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
       <c r="D380"/>
     </row>
-    <row r="381" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="18.75">
       <c r="A381" s="131" t="s">
         <v>16</v>
       </c>
@@ -9897,7 +9945,7 @@
       <c r="C381" s="131"/>
       <c r="D381" s="131"/>
     </row>
-    <row r="382" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="132" t="s">
         <v>17</v>
       </c>
@@ -9911,7 +9959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" ht="60">
       <c r="A383" s="17" t="s">
         <v>418</v>
       </c>
@@ -9925,7 +9973,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" ht="51" customHeight="1">
       <c r="A384" s="143" t="s">
         <v>405</v>
       </c>
@@ -9937,7 +9985,7 @@
       </c>
       <c r="D384" s="30"/>
     </row>
-    <row r="385" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" ht="64.5" customHeight="1">
       <c r="A385" s="143" t="s">
         <v>423</v>
       </c>
@@ -9949,7 +9997,7 @@
       </c>
       <c r="D385" s="30"/>
     </row>
-    <row r="386" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" ht="45">
       <c r="A386" s="143" t="s">
         <v>481</v>
       </c>
@@ -9963,7 +10011,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" ht="45">
       <c r="A387" s="143" t="s">
         <v>427</v>
       </c>
@@ -9977,14 +10025,14 @@
         <v>430</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A390" s="190" t="s">
+    <row r="390" spans="1:4">
+      <c r="A390" s="157" t="s">
         <v>478</v>
       </c>
-      <c r="B390" s="190"/>
+      <c r="B390" s="157"/>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391" s="2" t="s">
         <v>1</v>
       </c>
@@ -9993,7 +10041,7 @@
       </c>
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392" s="2" t="s">
         <v>3</v>
       </c>
@@ -10003,7 +10051,7 @@
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
     </row>
-    <row r="393" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393" s="2" t="s">
         <v>5</v>
       </c>
@@ -10011,7 +10059,7 @@
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
     </row>
-    <row r="394" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" ht="30">
       <c r="A394" s="2" t="s">
         <v>6</v>
       </c>
@@ -10021,13 +10069,13 @@
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
     </row>
-    <row r="396" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="15.75" thickBot="1">
       <c r="A396" s="5" t="s">
         <v>8</v>
       </c>
@@ -10037,7 +10085,7 @@
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
     </row>
-    <row r="397" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397" s="6" t="s">
         <v>395</v>
       </c>
@@ -10049,7 +10097,7 @@
       </c>
       <c r="D397" s="1"/>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398" s="9" t="s">
         <v>415</v>
       </c>
@@ -10061,7 +10109,7 @@
       </c>
       <c r="D398" s="1"/>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
         <v>416</v>
       </c>
@@ -10073,27 +10121,27 @@
       </c>
       <c r="D399" s="1"/>
     </row>
-    <row r="400" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="15.75" thickBot="1">
       <c r="A400" s="12"/>
       <c r="B400" s="13"/>
       <c r="C400" s="14"/>
       <c r="D400" s="1"/>
     </row>
-    <row r="401" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="197" t="s">
+    <row r="401" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A401" s="165" t="s">
         <v>438</v>
       </c>
-      <c r="B401" s="192"/>
-      <c r="C401" s="193"/>
+      <c r="B401" s="159"/>
+      <c r="C401" s="160"/>
       <c r="D401" s="1"/>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
     </row>
-    <row r="403" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" ht="18.75">
       <c r="A403" s="15" t="s">
         <v>16</v>
       </c>
@@ -10101,7 +10149,7 @@
       <c r="C403" s="15"/>
       <c r="D403" s="15"/>
     </row>
-    <row r="404" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="16" t="s">
         <v>17</v>
       </c>
@@ -10115,7 +10163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" ht="30">
       <c r="A405" s="27" t="s">
         <v>400</v>
       </c>
@@ -10129,7 +10177,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" ht="30">
       <c r="A406" s="27" t="s">
         <v>407</v>
       </c>
@@ -10143,7 +10191,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" ht="30">
       <c r="A407" s="27"/>
       <c r="B407" s="28" t="s">
         <v>444</v>
@@ -10151,14 +10199,14 @@
       <c r="C407" s="28"/>
       <c r="D407" s="29"/>
     </row>
-    <row r="410" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A410" s="190" t="s">
+    <row r="410" spans="1:4">
+      <c r="A410" s="157" t="s">
         <v>479</v>
       </c>
-      <c r="B410" s="190"/>
+      <c r="B410" s="157"/>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="2" t="s">
         <v>1</v>
       </c>
@@ -10167,7 +10215,7 @@
       </c>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="2" t="s">
         <v>3</v>
       </c>
@@ -10177,7 +10225,7 @@
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
     </row>
-    <row r="413" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="2" t="s">
         <v>5</v>
       </c>
@@ -10185,7 +10233,7 @@
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
     </row>
-    <row r="414" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="2" t="s">
         <v>6</v>
       </c>
@@ -10195,13 +10243,13 @@
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
     </row>
-    <row r="416" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" ht="15.75" thickBot="1">
       <c r="A416" s="5" t="s">
         <v>8</v>
       </c>
@@ -10211,7 +10259,7 @@
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
     </row>
-    <row r="417" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="6" t="s">
         <v>395</v>
       </c>
@@ -10223,7 +10271,7 @@
       </c>
       <c r="D417" s="1"/>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="9" t="s">
         <v>415</v>
       </c>
@@ -10235,7 +10283,7 @@
       </c>
       <c r="D418" s="1"/>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="9" t="s">
         <v>450</v>
       </c>
@@ -10247,7 +10295,7 @@
       </c>
       <c r="D419" s="1"/>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="12" t="s">
         <v>416</v>
       </c>
@@ -10259,7 +10307,7 @@
       </c>
       <c r="D420" s="1"/>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="12" t="s">
         <v>452</v>
       </c>
@@ -10271,7 +10319,7 @@
       </c>
       <c r="D421" s="1"/>
     </row>
-    <row r="422" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" ht="15.75" thickBot="1">
       <c r="A422" s="137" t="s">
         <v>454</v>
       </c>
@@ -10283,21 +10331,21 @@
       </c>
       <c r="D422" s="1"/>
     </row>
-    <row r="423" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="196" t="s">
+    <row r="423" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A423" s="158" t="s">
         <v>456</v>
       </c>
-      <c r="B423" s="192"/>
-      <c r="C423" s="193"/>
+      <c r="B423" s="159"/>
+      <c r="C423" s="160"/>
       <c r="D423" s="1"/>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
     </row>
-    <row r="425" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" ht="18.75">
       <c r="A425" s="15" t="s">
         <v>16</v>
       </c>
@@ -10305,7 +10353,7 @@
       <c r="C425" s="15"/>
       <c r="D425" s="15"/>
     </row>
-    <row r="426" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426" s="16" t="s">
         <v>17</v>
       </c>
@@ -10319,7 +10367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" ht="60">
       <c r="A427" s="27" t="s">
         <v>457</v>
       </c>
@@ -10331,7 +10379,7 @@
       </c>
       <c r="D427" s="29"/>
     </row>
-    <row r="428" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" ht="60">
       <c r="A428" s="27" t="s">
         <v>460</v>
       </c>
@@ -10343,7 +10391,7 @@
       </c>
       <c r="D428" s="29"/>
     </row>
-    <row r="429" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" ht="102.75" customHeight="1">
       <c r="A429" s="27" t="s">
         <v>467</v>
       </c>
@@ -10357,7 +10405,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" ht="60">
       <c r="A430" s="27" t="s">
         <v>471</v>
       </c>
@@ -10371,7 +10419,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" ht="60">
       <c r="A431" s="27" t="s">
         <v>463</v>
       </c>
@@ -10385,32 +10433,39 @@
         <v>466</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432" s="140"/>
       <c r="B432" s="141"/>
       <c r="C432" s="141"/>
     </row>
-    <row r="434" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="4:4">
       <c r="D434" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A410:B410"/>
-    <mergeCell ref="A423:C423"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A390:B390"/>
-    <mergeCell ref="A401:C401"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A173:C173"/>
     <mergeCell ref="A265:C265"/>
     <mergeCell ref="A175:C175"/>
     <mergeCell ref="A176:D176"/>
@@ -10423,36 +10478,30 @@
     <mergeCell ref="A232:B232"/>
     <mergeCell ref="A243:D243"/>
     <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="A410:B410"/>
+    <mergeCell ref="A423:C423"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A390:B390"/>
+    <mergeCell ref="A401:C401"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -10462,7 +10511,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10474,7 +10523,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Asseignment1/G10_Acceptance.Ass.1.xlsx
+++ b/Asseignment1/G10_Acceptance.Ass.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aj_pa\labRep\Asseignment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\labRep\Asseignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="557">
   <si>
     <r>
       <t xml:space="preserve">Acceptance Testing for Use Case: </t>
@@ -4368,11 +4368,17 @@
   <si>
     <t>ajbolous@gmail.com</t>
   </si>
+  <si>
+    <t>Ahdab Serhan</t>
+  </si>
+  <si>
+    <t>ms.ahdab@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="29">
     <font>
       <sz val="11"/>
@@ -5509,145 +5515,145 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5771,23 +5777,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5823,23 +5812,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6018,8 +5990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6063,11 +6035,19 @@
         <v>554</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="B5" s="150" t="s">
+        <v>556</v>
+      </c>
+    </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="189"/>
+      <c r="B8" s="157"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
     </row>
@@ -6172,11 +6152,11 @@
       <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="199" t="s">
+      <c r="A19" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="163"/>
-      <c r="C19" s="164"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="160"/>
       <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:6">
@@ -6186,12 +6166,12 @@
       <c r="D20" s="36"/>
     </row>
     <row r="21" spans="1:6" ht="18.75">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="188"/>
-      <c r="C21" s="188"/>
-      <c r="D21" s="188"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="48" t="s">
@@ -6292,12 +6272,12 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="203" t="s">
+      <c r="A32" s="165" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="203"/>
-      <c r="C32" s="203"/>
-      <c r="D32" s="203"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
     </row>
@@ -6397,11 +6377,11 @@
       <c r="F42" s="36"/>
     </row>
     <row r="43" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A43" s="199" t="s">
+      <c r="A43" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="200"/>
-      <c r="C43" s="201"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="163"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
     </row>
@@ -6410,12 +6390,12 @@
       <c r="F44" s="36"/>
     </row>
     <row r="45" spans="1:6" ht="18.75">
-      <c r="A45" s="202" t="s">
+      <c r="A45" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="202"/>
-      <c r="C45" s="202"/>
-      <c r="D45" s="202"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
     </row>
@@ -6550,10 +6530,10 @@
       <c r="F54" s="36"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="189" t="s">
+      <c r="A55" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="189"/>
+      <c r="B55" s="157"/>
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
@@ -6668,9 +6648,9 @@
       <c r="F65" s="36"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="190"/>
-      <c r="B66" s="191"/>
-      <c r="C66" s="191"/>
+      <c r="A66" s="166"/>
+      <c r="B66" s="167"/>
+      <c r="C66" s="167"/>
       <c r="D66" s="36"/>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
@@ -6684,12 +6664,12 @@
       <c r="F67" s="36"/>
     </row>
     <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="188" t="s">
+      <c r="A68" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="188"/>
-      <c r="C68" s="188"/>
-      <c r="D68" s="188"/>
+      <c r="B68" s="161"/>
+      <c r="C68" s="161"/>
+      <c r="D68" s="161"/>
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
     </row>
@@ -6926,10 +6906,10 @@
       <c r="F84" s="36"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="189" t="s">
+      <c r="A85" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="B85" s="189"/>
+      <c r="B85" s="157"/>
       <c r="C85" s="50"/>
       <c r="D85" s="50"/>
       <c r="E85" s="50"/>
@@ -7036,11 +7016,11 @@
       <c r="F94" s="36"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="190" t="s">
+      <c r="A95" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="B95" s="191"/>
-      <c r="C95" s="191"/>
+      <c r="B95" s="167"/>
+      <c r="C95" s="167"/>
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
@@ -7054,12 +7034,12 @@
       <c r="F96" s="36"/>
     </row>
     <row r="97" spans="1:6" ht="18.75">
-      <c r="A97" s="188" t="s">
+      <c r="A97" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="188"/>
-      <c r="C97" s="188"/>
-      <c r="D97" s="188"/>
+      <c r="B97" s="161"/>
+      <c r="C97" s="161"/>
+      <c r="D97" s="161"/>
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
     </row>
@@ -7150,10 +7130,10 @@
       <c r="F103" s="36"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="189" t="s">
+      <c r="A104" s="157" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="189"/>
+      <c r="B104" s="157"/>
       <c r="C104" s="63"/>
       <c r="D104" s="63"/>
       <c r="E104" s="50"/>
@@ -7274,11 +7254,11 @@
       <c r="F114" s="36"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A115" s="192" t="s">
+      <c r="A115" s="168" t="s">
         <v>143</v>
       </c>
-      <c r="B115" s="193"/>
-      <c r="C115" s="194"/>
+      <c r="B115" s="169"/>
+      <c r="C115" s="170"/>
       <c r="D115" s="64"/>
       <c r="E115" s="36"/>
       <c r="F115" s="36"/>
@@ -7292,12 +7272,12 @@
       <c r="F116" s="36"/>
     </row>
     <row r="117" spans="1:6" ht="18.75">
-      <c r="A117" s="195" t="s">
+      <c r="A117" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="B117" s="195"/>
-      <c r="C117" s="195"/>
-      <c r="D117" s="195"/>
+      <c r="B117" s="171"/>
+      <c r="C117" s="171"/>
+      <c r="D117" s="171"/>
       <c r="E117" s="36"/>
       <c r="F117" s="36"/>
     </row>
@@ -7372,10 +7352,10 @@
       <c r="F122" s="36"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="189" t="s">
+      <c r="A123" s="157" t="s">
         <v>180</v>
       </c>
-      <c r="B123" s="189"/>
+      <c r="B123" s="157"/>
       <c r="C123" s="50"/>
       <c r="D123" s="50"/>
       <c r="E123" s="50"/>
@@ -7536,11 +7516,11 @@
       <c r="F134" s="18"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A135" s="196" t="s">
+      <c r="A135" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="B135" s="197"/>
-      <c r="C135" s="198"/>
+      <c r="B135" s="173"/>
+      <c r="C135" s="174"/>
       <c r="D135" s="36"/>
       <c r="E135" s="36"/>
       <c r="F135" s="36"/>
@@ -7554,12 +7534,12 @@
       <c r="F136" s="36"/>
     </row>
     <row r="137" spans="1:6" ht="18.75">
-      <c r="A137" s="188" t="s">
+      <c r="A137" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="188"/>
-      <c r="C137" s="188"/>
-      <c r="D137" s="188"/>
+      <c r="B137" s="161"/>
+      <c r="C137" s="161"/>
+      <c r="D137" s="161"/>
       <c r="E137" s="36"/>
       <c r="F137" s="36"/>
     </row>
@@ -7626,10 +7606,10 @@
       <c r="F141" s="36"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="176" t="s">
+      <c r="A144" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="B144" s="176"/>
+      <c r="B144" s="175"/>
       <c r="C144" s="76"/>
       <c r="D144" s="76"/>
     </row>
@@ -7724,11 +7704,11 @@
       <c r="D153" s="89"/>
     </row>
     <row r="154" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A154" s="182" t="s">
+      <c r="A154" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="B154" s="183"/>
-      <c r="C154" s="184"/>
+      <c r="B154" s="177"/>
+      <c r="C154" s="178"/>
       <c r="D154" s="90"/>
     </row>
     <row r="155" spans="1:4">
@@ -7738,12 +7718,12 @@
       <c r="D155" s="76"/>
     </row>
     <row r="156" spans="1:4" ht="18.75">
-      <c r="A156" s="175" t="s">
+      <c r="A156" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B156" s="175"/>
-      <c r="C156" s="175"/>
-      <c r="D156" s="175"/>
+      <c r="B156" s="179"/>
+      <c r="C156" s="179"/>
+      <c r="D156" s="179"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="91" t="s">
@@ -7856,10 +7836,10 @@
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="176" t="s">
+      <c r="A167" s="175" t="s">
         <v>213</v>
       </c>
-      <c r="B167" s="176"/>
+      <c r="B167" s="175"/>
       <c r="C167" s="76"/>
       <c r="D167" s="76"/>
     </row>
@@ -7908,11 +7888,11 @@
       <c r="D172" s="76"/>
     </row>
     <row r="173" spans="1:4" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A173" s="185" t="s">
+      <c r="A173" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="B173" s="186"/>
-      <c r="C173" s="187"/>
+      <c r="B173" s="181"/>
+      <c r="C173" s="182"/>
       <c r="D173" s="76"/>
     </row>
     <row r="174" spans="1:4" ht="15.75" thickBot="1">
@@ -7922,18 +7902,18 @@
       <c r="D174" s="90"/>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="174"/>
-      <c r="B175" s="174"/>
-      <c r="C175" s="174"/>
+      <c r="A175" s="186"/>
+      <c r="B175" s="186"/>
+      <c r="C175" s="186"/>
       <c r="D175" s="76"/>
     </row>
     <row r="176" spans="1:4" ht="18.75">
-      <c r="A176" s="175" t="s">
+      <c r="A176" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B176" s="175"/>
-      <c r="C176" s="175"/>
-      <c r="D176" s="175"/>
+      <c r="B176" s="179"/>
+      <c r="C176" s="179"/>
+      <c r="D176" s="179"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="91" t="s">
@@ -7988,10 +7968,10 @@
       <c r="D180" s="94"/>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="176" t="s">
+      <c r="A183" s="175" t="s">
         <v>225</v>
       </c>
-      <c r="B183" s="176"/>
+      <c r="B183" s="175"/>
       <c r="C183" s="76"/>
       <c r="D183" s="76"/>
     </row>
@@ -8072,20 +8052,20 @@
       <c r="D191" s="76"/>
     </row>
     <row r="192" spans="1:4" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A192" s="177" t="s">
+      <c r="A192" s="187" t="s">
         <v>322</v>
       </c>
-      <c r="B192" s="178"/>
-      <c r="C192" s="179"/>
+      <c r="B192" s="188"/>
+      <c r="C192" s="189"/>
       <c r="D192" s="76"/>
     </row>
     <row r="193" spans="1:4" ht="18.75">
-      <c r="A193" s="175" t="s">
+      <c r="A193" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B193" s="175"/>
-      <c r="C193" s="175"/>
-      <c r="D193" s="175"/>
+      <c r="B193" s="179"/>
+      <c r="C193" s="179"/>
+      <c r="D193" s="179"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="91" t="s">
@@ -8252,10 +8232,10 @@
       <c r="D206" s="76"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="176" t="s">
+      <c r="A207" s="175" t="s">
         <v>258</v>
       </c>
-      <c r="B207" s="176"/>
+      <c r="B207" s="175"/>
       <c r="C207" s="76"/>
       <c r="D207" s="76"/>
     </row>
@@ -8342,20 +8322,20 @@
       <c r="D216" s="90"/>
     </row>
     <row r="217" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A217" s="180" t="s">
+      <c r="A217" s="190" t="s">
         <v>324</v>
       </c>
-      <c r="B217" s="181"/>
-      <c r="C217" s="181"/>
+      <c r="B217" s="191"/>
+      <c r="C217" s="191"/>
       <c r="D217" s="76"/>
     </row>
     <row r="218" spans="1:4" ht="18.75">
-      <c r="A218" s="175" t="s">
+      <c r="A218" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B218" s="175"/>
-      <c r="C218" s="175"/>
-      <c r="D218" s="175"/>
+      <c r="B218" s="179"/>
+      <c r="C218" s="179"/>
+      <c r="D218" s="179"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="91" t="s">
@@ -8508,10 +8488,10 @@
       <c r="D231" s="76"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="176" t="s">
+      <c r="A232" s="175" t="s">
         <v>284</v>
       </c>
-      <c r="B232" s="176"/>
+      <c r="B232" s="175"/>
       <c r="C232" s="76"/>
       <c r="D232" s="76"/>
     </row>
@@ -8616,12 +8596,12 @@
       <c r="D242" s="76"/>
     </row>
     <row r="243" spans="1:4" ht="18.75">
-      <c r="A243" s="175" t="s">
+      <c r="A243" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B243" s="175"/>
-      <c r="C243" s="175"/>
-      <c r="D243" s="175"/>
+      <c r="B243" s="179"/>
+      <c r="C243" s="179"/>
+      <c r="D243" s="179"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="91" t="s">
@@ -8778,10 +8758,10 @@
       </c>
     </row>
     <row r="257" spans="1:4" ht="15.75">
-      <c r="A257" s="167" t="s">
+      <c r="A257" s="192" t="s">
         <v>356</v>
       </c>
-      <c r="B257" s="167"/>
+      <c r="B257" s="192"/>
       <c r="C257" s="103"/>
       <c r="D257" s="103"/>
     </row>
@@ -8843,11 +8823,11 @@
       <c r="D264" s="103"/>
     </row>
     <row r="265" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A265" s="173" t="s">
+      <c r="A265" s="183" t="s">
         <v>497</v>
       </c>
-      <c r="B265" s="169"/>
-      <c r="C265" s="170"/>
+      <c r="B265" s="184"/>
+      <c r="C265" s="185"/>
       <c r="D265" s="103"/>
     </row>
     <row r="266" spans="1:4" ht="15.75">
@@ -8857,12 +8837,12 @@
       <c r="D266" s="103"/>
     </row>
     <row r="267" spans="1:4" ht="15.75">
-      <c r="A267" s="166" t="s">
+      <c r="A267" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="B267" s="166"/>
-      <c r="C267" s="166"/>
-      <c r="D267" s="166"/>
+      <c r="B267" s="194"/>
+      <c r="C267" s="194"/>
+      <c r="D267" s="194"/>
     </row>
     <row r="268" spans="1:4" ht="15.75">
       <c r="A268" s="116" t="s">
@@ -8945,10 +8925,10 @@
       <c r="D273" s="119"/>
     </row>
     <row r="276" spans="1:4" ht="15.75">
-      <c r="A276" s="167" t="s">
+      <c r="A276" s="192" t="s">
         <v>360</v>
       </c>
-      <c r="B276" s="167"/>
+      <c r="B276" s="192"/>
       <c r="C276" s="103"/>
       <c r="D276" s="103"/>
     </row>
@@ -9061,11 +9041,11 @@
       <c r="D287" s="103"/>
     </row>
     <row r="288" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A288" s="168" t="s">
+      <c r="A288" s="195" t="s">
         <v>348</v>
       </c>
-      <c r="B288" s="169"/>
-      <c r="C288" s="170"/>
+      <c r="B288" s="184"/>
+      <c r="C288" s="185"/>
       <c r="D288" s="103"/>
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1">
@@ -9075,12 +9055,12 @@
       <c r="D289" s="103"/>
     </row>
     <row r="290" spans="1:4" ht="15.75">
-      <c r="A290" s="166" t="s">
+      <c r="A290" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="B290" s="166"/>
-      <c r="C290" s="166"/>
-      <c r="D290" s="166"/>
+      <c r="B290" s="194"/>
+      <c r="C290" s="194"/>
+      <c r="D290" s="194"/>
     </row>
     <row r="291" spans="1:4" ht="15.75">
       <c r="A291" s="116" t="s">
@@ -9227,10 +9207,10 @@
       <c r="D301" s="124"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="157" t="s">
+      <c r="A303" s="196" t="s">
         <v>474</v>
       </c>
-      <c r="B303" s="157"/>
+      <c r="B303" s="196"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
     </row>
@@ -9321,11 +9301,11 @@
       <c r="D312" s="1"/>
     </row>
     <row r="313" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A313" s="171" t="s">
+      <c r="A313" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="B313" s="159"/>
-      <c r="C313" s="160"/>
+      <c r="B313" s="198"/>
+      <c r="C313" s="199"/>
       <c r="D313" s="1"/>
     </row>
     <row r="314" spans="1:4">
@@ -9461,10 +9441,10 @@
       <c r="D326" s="1"/>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="157" t="s">
+      <c r="A327" s="196" t="s">
         <v>475</v>
       </c>
-      <c r="B327" s="157"/>
+      <c r="B327" s="196"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
     </row>
@@ -9553,11 +9533,11 @@
       <c r="B337" s="12"/>
     </row>
     <row r="338" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A338" s="172" t="s">
+      <c r="A338" s="200" t="s">
         <v>529</v>
       </c>
-      <c r="B338" s="159"/>
-      <c r="C338" s="160"/>
+      <c r="B338" s="198"/>
+      <c r="C338" s="199"/>
       <c r="D338" s="1"/>
     </row>
     <row r="339" spans="1:4">
@@ -9643,10 +9623,10 @@
       </c>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="161" t="s">
+      <c r="A348" s="201" t="s">
         <v>476</v>
       </c>
-      <c r="B348" s="161"/>
+      <c r="B348" s="201"/>
       <c r="C348"/>
     </row>
     <row r="349" spans="1:4">
@@ -9736,11 +9716,11 @@
       <c r="D357"/>
     </row>
     <row r="358" spans="1:4" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A358" s="162" t="s">
+      <c r="A358" s="193" t="s">
         <v>399</v>
       </c>
-      <c r="B358" s="163"/>
-      <c r="C358" s="164"/>
+      <c r="B358" s="159"/>
+      <c r="C358" s="160"/>
       <c r="D358"/>
     </row>
     <row r="359" spans="1:4">
@@ -9826,10 +9806,10 @@
       </c>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="161" t="s">
+      <c r="A368" s="201" t="s">
         <v>477</v>
       </c>
-      <c r="B368" s="161"/>
+      <c r="B368" s="201"/>
       <c r="C368"/>
     </row>
     <row r="369" spans="1:4">
@@ -9924,11 +9904,11 @@
       <c r="D378"/>
     </row>
     <row r="379" spans="1:4" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A379" s="162" t="s">
+      <c r="A379" s="193" t="s">
         <v>417</v>
       </c>
-      <c r="B379" s="163"/>
-      <c r="C379" s="164"/>
+      <c r="B379" s="159"/>
+      <c r="C379" s="160"/>
       <c r="D379"/>
     </row>
     <row r="380" spans="1:4">
@@ -10026,10 +10006,10 @@
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="157" t="s">
+      <c r="A390" s="196" t="s">
         <v>478</v>
       </c>
-      <c r="B390" s="157"/>
+      <c r="B390" s="196"/>
       <c r="C390" s="1"/>
     </row>
     <row r="391" spans="1:4">
@@ -10128,11 +10108,11 @@
       <c r="D400" s="1"/>
     </row>
     <row r="401" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A401" s="165" t="s">
+      <c r="A401" s="203" t="s">
         <v>438</v>
       </c>
-      <c r="B401" s="159"/>
-      <c r="C401" s="160"/>
+      <c r="B401" s="198"/>
+      <c r="C401" s="199"/>
       <c r="D401" s="1"/>
     </row>
     <row r="402" spans="1:4">
@@ -10200,10 +10180,10 @@
       <c r="D407" s="29"/>
     </row>
     <row r="410" spans="1:4">
-      <c r="A410" s="157" t="s">
+      <c r="A410" s="196" t="s">
         <v>479</v>
       </c>
-      <c r="B410" s="157"/>
+      <c r="B410" s="196"/>
       <c r="C410" s="1"/>
     </row>
     <row r="411" spans="1:4">
@@ -10332,11 +10312,11 @@
       <c r="D422" s="1"/>
     </row>
     <row r="423" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A423" s="158" t="s">
+      <c r="A423" s="202" t="s">
         <v>456</v>
       </c>
-      <c r="B423" s="159"/>
-      <c r="C423" s="160"/>
+      <c r="B423" s="198"/>
+      <c r="C423" s="199"/>
       <c r="D423" s="1"/>
     </row>
     <row r="424" spans="1:4">
@@ -10443,12 +10423,39 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A410:B410"/>
+    <mergeCell ref="A423:C423"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A390:B390"/>
+    <mergeCell ref="A401:C401"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A173:C173"/>
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A66:C66"/>
@@ -10461,47 +10468,21 @@
     <mergeCell ref="A117:D117"/>
     <mergeCell ref="A123:B123"/>
     <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A348:B348"/>
-    <mergeCell ref="A410:B410"/>
-    <mergeCell ref="A423:C423"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A390:B390"/>
-    <mergeCell ref="A401:C401"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Asseignment1/G10_Acceptance.Ass.1.xlsx
+++ b/Asseignment1/G10_Acceptance.Ass.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\labRep\Asseignment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhamad Igbaria\labRep\Asseignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="559">
   <si>
     <r>
       <t xml:space="preserve">Acceptance Testing for Use Case: </t>
@@ -34,7 +34,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -89,7 +89,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -99,7 +99,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -110,7 +110,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -278,7 +278,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -288,7 +288,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -315,7 +315,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,7 +325,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -353,7 +353,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -363,7 +363,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -375,7 +375,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,7 +385,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -490,7 +490,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -500,7 +500,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -541,7 +541,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -551,7 +551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -612,7 +612,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -622,7 +622,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -653,7 +653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -683,7 +683,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -693,7 +693,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -742,7 +742,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -752,7 +752,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -802,7 +802,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -849,7 +849,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -859,7 +859,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -879,7 +879,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -928,7 +928,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -939,7 +939,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1034,7 +1034,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1045,7 +1045,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1101,7 +1101,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1117,7 +1117,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1133,7 +1133,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1149,7 +1149,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1165,7 +1165,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1176,7 +1176,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1228,7 +1228,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1238,7 +1238,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1256,7 +1256,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1266,7 +1266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1292,7 +1292,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1302,7 +1302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1324,7 +1324,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1334,7 +1334,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1350,7 +1350,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1360,7 +1360,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1383,7 +1383,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1393,7 +1393,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1416,7 +1416,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1426,7 +1426,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1448,7 +1448,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1458,7 +1458,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1474,7 +1474,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1484,7 +1484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1503,7 +1503,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1532,7 +1532,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1542,7 +1542,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1565,7 +1565,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1575,7 +1575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1602,7 +1602,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1642,7 +1642,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1652,7 +1652,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1673,7 +1673,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1683,7 +1683,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1693,7 +1693,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1714,7 +1714,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1724,7 +1724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1746,7 +1746,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1756,7 +1756,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1767,7 +1767,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1777,7 +1777,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1793,7 +1793,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1803,7 +1803,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1824,7 +1824,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1835,7 +1835,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1871,7 +1871,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1881,7 +1881,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1906,7 +1906,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1942,7 +1942,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1952,7 +1952,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1971,7 +1971,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1981,7 +1981,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2001,7 +2001,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2011,7 +2011,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2039,7 +2039,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2049,7 +2049,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2072,7 +2072,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2082,7 +2082,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2108,7 +2108,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2118,7 +2118,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2141,7 +2141,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2151,7 +2151,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2175,7 +2175,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2185,7 +2185,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2204,7 +2204,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2281,7 +2281,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2291,7 +2291,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2309,7 +2309,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2319,7 +2319,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2335,7 +2335,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2345,7 +2345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2384,7 +2384,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2394,7 +2394,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2420,7 +2420,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2430,7 +2430,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2455,7 +2455,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2465,7 +2465,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2491,7 +2491,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2501,7 +2501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2516,7 +2516,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2526,7 +2526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2555,7 +2555,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2565,7 +2565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2687,7 +2687,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2697,7 +2697,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2713,7 +2713,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2730,7 +2730,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2740,7 +2740,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2759,7 +2759,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2768,7 +2768,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2779,7 +2779,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2798,7 +2798,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2807,7 +2807,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2818,7 +2818,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2836,7 +2836,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3252,7 +3252,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3268,7 +3268,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3284,7 +3284,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3300,7 +3300,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3316,7 +3316,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3332,7 +3332,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3390,7 +3390,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3400,7 +3400,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3419,7 +3419,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3429,7 +3429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3446,7 +3446,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3456,7 +3456,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3475,7 +3475,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3485,7 +3485,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3502,7 +3502,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3512,7 +3512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3523,7 +3523,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3533,7 +3533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3551,7 +3551,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3561,7 +3561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3578,7 +3578,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3588,7 +3588,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3599,7 +3599,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3609,7 +3609,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3641,7 +3641,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3651,7 +3651,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3683,7 +3683,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3694,7 +3694,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3710,7 +3710,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3720,7 +3720,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3738,7 +3738,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3748,7 +3748,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3758,7 +3758,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3768,7 +3768,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3785,7 +3785,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3795,7 +3795,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3812,7 +3812,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3822,7 +3822,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3842,7 +3842,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3852,7 +3852,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3897,7 +3897,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3907,7 +3907,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3925,7 +3925,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3935,7 +3935,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3950,7 +3950,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3960,7 +3960,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3975,7 +3975,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3985,7 +3985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4000,7 +4000,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4010,7 +4010,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4025,7 +4025,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4035,7 +4035,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4045,7 +4045,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4062,7 +4062,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4072,7 +4072,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4082,7 +4082,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4092,7 +4092,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4107,7 +4107,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4117,7 +4117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4132,7 +4132,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4142,7 +4142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4152,7 +4152,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4168,7 +4168,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4178,7 +4178,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4193,7 +4193,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4203,7 +4203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4218,7 +4218,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4228,7 +4228,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4245,7 +4245,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4255,7 +4255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4266,7 +4266,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4374,30 +4374,36 @@
   <si>
     <t>ms.ahdab@gmail.com</t>
   </si>
+  <si>
+    <t>Muhamad Igbaria</t>
+  </si>
+  <si>
+    <t>muhamadig.ac@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4405,7 +4411,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4413,7 +4419,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4422,7 +4428,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4430,7 +4436,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4439,7 +4445,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4447,7 +4453,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4456,7 +4462,7 @@
       <u/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4464,7 +4470,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4472,20 +4478,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -4493,7 +4499,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -4501,7 +4507,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -4510,13 +4516,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4524,14 +4530,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4540,7 +4546,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4548,7 +4554,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4557,7 +4563,7 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4566,7 +4572,7 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4574,27 +4580,27 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4602,7 +4608,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5515,20 +5521,134 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5540,120 +5660,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5991,19 +5997,19 @@
   <dimension ref="A1:F434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" style="37" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="46.875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="36.875" style="37" customWidth="1"/>
     <col min="4" max="4" width="29" style="37" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="37"/>
+    <col min="5" max="16384" width="9.125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="148" t="s">
         <v>548</v>
       </c>
@@ -6011,7 +6017,7 @@
         <v>42464</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>552</v>
       </c>
@@ -6019,7 +6025,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>550</v>
       </c>
@@ -6027,7 +6033,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>553</v>
       </c>
@@ -6035,7 +6041,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>555</v>
       </c>
@@ -6043,15 +6049,23 @@
         <v>556</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="157" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="B6" s="150" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="157"/>
+      <c r="B8" s="189"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>1</v>
       </c>
@@ -6061,7 +6075,7 @@
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
@@ -6071,7 +6085,7 @@
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>5</v>
       </c>
@@ -6079,7 +6093,7 @@
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>6</v>
       </c>
@@ -6089,13 +6103,13 @@
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>8</v>
       </c>
@@ -6103,7 +6117,7 @@
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>9</v>
       </c>
@@ -6115,7 +6129,7 @@
       </c>
       <c r="D15" s="36"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="43">
         <v>111</v>
       </c>
@@ -6127,7 +6141,7 @@
       </c>
       <c r="D16" s="36"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="43">
         <v>222</v>
       </c>
@@ -6139,7 +6153,7 @@
       </c>
       <c r="D17" s="36"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>333</v>
       </c>
@@ -6151,29 +6165,29 @@
       </c>
       <c r="D18" s="36"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="158" t="s">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="159"/>
-      <c r="C19" s="160"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="36"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75">
-      <c r="A21" s="161" t="s">
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="B21" s="188"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
         <v>17</v>
       </c>
@@ -6187,7 +6201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="60">
+    <row r="23" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
         <v>21</v>
       </c>
@@ -6201,7 +6215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="60">
+    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
         <v>25</v>
       </c>
@@ -6215,7 +6229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="60">
+    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
         <v>28</v>
       </c>
@@ -6229,7 +6243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60">
+    <row r="26" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
         <v>32</v>
       </c>
@@ -6243,7 +6257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="75">
+    <row r="27" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A27" s="49" t="s">
         <v>35</v>
       </c>
@@ -6257,7 +6271,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="60">
+    <row r="28" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A28" s="49" t="s">
         <v>39</v>
       </c>
@@ -6271,17 +6285,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="165" t="s">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="203" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="203"/>
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>1</v>
       </c>
@@ -6291,7 +6305,7 @@
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>3</v>
       </c>
@@ -6301,14 +6315,14 @@
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
     </row>
-    <row r="36" spans="1:6" ht="45">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>6</v>
       </c>
@@ -6318,11 +6332,11 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>8</v>
       </c>
@@ -6332,7 +6346,7 @@
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="52" t="s">
         <v>46</v>
       </c>
@@ -6345,7 +6359,7 @@
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="54">
         <v>123456789</v>
       </c>
@@ -6358,7 +6372,7 @@
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>987654321</v>
       </c>
@@ -6371,35 +6385,35 @@
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
       <c r="E42" s="36"/>
       <c r="F42" s="36"/>
     </row>
-    <row r="43" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A43" s="158" t="s">
+    <row r="43" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="199" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="162"/>
-      <c r="C43" s="163"/>
+      <c r="B43" s="200"/>
+      <c r="C43" s="201"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E44" s="36"/>
       <c r="F44" s="36"/>
     </row>
-    <row r="45" spans="1:6" ht="18.75">
-      <c r="A45" s="164" t="s">
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="164"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
+      <c r="B45" s="202"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="202"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="48" t="s">
         <v>17</v>
       </c>
@@ -6415,7 +6429,7 @@
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
     </row>
-    <row r="47" spans="1:6" ht="60">
+    <row r="47" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A47" s="57" t="s">
         <v>52</v>
       </c>
@@ -6431,7 +6445,7 @@
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
     </row>
-    <row r="48" spans="1:6" ht="60">
+    <row r="48" spans="1:6" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A48" s="57" t="s">
         <v>56</v>
       </c>
@@ -6447,7 +6461,7 @@
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
     </row>
-    <row r="49" spans="1:6" ht="60">
+    <row r="49" spans="1:6" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A49" s="57" t="s">
         <v>60</v>
       </c>
@@ -6463,7 +6477,7 @@
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
     </row>
-    <row r="50" spans="1:6" ht="60">
+    <row r="50" spans="1:6" ht="58.5" x14ac:dyDescent="0.2">
       <c r="A50" s="58" t="s">
         <v>64</v>
       </c>
@@ -6479,7 +6493,7 @@
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
     </row>
-    <row r="51" spans="1:6" ht="60">
+    <row r="51" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A51" s="57" t="s">
         <v>67</v>
       </c>
@@ -6493,7 +6507,7 @@
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
     </row>
-    <row r="52" spans="1:6" ht="60">
+    <row r="52" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A52" s="57" t="s">
         <v>70</v>
       </c>
@@ -6507,7 +6521,7 @@
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
     </row>
-    <row r="53" spans="1:6" ht="60">
+    <row r="53" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A53" s="57" t="s">
         <v>73</v>
       </c>
@@ -6521,7 +6535,7 @@
       <c r="E53" s="36"/>
       <c r="F53" s="36"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
@@ -6529,17 +6543,17 @@
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="157" t="s">
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="189" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="157"/>
+      <c r="B55" s="189"/>
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
       <c r="F55" s="50"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>1</v>
       </c>
@@ -6551,7 +6565,7 @@
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>3</v>
       </c>
@@ -6563,7 +6577,7 @@
       <c r="E57" s="36"/>
       <c r="F57" s="36"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>5</v>
       </c>
@@ -6573,7 +6587,7 @@
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
     </row>
-    <row r="59" spans="1:6" ht="30">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>6</v>
       </c>
@@ -6585,7 +6599,7 @@
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -6593,7 +6607,7 @@
       <c r="E60" s="36"/>
       <c r="F60" s="36"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
         <v>8</v>
       </c>
@@ -6603,7 +6617,7 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="57" t="s">
         <v>46</v>
       </c>
@@ -6615,7 +6629,7 @@
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="59">
         <v>123456789</v>
       </c>
@@ -6627,7 +6641,7 @@
       <c r="E63" s="36"/>
       <c r="F63" s="36"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="59">
         <v>987654321</v>
       </c>
@@ -6639,7 +6653,7 @@
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="60"/>
       <c r="B65" s="61"/>
       <c r="C65" s="36"/>
@@ -6647,15 +6661,15 @@
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="166"/>
-      <c r="B66" s="167"/>
-      <c r="C66" s="167"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="190"/>
+      <c r="B66" s="191"/>
+      <c r="C66" s="191"/>
       <c r="D66" s="36"/>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -6663,17 +6677,17 @@
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
     </row>
-    <row r="68" spans="1:6" ht="18.75">
-      <c r="A68" s="161" t="s">
+    <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="161"/>
-      <c r="C68" s="161"/>
-      <c r="D68" s="161"/>
+      <c r="B68" s="188"/>
+      <c r="C68" s="188"/>
+      <c r="D68" s="188"/>
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="48" t="s">
         <v>17</v>
       </c>
@@ -6689,7 +6703,7 @@
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
     </row>
-    <row r="70" spans="1:6" ht="120">
+    <row r="70" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A70" s="57" t="s">
         <v>80</v>
       </c>
@@ -6703,7 +6717,7 @@
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
     </row>
-    <row r="71" spans="1:6" ht="120">
+    <row r="71" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A71" s="57" t="s">
         <v>83</v>
       </c>
@@ -6719,7 +6733,7 @@
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
     </row>
-    <row r="72" spans="1:6" ht="120">
+    <row r="72" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A72" s="57" t="s">
         <v>56</v>
       </c>
@@ -6735,7 +6749,7 @@
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
     </row>
-    <row r="73" spans="1:6" ht="120">
+    <row r="73" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A73" s="57" t="s">
         <v>67</v>
       </c>
@@ -6749,7 +6763,7 @@
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
     </row>
-    <row r="74" spans="1:6" ht="120">
+    <row r="74" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A74" s="57" t="s">
         <v>89</v>
       </c>
@@ -6765,7 +6779,7 @@
       <c r="E74" s="36"/>
       <c r="F74" s="36"/>
     </row>
-    <row r="75" spans="1:6" ht="120">
+    <row r="75" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A75" s="57" t="s">
         <v>93</v>
       </c>
@@ -6779,7 +6793,7 @@
       <c r="E75" s="36"/>
       <c r="F75" s="36"/>
     </row>
-    <row r="76" spans="1:6" ht="120">
+    <row r="76" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A76" s="57" t="s">
         <v>96</v>
       </c>
@@ -6793,7 +6807,7 @@
       <c r="E76" s="36"/>
       <c r="F76" s="36"/>
     </row>
-    <row r="77" spans="1:6" ht="120">
+    <row r="77" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A77" s="57" t="s">
         <v>99</v>
       </c>
@@ -6809,7 +6823,7 @@
       <c r="E77" s="36"/>
       <c r="F77" s="36"/>
     </row>
-    <row r="78" spans="1:6" ht="120">
+    <row r="78" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A78" s="57" t="s">
         <v>103</v>
       </c>
@@ -6823,7 +6837,7 @@
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
     </row>
-    <row r="79" spans="1:6" ht="120">
+    <row r="79" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A79" s="57" t="s">
         <v>106</v>
       </c>
@@ -6839,7 +6853,7 @@
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
     </row>
-    <row r="80" spans="1:6" ht="120">
+    <row r="80" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A80" s="57" t="s">
         <v>110</v>
       </c>
@@ -6853,7 +6867,7 @@
       <c r="E80" s="36"/>
       <c r="F80" s="36"/>
     </row>
-    <row r="81" spans="1:6" ht="120">
+    <row r="81" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A81" s="57" t="s">
         <v>113</v>
       </c>
@@ -6869,7 +6883,7 @@
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
     </row>
-    <row r="82" spans="1:6" ht="120">
+    <row r="82" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A82" s="57" t="s">
         <v>117</v>
       </c>
@@ -6883,7 +6897,7 @@
       <c r="E82" s="36"/>
       <c r="F82" s="36"/>
     </row>
-    <row r="83" spans="1:6" ht="120">
+    <row r="83" spans="1:6" ht="114" x14ac:dyDescent="0.2">
       <c r="A83" s="57" t="s">
         <v>119</v>
       </c>
@@ -6897,7 +6911,7 @@
       <c r="E83" s="36"/>
       <c r="F83" s="36"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -6905,17 +6919,17 @@
       <c r="E84" s="36"/>
       <c r="F84" s="36"/>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="157" t="s">
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="B85" s="157"/>
+      <c r="B85" s="189"/>
       <c r="C85" s="50"/>
       <c r="D85" s="50"/>
       <c r="E85" s="50"/>
       <c r="F85" s="50"/>
     </row>
-    <row r="86" spans="1:6" ht="30">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>1</v>
       </c>
@@ -6927,7 +6941,7 @@
       <c r="E86" s="36"/>
       <c r="F86" s="36"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>3</v>
       </c>
@@ -6939,7 +6953,7 @@
       <c r="E87" s="36"/>
       <c r="F87" s="36"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>5</v>
       </c>
@@ -6949,7 +6963,7 @@
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
     </row>
-    <row r="89" spans="1:6" ht="30">
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>6</v>
       </c>
@@ -6961,7 +6975,7 @@
       <c r="E89" s="36"/>
       <c r="F89" s="36"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -6969,7 +6983,7 @@
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
         <v>8</v>
       </c>
@@ -6979,7 +6993,7 @@
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="57" t="s">
         <v>125</v>
       </c>
@@ -6991,7 +7005,7 @@
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="59">
         <v>123456789</v>
       </c>
@@ -7003,7 +7017,7 @@
       <c r="E93" s="36"/>
       <c r="F93" s="36"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="59">
         <v>153351215</v>
       </c>
@@ -7015,17 +7029,17 @@
       <c r="E94" s="36"/>
       <c r="F94" s="36"/>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="166" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="B95" s="167"/>
-      <c r="C95" s="167"/>
+      <c r="B95" s="191"/>
+      <c r="C95" s="191"/>
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -7033,17 +7047,17 @@
       <c r="E96" s="36"/>
       <c r="F96" s="36"/>
     </row>
-    <row r="97" spans="1:6" ht="18.75">
-      <c r="A97" s="161" t="s">
+    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="161"/>
-      <c r="C97" s="161"/>
-      <c r="D97" s="161"/>
+      <c r="B97" s="188"/>
+      <c r="C97" s="188"/>
+      <c r="D97" s="188"/>
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="48" t="s">
         <v>17</v>
       </c>
@@ -7059,7 +7073,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="36"/>
     </row>
-    <row r="99" spans="1:6" ht="45">
+    <row r="99" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A99" s="57" t="s">
         <v>127</v>
       </c>
@@ -7075,7 +7089,7 @@
       <c r="E99" s="36"/>
       <c r="F99" s="36"/>
     </row>
-    <row r="100" spans="1:6" ht="45">
+    <row r="100" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A100" s="57" t="s">
         <v>56</v>
       </c>
@@ -7091,7 +7105,7 @@
       <c r="E100" s="36"/>
       <c r="F100" s="36"/>
     </row>
-    <row r="101" spans="1:6" ht="45">
+    <row r="101" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A101" s="57" t="s">
         <v>132</v>
       </c>
@@ -7105,7 +7119,7 @@
       <c r="E101" s="36"/>
       <c r="F101" s="36"/>
     </row>
-    <row r="102" spans="1:6" ht="45">
+    <row r="102" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A102" s="57" t="s">
         <v>134</v>
       </c>
@@ -7121,7 +7135,7 @@
       <c r="E102" s="36"/>
       <c r="F102" s="36"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -7129,17 +7143,17 @@
       <c r="E103" s="36"/>
       <c r="F103" s="36"/>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="157" t="s">
+    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="189" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="157"/>
+      <c r="B104" s="189"/>
       <c r="C104" s="63"/>
       <c r="D104" s="63"/>
       <c r="E104" s="50"/>
       <c r="F104" s="50"/>
     </row>
-    <row r="105" spans="1:6" ht="75">
+    <row r="105" spans="1:6" ht="75" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>1</v>
       </c>
@@ -7151,7 +7165,7 @@
       <c r="E105" s="36"/>
       <c r="F105" s="36"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>3</v>
       </c>
@@ -7163,7 +7177,7 @@
       <c r="E106" s="36"/>
       <c r="F106" s="36"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>5</v>
       </c>
@@ -7173,7 +7187,7 @@
       <c r="E107" s="36"/>
       <c r="F107" s="36"/>
     </row>
-    <row r="108" spans="1:6" ht="45">
+    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>6</v>
       </c>
@@ -7185,7 +7199,7 @@
       <c r="E108" s="36"/>
       <c r="F108" s="36"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="64"/>
@@ -7193,7 +7207,7 @@
       <c r="E109" s="36"/>
       <c r="F109" s="36"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
         <v>8</v>
       </c>
@@ -7203,7 +7217,7 @@
       <c r="E110" s="36"/>
       <c r="F110" s="36"/>
     </row>
-    <row r="111" spans="1:6" ht="30">
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A111" s="57" t="s">
         <v>125</v>
       </c>
@@ -7217,7 +7231,7 @@
       <c r="E111" s="36"/>
       <c r="F111" s="36"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="59">
         <v>123456789</v>
       </c>
@@ -7231,7 +7245,7 @@
       <c r="E112" s="36"/>
       <c r="F112" s="36"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="59">
         <v>987654321</v>
       </c>
@@ -7245,7 +7259,7 @@
       <c r="E113" s="36"/>
       <c r="F113" s="36"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="59"/>
       <c r="B114" s="66"/>
       <c r="C114" s="65"/>
@@ -7253,17 +7267,17 @@
       <c r="E114" s="36"/>
       <c r="F114" s="36"/>
     </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A115" s="168" t="s">
+    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="B115" s="169"/>
-      <c r="C115" s="170"/>
+      <c r="B115" s="193"/>
+      <c r="C115" s="194"/>
       <c r="D115" s="64"/>
       <c r="E115" s="36"/>
       <c r="F115" s="36"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="64"/>
@@ -7271,17 +7285,17 @@
       <c r="E116" s="36"/>
       <c r="F116" s="36"/>
     </row>
-    <row r="117" spans="1:6" ht="18.75">
-      <c r="A117" s="171" t="s">
+    <row r="117" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A117" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="B117" s="171"/>
-      <c r="C117" s="171"/>
-      <c r="D117" s="171"/>
+      <c r="B117" s="195"/>
+      <c r="C117" s="195"/>
+      <c r="D117" s="195"/>
       <c r="E117" s="36"/>
       <c r="F117" s="36"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="48" t="s">
         <v>17</v>
       </c>
@@ -7297,7 +7311,7 @@
       <c r="E118" s="36"/>
       <c r="F118" s="36"/>
     </row>
-    <row r="119" spans="1:6" ht="90">
+    <row r="119" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A119" s="57" t="s">
         <v>144</v>
       </c>
@@ -7313,7 +7327,7 @@
       <c r="E119" s="36"/>
       <c r="F119" s="36"/>
     </row>
-    <row r="120" spans="1:6" ht="105">
+    <row r="120" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A120" s="57" t="s">
         <v>148</v>
       </c>
@@ -7329,7 +7343,7 @@
       <c r="E120" s="36"/>
       <c r="F120" s="36"/>
     </row>
-    <row r="121" spans="1:6" ht="105">
+    <row r="121" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A121" s="57" t="s">
         <v>152</v>
       </c>
@@ -7343,7 +7357,7 @@
       <c r="E121" s="36"/>
       <c r="F121" s="36"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -7351,17 +7365,17 @@
       <c r="E122" s="36"/>
       <c r="F122" s="36"/>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="157" t="s">
+    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="189" t="s">
         <v>180</v>
       </c>
-      <c r="B123" s="157"/>
+      <c r="B123" s="189"/>
       <c r="C123" s="50"/>
       <c r="D123" s="50"/>
       <c r="E123" s="50"/>
       <c r="F123" s="50"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>1</v>
       </c>
@@ -7373,7 +7387,7 @@
       <c r="E124" s="36"/>
       <c r="F124" s="36"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>3</v>
       </c>
@@ -7385,7 +7399,7 @@
       <c r="E125" s="36"/>
       <c r="F125" s="36"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>5</v>
       </c>
@@ -7395,7 +7409,7 @@
       <c r="E126" s="36"/>
       <c r="F126" s="36"/>
     </row>
-    <row r="127" spans="1:6" ht="45">
+    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>6</v>
       </c>
@@ -7407,7 +7421,7 @@
       <c r="E127" s="36"/>
       <c r="F127" s="36"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="36"/>
       <c r="B128" s="36"/>
       <c r="C128" s="36"/>
@@ -7415,7 +7429,7 @@
       <c r="E128" s="36"/>
       <c r="F128" s="36"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
         <v>8</v>
       </c>
@@ -7425,7 +7439,7 @@
       <c r="E129" s="36"/>
       <c r="F129" s="36"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="57" t="s">
         <v>157</v>
       </c>
@@ -7445,7 +7459,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <v>15324</v>
       </c>
@@ -7465,7 +7479,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30">
+    <row r="132" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <v>15344</v>
       </c>
@@ -7485,7 +7499,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <v>45878</v>
       </c>
@@ -7505,7 +7519,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="18"/>
       <c r="B134" s="59">
         <v>153153153</v>
@@ -7515,17 +7529,17 @@
       <c r="E134" s="18"/>
       <c r="F134" s="18"/>
     </row>
-    <row r="135" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A135" s="172" t="s">
+    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="196" t="s">
         <v>165</v>
       </c>
-      <c r="B135" s="173"/>
-      <c r="C135" s="174"/>
+      <c r="B135" s="197"/>
+      <c r="C135" s="198"/>
       <c r="D135" s="36"/>
       <c r="E135" s="36"/>
       <c r="F135" s="36"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="36"/>
       <c r="B136" s="36"/>
       <c r="C136" s="36"/>
@@ -7533,17 +7547,17 @@
       <c r="E136" s="36"/>
       <c r="F136" s="36"/>
     </row>
-    <row r="137" spans="1:6" ht="18.75">
-      <c r="A137" s="161" t="s">
+    <row r="137" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A137" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="161"/>
-      <c r="C137" s="161"/>
-      <c r="D137" s="161"/>
+      <c r="B137" s="188"/>
+      <c r="C137" s="188"/>
+      <c r="D137" s="188"/>
       <c r="E137" s="36"/>
       <c r="F137" s="36"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="48" t="s">
         <v>17</v>
       </c>
@@ -7559,7 +7573,7 @@
       <c r="E138" s="36"/>
       <c r="F138" s="36"/>
     </row>
-    <row r="139" spans="1:6" ht="90">
+    <row r="139" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A139" s="57" t="s">
         <v>166</v>
       </c>
@@ -7573,7 +7587,7 @@
       <c r="E139" s="36"/>
       <c r="F139" s="36"/>
     </row>
-    <row r="140" spans="1:6" ht="45">
+    <row r="140" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A140" s="57" t="s">
         <v>169</v>
       </c>
@@ -7589,7 +7603,7 @@
       <c r="E140" s="36"/>
       <c r="F140" s="36"/>
     </row>
-    <row r="141" spans="1:6" ht="75">
+    <row r="141" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A141" s="57" t="s">
         <v>173</v>
       </c>
@@ -7605,15 +7619,15 @@
       <c r="E141" s="36"/>
       <c r="F141" s="36"/>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="175" t="s">
+    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="176" t="s">
         <v>181</v>
       </c>
-      <c r="B144" s="175"/>
+      <c r="B144" s="176"/>
       <c r="C144" s="76"/>
       <c r="D144" s="76"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="77" t="s">
         <v>1</v>
       </c>
@@ -7623,7 +7637,7 @@
       <c r="C145" s="76"/>
       <c r="D145" s="76"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="77" t="s">
         <v>3</v>
       </c>
@@ -7631,7 +7645,7 @@
       <c r="C146" s="76"/>
       <c r="D146" s="76"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="77" t="s">
         <v>5</v>
       </c>
@@ -7639,7 +7653,7 @@
       <c r="C147" s="76"/>
       <c r="D147" s="76"/>
     </row>
-    <row r="148" spans="1:4" ht="60">
+    <row r="148" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A148" s="77" t="s">
         <v>183</v>
       </c>
@@ -7649,7 +7663,7 @@
       <c r="C148" s="76"/>
       <c r="D148" s="76"/>
     </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1">
+    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="80" t="s">
         <v>8</v>
       </c>
@@ -7657,7 +7671,7 @@
       <c r="C149" s="76"/>
       <c r="D149" s="76"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="81" t="s">
         <v>185</v>
       </c>
@@ -7669,7 +7683,7 @@
       </c>
       <c r="D150" s="83"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="84">
         <v>205916148</v>
       </c>
@@ -7681,7 +7695,7 @@
       </c>
       <c r="D151" s="86"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="84">
         <v>312321546</v>
       </c>
@@ -7693,7 +7707,7 @@
       </c>
       <c r="D152" s="86"/>
     </row>
-    <row r="153" spans="1:4" ht="15.75" thickBot="1">
+    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="87">
         <v>205916145</v>
       </c>
@@ -7703,29 +7717,29 @@
       <c r="C153" s="89"/>
       <c r="D153" s="89"/>
     </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A154" s="176" t="s">
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="B154" s="177"/>
-      <c r="C154" s="178"/>
+      <c r="B154" s="183"/>
+      <c r="C154" s="184"/>
       <c r="D154" s="90"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="76"/>
       <c r="B155" s="76"/>
       <c r="C155" s="76"/>
       <c r="D155" s="76"/>
     </row>
-    <row r="156" spans="1:4" ht="18.75">
-      <c r="A156" s="179" t="s">
+    <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A156" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B156" s="179"/>
-      <c r="C156" s="179"/>
-      <c r="D156" s="179"/>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="B156" s="175"/>
+      <c r="C156" s="175"/>
+      <c r="D156" s="175"/>
+    </row>
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="91" t="s">
         <v>17</v>
       </c>
@@ -7739,7 +7753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="45">
+    <row r="158" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A158" s="92" t="s">
         <v>187</v>
       </c>
@@ -7753,7 +7767,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="105">
+    <row r="159" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A159" s="92" t="s">
         <v>191</v>
       </c>
@@ -7767,7 +7781,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="60">
+    <row r="160" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A160" s="92" t="s">
         <v>195</v>
       </c>
@@ -7781,7 +7795,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="60">
+    <row r="161" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A161" s="92" t="s">
         <v>199</v>
       </c>
@@ -7795,7 +7809,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="45">
+    <row r="162" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A162" s="92" t="s">
         <v>132</v>
       </c>
@@ -7809,7 +7823,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="45">
+    <row r="163" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A163" s="92" t="s">
         <v>206</v>
       </c>
@@ -7821,7 +7835,7 @@
       </c>
       <c r="D163" s="94"/>
     </row>
-    <row r="164" spans="1:4" ht="45">
+    <row r="164" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A164" s="92" t="s">
         <v>209</v>
       </c>
@@ -7835,15 +7849,15 @@
         <v>212</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="175" t="s">
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="B167" s="175"/>
+      <c r="B167" s="176"/>
       <c r="C167" s="76"/>
       <c r="D167" s="76"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="77" t="s">
         <v>1</v>
       </c>
@@ -7853,7 +7867,7 @@
       <c r="C168" s="76"/>
       <c r="D168" s="76"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="77" t="s">
         <v>3</v>
       </c>
@@ -7863,7 +7877,7 @@
       <c r="C169" s="76"/>
       <c r="D169" s="76"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="77" t="s">
         <v>5</v>
       </c>
@@ -7871,7 +7885,7 @@
       <c r="C170" s="76"/>
       <c r="D170" s="76"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="77" t="s">
         <v>6</v>
       </c>
@@ -7881,41 +7895,41 @@
       <c r="C171" s="76"/>
       <c r="D171" s="76"/>
     </row>
-    <row r="172" spans="1:4" ht="15.75" thickBot="1">
+    <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="76"/>
       <c r="B172" s="76"/>
       <c r="C172" s="76"/>
       <c r="D172" s="76"/>
     </row>
-    <row r="173" spans="1:4" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A173" s="180" t="s">
+    <row r="173" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="B173" s="181"/>
-      <c r="C173" s="182"/>
+      <c r="B173" s="186"/>
+      <c r="C173" s="187"/>
       <c r="D173" s="76"/>
     </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1">
+    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="101"/>
       <c r="B174" s="101"/>
       <c r="C174" s="102"/>
       <c r="D174" s="90"/>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="186"/>
-      <c r="B175" s="186"/>
-      <c r="C175" s="186"/>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="174"/>
+      <c r="B175" s="174"/>
+      <c r="C175" s="174"/>
       <c r="D175" s="76"/>
     </row>
-    <row r="176" spans="1:4" ht="18.75">
-      <c r="A176" s="179" t="s">
+    <row r="176" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A176" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B176" s="179"/>
-      <c r="C176" s="179"/>
-      <c r="D176" s="179"/>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="B176" s="175"/>
+      <c r="C176" s="175"/>
+      <c r="D176" s="175"/>
+    </row>
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="91" t="s">
         <v>17</v>
       </c>
@@ -7929,7 +7943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="60">
+    <row r="178" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A178" s="92" t="s">
         <v>52</v>
       </c>
@@ -7941,7 +7955,7 @@
       </c>
       <c r="D178" s="94"/>
     </row>
-    <row r="179" spans="1:4" ht="45">
+    <row r="179" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A179" s="92" t="s">
         <v>219</v>
       </c>
@@ -7955,7 +7969,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="60">
+    <row r="180" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A180" s="92" t="s">
         <v>223</v>
       </c>
@@ -7967,15 +7981,15 @@
       </c>
       <c r="D180" s="94"/>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="175" t="s">
+    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183" s="176" t="s">
         <v>225</v>
       </c>
-      <c r="B183" s="175"/>
+      <c r="B183" s="176"/>
       <c r="C183" s="76"/>
       <c r="D183" s="76"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="77" t="s">
         <v>1</v>
       </c>
@@ -7985,7 +7999,7 @@
       <c r="C184" s="76"/>
       <c r="D184" s="76"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="77" t="s">
         <v>3</v>
       </c>
@@ -7995,7 +8009,7 @@
       <c r="C185" s="76"/>
       <c r="D185" s="76"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="77" t="s">
         <v>5</v>
       </c>
@@ -8003,7 +8017,7 @@
       <c r="C186" s="76"/>
       <c r="D186" s="76"/>
     </row>
-    <row r="187" spans="1:4" ht="30">
+    <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A187" s="77" t="s">
         <v>6</v>
       </c>
@@ -8013,7 +8027,7 @@
       <c r="C187" s="76"/>
       <c r="D187" s="76"/>
     </row>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1">
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="80" t="s">
         <v>8</v>
       </c>
@@ -8021,7 +8035,7 @@
       <c r="C188" s="76"/>
       <c r="D188" s="76"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="81" t="s">
         <v>185</v>
       </c>
@@ -8031,7 +8045,7 @@
       <c r="C189" s="83"/>
       <c r="D189" s="76"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="84">
         <v>312312221</v>
       </c>
@@ -8041,7 +8055,7 @@
       <c r="C190" s="86"/>
       <c r="D190" s="76"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="84">
         <v>205495621</v>
       </c>
@@ -8051,23 +8065,23 @@
       <c r="C191" s="86"/>
       <c r="D191" s="76"/>
     </row>
-    <row r="192" spans="1:4" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A192" s="187" t="s">
+    <row r="192" spans="1:4" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="177" t="s">
         <v>322</v>
       </c>
-      <c r="B192" s="188"/>
-      <c r="C192" s="189"/>
+      <c r="B192" s="178"/>
+      <c r="C192" s="179"/>
       <c r="D192" s="76"/>
     </row>
-    <row r="193" spans="1:4" ht="18.75">
-      <c r="A193" s="179" t="s">
+    <row r="193" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A193" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B193" s="179"/>
-      <c r="C193" s="179"/>
-      <c r="D193" s="179"/>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="B193" s="175"/>
+      <c r="C193" s="175"/>
+      <c r="D193" s="175"/>
+    </row>
+    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="91" t="s">
         <v>17</v>
       </c>
@@ -8081,7 +8095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="60">
+    <row r="195" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A195" s="92" t="s">
         <v>230</v>
       </c>
@@ -8095,7 +8109,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="60">
+    <row r="196" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A196" s="92" t="s">
         <v>233</v>
       </c>
@@ -8109,7 +8123,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="75">
+    <row r="197" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A197" s="92" t="s">
         <v>236</v>
       </c>
@@ -8123,7 +8137,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="75">
+    <row r="198" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A198" s="92" t="s">
         <v>239</v>
       </c>
@@ -8137,7 +8151,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="75">
+    <row r="199" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A199" s="92" t="s">
         <v>242</v>
       </c>
@@ -8151,7 +8165,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="90">
+    <row r="200" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A200" s="92" t="s">
         <v>246</v>
       </c>
@@ -8165,7 +8179,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="75">
+    <row r="201" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A201" s="92" t="s">
         <v>249</v>
       </c>
@@ -8179,7 +8193,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="75">
+    <row r="202" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A202" s="92" t="s">
         <v>252</v>
       </c>
@@ -8193,7 +8207,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="75">
+    <row r="203" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A203" s="92" t="s">
         <v>255</v>
       </c>
@@ -8205,7 +8219,7 @@
       </c>
       <c r="D203" s="94"/>
     </row>
-    <row r="204" spans="1:4" ht="75">
+    <row r="204" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A204" s="92" t="s">
         <v>256</v>
       </c>
@@ -8219,27 +8233,27 @@
         <v>257</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="76"/>
       <c r="B205" s="76"/>
       <c r="C205" s="76"/>
       <c r="D205" s="76"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="76"/>
       <c r="B206" s="76"/>
       <c r="C206" s="76"/>
       <c r="D206" s="76"/>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="175" t="s">
+    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A207" s="176" t="s">
         <v>258</v>
       </c>
-      <c r="B207" s="175"/>
+      <c r="B207" s="176"/>
       <c r="C207" s="76"/>
       <c r="D207" s="76"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="77" t="s">
         <v>1</v>
       </c>
@@ -8249,7 +8263,7 @@
       <c r="C208" s="76"/>
       <c r="D208" s="76"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="77" t="s">
         <v>3</v>
       </c>
@@ -8259,7 +8273,7 @@
       <c r="C209" s="76"/>
       <c r="D209" s="76"/>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="77" t="s">
         <v>5</v>
       </c>
@@ -8267,7 +8281,7 @@
       <c r="C210" s="76"/>
       <c r="D210" s="76"/>
     </row>
-    <row r="211" spans="1:4" ht="30">
+    <row r="211" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" s="77" t="s">
         <v>6</v>
       </c>
@@ -8277,13 +8291,13 @@
       <c r="C211" s="76"/>
       <c r="D211" s="76"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="76"/>
       <c r="B212" s="76"/>
       <c r="C212" s="76"/>
       <c r="D212" s="76"/>
     </row>
-    <row r="213" spans="1:4" ht="15.75" thickBot="1">
+    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="80" t="s">
         <v>8</v>
       </c>
@@ -8291,7 +8305,7 @@
       <c r="C213" s="76"/>
       <c r="D213" s="76"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="81" t="s">
         <v>185</v>
       </c>
@@ -8301,7 +8315,7 @@
       <c r="C214" s="83"/>
       <c r="D214" s="76"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="84">
         <v>205495161</v>
       </c>
@@ -8311,7 +8325,7 @@
       <c r="C215" s="86"/>
       <c r="D215" s="76"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="84">
         <v>205495162</v>
       </c>
@@ -8321,23 +8335,23 @@
       <c r="C216" s="86"/>
       <c r="D216" s="90"/>
     </row>
-    <row r="217" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A217" s="190" t="s">
+    <row r="217" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="180" t="s">
         <v>324</v>
       </c>
-      <c r="B217" s="191"/>
-      <c r="C217" s="191"/>
+      <c r="B217" s="181"/>
+      <c r="C217" s="181"/>
       <c r="D217" s="76"/>
     </row>
-    <row r="218" spans="1:4" ht="18.75">
-      <c r="A218" s="179" t="s">
+    <row r="218" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A218" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B218" s="179"/>
-      <c r="C218" s="179"/>
-      <c r="D218" s="179"/>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="B218" s="175"/>
+      <c r="C218" s="175"/>
+      <c r="D218" s="175"/>
+    </row>
+    <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="91" t="s">
         <v>17</v>
       </c>
@@ -8351,7 +8365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="90">
+    <row r="220" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A220" s="92" t="s">
         <v>260</v>
       </c>
@@ -8365,7 +8379,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="75">
+    <row r="221" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A221" s="92" t="s">
         <v>191</v>
       </c>
@@ -8379,7 +8393,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="105">
+    <row r="222" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A222" s="92" t="s">
         <v>199</v>
       </c>
@@ -8393,7 +8407,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="75">
+    <row r="223" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A223" s="92" t="s">
         <v>268</v>
       </c>
@@ -8407,7 +8421,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="75">
+    <row r="224" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A224" s="92" t="s">
         <v>272</v>
       </c>
@@ -8421,7 +8435,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="75">
+    <row r="225" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A225" s="92" t="s">
         <v>275</v>
       </c>
@@ -8435,7 +8449,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="90">
+    <row r="226" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A226" s="92" t="s">
         <v>278</v>
       </c>
@@ -8449,7 +8463,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="75">
+    <row r="227" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A227" s="92" t="s">
         <v>281</v>
       </c>
@@ -8463,39 +8477,39 @@
         <v>283</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="76"/>
       <c r="B228" s="76"/>
       <c r="C228" s="76"/>
       <c r="D228" s="76"/>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="76"/>
       <c r="B229" s="76"/>
       <c r="C229" s="76"/>
       <c r="D229" s="76"/>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="76"/>
       <c r="B230" s="76"/>
       <c r="C230" s="76"/>
       <c r="D230" s="76"/>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="76"/>
       <c r="B231" s="76"/>
       <c r="C231" s="76"/>
       <c r="D231" s="76"/>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="175" t="s">
+    <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A232" s="176" t="s">
         <v>284</v>
       </c>
-      <c r="B232" s="175"/>
+      <c r="B232" s="176"/>
       <c r="C232" s="76"/>
       <c r="D232" s="76"/>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="77" t="s">
         <v>1</v>
       </c>
@@ -8505,7 +8519,7 @@
       <c r="C233" s="76"/>
       <c r="D233" s="76"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="77" t="s">
         <v>3</v>
       </c>
@@ -8515,7 +8529,7 @@
       <c r="C234" s="76"/>
       <c r="D234" s="76"/>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="77" t="s">
         <v>5</v>
       </c>
@@ -8523,7 +8537,7 @@
       <c r="C235" s="76"/>
       <c r="D235" s="76"/>
     </row>
-    <row r="236" spans="1:4" ht="45">
+    <row r="236" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A236" s="77" t="s">
         <v>6</v>
       </c>
@@ -8533,13 +8547,13 @@
       <c r="C236" s="76"/>
       <c r="D236" s="76"/>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="76"/>
       <c r="B237" s="76"/>
       <c r="C237" s="76"/>
       <c r="D237" s="76"/>
     </row>
-    <row r="238" spans="1:4" ht="15.75" thickBot="1">
+    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="80" t="s">
         <v>8</v>
       </c>
@@ -8547,7 +8561,7 @@
       <c r="C238" s="76"/>
       <c r="D238" s="76"/>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="81" t="s">
         <v>185</v>
       </c>
@@ -8561,7 +8575,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="95">
         <v>312546893</v>
       </c>
@@ -8575,7 +8589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="84">
         <v>205495161</v>
       </c>
@@ -8589,21 +8603,21 @@
         <v>293</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="100"/>
       <c r="B242" s="76"/>
       <c r="C242" s="76"/>
       <c r="D242" s="76"/>
     </row>
-    <row r="243" spans="1:4" ht="18.75">
-      <c r="A243" s="179" t="s">
+    <row r="243" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A243" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="B243" s="179"/>
-      <c r="C243" s="179"/>
-      <c r="D243" s="179"/>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="B243" s="175"/>
+      <c r="C243" s="175"/>
+      <c r="D243" s="175"/>
+    </row>
+    <row r="244" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="91" t="s">
         <v>17</v>
       </c>
@@ -8617,7 +8631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="90">
+    <row r="245" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A245" s="92" t="s">
         <v>294</v>
       </c>
@@ -8631,7 +8645,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="90">
+    <row r="246" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A246" s="92" t="s">
         <v>298</v>
       </c>
@@ -8645,7 +8659,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="75">
+    <row r="247" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A247" s="92" t="s">
         <v>268</v>
       </c>
@@ -8659,7 +8673,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="75">
+    <row r="248" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A248" s="92" t="s">
         <v>191</v>
       </c>
@@ -8673,7 +8687,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="75">
+    <row r="249" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A249" s="92" t="s">
         <v>199</v>
       </c>
@@ -8687,7 +8701,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="105">
+    <row r="250" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A250" s="92" t="s">
         <v>306</v>
       </c>
@@ -8701,7 +8715,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="75">
+    <row r="251" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A251" s="92" t="s">
         <v>309</v>
       </c>
@@ -8715,7 +8729,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="75">
+    <row r="252" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A252" s="92" t="s">
         <v>312</v>
       </c>
@@ -8729,7 +8743,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="75">
+    <row r="253" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A253" s="92" t="s">
         <v>315</v>
       </c>
@@ -8743,7 +8757,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="75">
+    <row r="254" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A254" s="92" t="s">
         <v>318</v>
       </c>
@@ -8757,15 +8771,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15.75">
-      <c r="A257" s="192" t="s">
+    <row r="257" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A257" s="167" t="s">
         <v>356</v>
       </c>
-      <c r="B257" s="192"/>
+      <c r="B257" s="167"/>
       <c r="C257" s="103"/>
       <c r="D257" s="103"/>
     </row>
-    <row r="258" spans="1:4" ht="15.75">
+    <row r="258" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A258" s="104" t="s">
         <v>1</v>
       </c>
@@ -8775,7 +8789,7 @@
       <c r="C258" s="103"/>
       <c r="D258" s="103"/>
     </row>
-    <row r="259" spans="1:4" ht="15.75">
+    <row r="259" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A259" s="104" t="s">
         <v>3</v>
       </c>
@@ -8785,7 +8799,7 @@
       <c r="C259" s="103"/>
       <c r="D259" s="103"/>
     </row>
-    <row r="260" spans="1:4" ht="15.75">
+    <row r="260" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A260" s="104" t="s">
         <v>5</v>
       </c>
@@ -8793,7 +8807,7 @@
       <c r="C260" s="103"/>
       <c r="D260" s="103"/>
     </row>
-    <row r="261" spans="1:4" ht="47.25">
+    <row r="261" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A261" s="104" t="s">
         <v>6</v>
       </c>
@@ -8803,48 +8817,48 @@
       <c r="C261" s="103"/>
       <c r="D261" s="103"/>
     </row>
-    <row r="262" spans="1:4" ht="15.75">
+    <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="103"/>
       <c r="B262" s="103"/>
       <c r="C262" s="103"/>
       <c r="D262" s="103"/>
     </row>
-    <row r="263" spans="1:4" ht="15.75">
+    <row r="263" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A263" s="107" t="s">
         <v>8</v>
       </c>
       <c r="C263" s="103"/>
       <c r="D263" s="103"/>
     </row>
-    <row r="264" spans="1:4" ht="16.5" thickBot="1">
+    <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="115"/>
       <c r="B264" s="103"/>
       <c r="C264" s="103"/>
       <c r="D264" s="103"/>
     </row>
-    <row r="265" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A265" s="183" t="s">
+    <row r="265" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="173" t="s">
         <v>497</v>
       </c>
-      <c r="B265" s="184"/>
-      <c r="C265" s="185"/>
+      <c r="B265" s="169"/>
+      <c r="C265" s="170"/>
       <c r="D265" s="103"/>
     </row>
-    <row r="266" spans="1:4" ht="15.75">
+    <row r="266" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="103"/>
       <c r="B266" s="103"/>
       <c r="C266" s="103"/>
       <c r="D266" s="103"/>
     </row>
-    <row r="267" spans="1:4" ht="15.75">
-      <c r="A267" s="194" t="s">
+    <row r="267" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A267" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B267" s="194"/>
-      <c r="C267" s="194"/>
-      <c r="D267" s="194"/>
-    </row>
-    <row r="268" spans="1:4" ht="15.75">
+      <c r="B267" s="166"/>
+      <c r="C267" s="166"/>
+      <c r="D267" s="166"/>
+    </row>
+    <row r="268" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A268" s="116" t="s">
         <v>17</v>
       </c>
@@ -8858,7 +8872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="78.75">
+    <row r="269" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A269" s="117" t="s">
         <v>52</v>
       </c>
@@ -8872,7 +8886,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="63">
+    <row r="270" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A270" s="117" t="s">
         <v>330</v>
       </c>
@@ -8886,7 +8900,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="63">
+    <row r="271" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A271" s="117" t="s">
         <v>334</v>
       </c>
@@ -8900,7 +8914,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="78.75">
+    <row r="272" spans="1:4" ht="75.75" x14ac:dyDescent="0.2">
       <c r="A272" s="117" t="s">
         <v>337</v>
       </c>
@@ -8912,7 +8926,7 @@
       </c>
       <c r="D272" s="119"/>
     </row>
-    <row r="273" spans="1:4" ht="78.75">
+    <row r="273" spans="1:4" ht="75.75" x14ac:dyDescent="0.2">
       <c r="A273" s="123" t="s">
         <v>339</v>
       </c>
@@ -8924,15 +8938,15 @@
       </c>
       <c r="D273" s="119"/>
     </row>
-    <row r="276" spans="1:4" ht="15.75">
-      <c r="A276" s="192" t="s">
+    <row r="276" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A276" s="167" t="s">
         <v>360</v>
       </c>
-      <c r="B276" s="192"/>
+      <c r="B276" s="167"/>
       <c r="C276" s="103"/>
       <c r="D276" s="103"/>
     </row>
-    <row r="277" spans="1:4" ht="94.5">
+    <row r="277" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A277" s="145" t="s">
         <v>1</v>
       </c>
@@ -8942,7 +8956,7 @@
       <c r="C277" s="103"/>
       <c r="D277" s="103"/>
     </row>
-    <row r="278" spans="1:4" ht="15.75">
+    <row r="278" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A278" s="104" t="s">
         <v>3</v>
       </c>
@@ -8952,7 +8966,7 @@
       <c r="C278" s="103"/>
       <c r="D278" s="103"/>
     </row>
-    <row r="279" spans="1:4" ht="15.75">
+    <row r="279" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A279" s="104" t="s">
         <v>5</v>
       </c>
@@ -8962,7 +8976,7 @@
       <c r="C279" s="103"/>
       <c r="D279" s="103"/>
     </row>
-    <row r="280" spans="1:4" ht="31.5">
+    <row r="280" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A280" s="104" t="s">
         <v>6</v>
       </c>
@@ -8972,13 +8986,13 @@
       <c r="C280" s="103"/>
       <c r="D280" s="103"/>
     </row>
-    <row r="281" spans="1:4" ht="15.75">
+    <row r="281" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="103"/>
       <c r="B281" s="103"/>
       <c r="C281" s="103"/>
       <c r="D281" s="103"/>
     </row>
-    <row r="282" spans="1:4" ht="16.5" thickBot="1">
+    <row r="282" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="107" t="s">
         <v>8</v>
       </c>
@@ -8988,7 +9002,7 @@
       <c r="C282" s="103"/>
       <c r="D282" s="103"/>
     </row>
-    <row r="283" spans="1:4" ht="15.75">
+    <row r="283" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="108" t="s">
         <v>46</v>
       </c>
@@ -9000,7 +9014,7 @@
       </c>
       <c r="D283" s="151"/>
     </row>
-    <row r="284" spans="1:4" ht="16.5" thickBot="1">
+    <row r="284" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="110">
         <v>123456359</v>
       </c>
@@ -9012,7 +9026,7 @@
       </c>
       <c r="D284" s="152"/>
     </row>
-    <row r="285" spans="1:4" ht="16.5" thickBot="1">
+    <row r="285" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="110">
         <v>123456789</v>
       </c>
@@ -9024,7 +9038,7 @@
       </c>
       <c r="D285" s="152"/>
     </row>
-    <row r="286" spans="1:4" ht="16.5" thickBot="1">
+    <row r="286" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="113">
         <v>547854478</v>
       </c>
@@ -9034,35 +9048,35 @@
       <c r="C286" s="155"/>
       <c r="D286" s="153"/>
     </row>
-    <row r="287" spans="1:4" ht="16.5" thickBot="1">
+    <row r="287" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="115"/>
       <c r="B287" s="103"/>
       <c r="C287" s="103"/>
       <c r="D287" s="103"/>
     </row>
-    <row r="288" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A288" s="195" t="s">
+    <row r="288" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="168" t="s">
         <v>348</v>
       </c>
-      <c r="B288" s="184"/>
-      <c r="C288" s="185"/>
+      <c r="B288" s="169"/>
+      <c r="C288" s="170"/>
       <c r="D288" s="103"/>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="103"/>
       <c r="B289" s="103"/>
       <c r="C289" s="103"/>
       <c r="D289" s="103"/>
     </row>
-    <row r="290" spans="1:4" ht="15.75">
-      <c r="A290" s="194" t="s">
+    <row r="290" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A290" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B290" s="194"/>
-      <c r="C290" s="194"/>
-      <c r="D290" s="194"/>
-    </row>
-    <row r="291" spans="1:4" ht="15.75">
+      <c r="B290" s="166"/>
+      <c r="C290" s="166"/>
+      <c r="D290" s="166"/>
+    </row>
+    <row r="291" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A291" s="116" t="s">
         <v>17</v>
       </c>
@@ -9076,7 +9090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="94.5">
+    <row r="292" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A292" s="117" t="s">
         <v>349</v>
       </c>
@@ -9090,7 +9104,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="94.5">
+    <row r="293" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A293" s="117" t="s">
         <v>351</v>
       </c>
@@ -9104,7 +9118,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="63">
+    <row r="294" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A294" s="117" t="s">
         <v>56</v>
       </c>
@@ -9118,7 +9132,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="94.5">
+    <row r="295" spans="1:4" ht="90.75" x14ac:dyDescent="0.2">
       <c r="A295" s="117" t="s">
         <v>60</v>
       </c>
@@ -9132,7 +9146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="63">
+    <row r="296" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A296" s="120" t="s">
         <v>56</v>
       </c>
@@ -9146,7 +9160,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="47.25">
+    <row r="297" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A297" s="120" t="s">
         <v>352</v>
       </c>
@@ -9160,7 +9174,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="94.5">
+    <row r="298" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A298" s="117" t="s">
         <v>353</v>
       </c>
@@ -9174,7 +9188,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="94.5">
+    <row r="299" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A299" s="117" t="s">
         <v>513</v>
       </c>
@@ -9188,7 +9202,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="94.5">
+    <row r="300" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A300" s="123" t="s">
         <v>73</v>
       </c>
@@ -9200,21 +9214,21 @@
       </c>
       <c r="D300" s="119"/>
     </row>
-    <row r="301" spans="1:4" ht="15.75">
+    <row r="301" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="124"/>
       <c r="B301" s="124"/>
       <c r="C301" s="124"/>
       <c r="D301" s="124"/>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="196" t="s">
+    <row r="303" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A303" s="157" t="s">
         <v>474</v>
       </c>
-      <c r="B303" s="196"/>
+      <c r="B303" s="157"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>1</v>
       </c>
@@ -9224,7 +9238,7 @@
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>3</v>
       </c>
@@ -9234,7 +9248,7 @@
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>5</v>
       </c>
@@ -9242,7 +9256,7 @@
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>6</v>
       </c>
@@ -9252,13 +9266,13 @@
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="1:4" ht="15.75" thickBot="1">
+    <row r="309" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>8</v>
       </c>
@@ -9266,7 +9280,7 @@
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>363</v>
       </c>
@@ -9278,7 +9292,7 @@
       </c>
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="9">
         <v>111</v>
       </c>
@@ -9290,7 +9304,7 @@
       </c>
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="1:4" ht="15.75" thickBot="1">
+    <row r="312" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9">
         <v>222</v>
       </c>
@@ -9300,28 +9314,28 @@
       <c r="C312" s="11"/>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A313" s="197" t="s">
+    <row r="313" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="B313" s="198"/>
-      <c r="C313" s="199"/>
+      <c r="B313" s="159"/>
+      <c r="C313" s="160"/>
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="1:4" ht="18.75">
+    <row r="315" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A315" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B315" s="15"/>
       <c r="C315" s="15"/>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="16" t="s">
         <v>17</v>
       </c>
@@ -9335,7 +9349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="60">
+    <row r="317" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A317" s="17" t="s">
         <v>365</v>
       </c>
@@ -9349,7 +9363,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="60">
+    <row r="318" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A318" s="17" t="s">
         <v>369</v>
       </c>
@@ -9363,7 +9377,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="60">
+    <row r="319" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A319" s="17" t="s">
         <v>373</v>
       </c>
@@ -9377,7 +9391,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="60">
+    <row r="320" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A320" s="17" t="s">
         <v>375</v>
       </c>
@@ -9391,7 +9405,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="45">
+    <row r="321" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A321" s="17" t="s">
         <v>379</v>
       </c>
@@ -9405,7 +9419,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="45">
+    <row r="322" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A322" s="17" t="s">
         <v>383</v>
       </c>
@@ -9417,38 +9431,38 @@
       </c>
       <c r="D322" s="19"/>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="196" t="s">
+    <row r="327" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A327" s="157" t="s">
         <v>475</v>
       </c>
-      <c r="B327" s="196"/>
+      <c r="B327" s="157"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="1:4" ht="21.75" customHeight="1">
+    <row r="328" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>1</v>
       </c>
@@ -9458,7 +9472,7 @@
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>3</v>
       </c>
@@ -9468,7 +9482,7 @@
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>5</v>
       </c>
@@ -9476,7 +9490,7 @@
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>6</v>
       </c>
@@ -9486,7 +9500,7 @@
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="1:4" ht="30">
+    <row r="332" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A332" s="146" t="s">
         <v>530</v>
       </c>
@@ -9496,7 +9510,7 @@
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
     </row>
-    <row r="333" spans="1:4" ht="15.75" thickBot="1">
+    <row r="333" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>8</v>
       </c>
@@ -9504,7 +9518,7 @@
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>532</v>
       </c>
@@ -9512,7 +9526,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="9">
         <v>111</v>
       </c>
@@ -9520,7 +9534,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="9">
         <v>222</v>
       </c>
@@ -9528,25 +9542,25 @@
         <v>546</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15.75" thickBot="1">
+    <row r="337" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
     </row>
-    <row r="338" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A338" s="200" t="s">
+    <row r="338" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="172" t="s">
         <v>529</v>
       </c>
-      <c r="B338" s="198"/>
-      <c r="C338" s="199"/>
+      <c r="B338" s="159"/>
+      <c r="C338" s="160"/>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="1:4" ht="18.75">
+    <row r="340" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A340" s="15" t="s">
         <v>16</v>
       </c>
@@ -9554,7 +9568,7 @@
       <c r="C340" s="15"/>
       <c r="D340" s="15"/>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="16" t="s">
         <v>17</v>
       </c>
@@ -9568,7 +9582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="75">
+    <row r="342" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A342" s="17" t="s">
         <v>387</v>
       </c>
@@ -9582,7 +9596,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="60">
+    <row r="343" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A343" s="17" t="s">
         <v>541</v>
       </c>
@@ -9594,7 +9608,7 @@
       </c>
       <c r="D343" s="19"/>
     </row>
-    <row r="344" spans="1:4" ht="90">
+    <row r="344" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A344" s="17" t="s">
         <v>536</v>
       </c>
@@ -9608,7 +9622,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="90">
+    <row r="345" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A345" s="17" t="s">
         <v>389</v>
       </c>
@@ -9622,14 +9636,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="201" t="s">
+    <row r="348" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A348" s="161" t="s">
         <v>476</v>
       </c>
-      <c r="B348" s="201"/>
+      <c r="B348" s="161"/>
       <c r="C348"/>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="22" t="s">
         <v>1</v>
       </c>
@@ -9639,7 +9653,7 @@
       <c r="C349"/>
       <c r="D349"/>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="22" t="s">
         <v>3</v>
       </c>
@@ -9649,7 +9663,7 @@
       <c r="C350"/>
       <c r="D350"/>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="22" t="s">
         <v>5</v>
       </c>
@@ -9657,7 +9671,7 @@
       <c r="C351"/>
       <c r="D351"/>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="22" t="s">
         <v>6</v>
       </c>
@@ -9667,13 +9681,13 @@
       <c r="C352"/>
       <c r="D352"/>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
       <c r="D353"/>
     </row>
-    <row r="354" spans="1:4" ht="15.75" thickBot="1">
+    <row r="354" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="24" t="s">
         <v>8</v>
       </c>
@@ -9683,7 +9697,7 @@
       <c r="C354"/>
       <c r="D354"/>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="25" t="s">
         <v>395</v>
       </c>
@@ -9695,7 +9709,7 @@
       </c>
       <c r="D355"/>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="26" t="s">
         <v>397</v>
       </c>
@@ -9705,7 +9719,7 @@
       <c r="C356" s="127"/>
       <c r="D356"/>
     </row>
-    <row r="357" spans="1:4" ht="15.75" thickBot="1">
+    <row r="357" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="128" t="s">
         <v>398</v>
       </c>
@@ -9715,21 +9729,21 @@
       <c r="C357" s="130"/>
       <c r="D357"/>
     </row>
-    <row r="358" spans="1:4" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A358" s="193" t="s">
+    <row r="358" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="162" t="s">
         <v>399</v>
       </c>
-      <c r="B358" s="159"/>
-      <c r="C358" s="160"/>
+      <c r="B358" s="163"/>
+      <c r="C358" s="164"/>
       <c r="D358"/>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
       <c r="D359"/>
     </row>
-    <row r="360" spans="1:4" ht="18.75">
+    <row r="360" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A360" s="131" t="s">
         <v>16</v>
       </c>
@@ -9737,7 +9751,7 @@
       <c r="C360" s="131"/>
       <c r="D360" s="131"/>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="132" t="s">
         <v>17</v>
       </c>
@@ -9751,7 +9765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="56.25" customHeight="1">
+    <row r="362" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="17" t="s">
         <v>400</v>
       </c>
@@ -9765,7 +9779,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="61.5" customHeight="1">
+    <row r="363" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="17" t="s">
         <v>483</v>
       </c>
@@ -9779,7 +9793,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="60">
+    <row r="364" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A364" s="133" t="s">
         <v>405</v>
       </c>
@@ -9791,7 +9805,7 @@
       </c>
       <c r="D364" s="144"/>
     </row>
-    <row r="365" spans="1:4" ht="45">
+    <row r="365" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A365" s="133" t="s">
         <v>407</v>
       </c>
@@ -9805,14 +9819,14 @@
         <v>410</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="201" t="s">
+    <row r="368" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A368" s="161" t="s">
         <v>477</v>
       </c>
-      <c r="B368" s="201"/>
+      <c r="B368" s="161"/>
       <c r="C368"/>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="22" t="s">
         <v>1</v>
       </c>
@@ -9821,7 +9835,7 @@
       </c>
       <c r="C369"/>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="22" t="s">
         <v>3</v>
       </c>
@@ -9831,7 +9845,7 @@
       <c r="C370"/>
       <c r="D370"/>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="22" t="s">
         <v>5</v>
       </c>
@@ -9839,7 +9853,7 @@
       <c r="C371"/>
       <c r="D371"/>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="22" t="s">
         <v>6</v>
       </c>
@@ -9849,13 +9863,13 @@
       <c r="C372"/>
       <c r="D372"/>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373"/>
     </row>
-    <row r="374" spans="1:4" ht="15.75" thickBot="1">
+    <row r="374" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="24" t="s">
         <v>8</v>
       </c>
@@ -9865,7 +9879,7 @@
       <c r="C374"/>
       <c r="D374"/>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="25" t="s">
         <v>395</v>
       </c>
@@ -9877,7 +9891,7 @@
       </c>
       <c r="D375"/>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="26" t="s">
         <v>415</v>
       </c>
@@ -9887,7 +9901,7 @@
       <c r="C376" s="127"/>
       <c r="D376"/>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="26" t="s">
         <v>416</v>
       </c>
@@ -9897,27 +9911,27 @@
       <c r="C377" s="127"/>
       <c r="D377"/>
     </row>
-    <row r="378" spans="1:4" ht="15.75" thickBot="1">
+    <row r="378" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A378" s="128"/>
       <c r="B378" s="129"/>
       <c r="C378" s="130"/>
       <c r="D378"/>
     </row>
-    <row r="379" spans="1:4" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A379" s="193" t="s">
+    <row r="379" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="162" t="s">
         <v>417</v>
       </c>
-      <c r="B379" s="159"/>
-      <c r="C379" s="160"/>
+      <c r="B379" s="163"/>
+      <c r="C379" s="164"/>
       <c r="D379"/>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
       <c r="D380"/>
     </row>
-    <row r="381" spans="1:4" ht="18.75">
+    <row r="381" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A381" s="131" t="s">
         <v>16</v>
       </c>
@@ -9925,7 +9939,7 @@
       <c r="C381" s="131"/>
       <c r="D381" s="131"/>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="132" t="s">
         <v>17</v>
       </c>
@@ -9939,7 +9953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="60">
+    <row r="383" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A383" s="17" t="s">
         <v>418</v>
       </c>
@@ -9953,7 +9967,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="51" customHeight="1">
+    <row r="384" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="143" t="s">
         <v>405</v>
       </c>
@@ -9965,7 +9979,7 @@
       </c>
       <c r="D384" s="30"/>
     </row>
-    <row r="385" spans="1:4" ht="64.5" customHeight="1">
+    <row r="385" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="143" t="s">
         <v>423</v>
       </c>
@@ -9977,7 +9991,7 @@
       </c>
       <c r="D385" s="30"/>
     </row>
-    <row r="386" spans="1:4" ht="45">
+    <row r="386" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A386" s="143" t="s">
         <v>481</v>
       </c>
@@ -9991,7 +10005,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="45">
+    <row r="387" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A387" s="143" t="s">
         <v>427</v>
       </c>
@@ -10005,14 +10019,14 @@
         <v>430</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="196" t="s">
+    <row r="390" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A390" s="157" t="s">
         <v>478</v>
       </c>
-      <c r="B390" s="196"/>
+      <c r="B390" s="157"/>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>1</v>
       </c>
@@ -10021,7 +10035,7 @@
       </c>
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>3</v>
       </c>
@@ -10031,7 +10045,7 @@
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>5</v>
       </c>
@@ -10039,7 +10053,7 @@
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
     </row>
-    <row r="394" spans="1:4" ht="30">
+    <row r="394" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>6</v>
       </c>
@@ -10049,13 +10063,13 @@
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
     </row>
-    <row r="396" spans="1:4" ht="15.75" thickBot="1">
+    <row r="396" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>8</v>
       </c>
@@ -10065,7 +10079,7 @@
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
         <v>395</v>
       </c>
@@ -10077,7 +10091,7 @@
       </c>
       <c r="D397" s="1"/>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="9" t="s">
         <v>415</v>
       </c>
@@ -10089,7 +10103,7 @@
       </c>
       <c r="D398" s="1"/>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>416</v>
       </c>
@@ -10101,27 +10115,27 @@
       </c>
       <c r="D399" s="1"/>
     </row>
-    <row r="400" spans="1:4" ht="15.75" thickBot="1">
+    <row r="400" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A400" s="12"/>
       <c r="B400" s="13"/>
       <c r="C400" s="14"/>
       <c r="D400" s="1"/>
     </row>
-    <row r="401" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A401" s="203" t="s">
+    <row r="401" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="165" t="s">
         <v>438</v>
       </c>
-      <c r="B401" s="198"/>
-      <c r="C401" s="199"/>
+      <c r="B401" s="159"/>
+      <c r="C401" s="160"/>
       <c r="D401" s="1"/>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
     </row>
-    <row r="403" spans="1:4" ht="18.75">
+    <row r="403" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A403" s="15" t="s">
         <v>16</v>
       </c>
@@ -10129,7 +10143,7 @@
       <c r="C403" s="15"/>
       <c r="D403" s="15"/>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="16" t="s">
         <v>17</v>
       </c>
@@ -10143,7 +10157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="30">
+    <row r="405" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A405" s="27" t="s">
         <v>400</v>
       </c>
@@ -10157,7 +10171,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="30">
+    <row r="406" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A406" s="27" t="s">
         <v>407</v>
       </c>
@@ -10171,7 +10185,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="30">
+    <row r="407" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="28" t="s">
         <v>444</v>
@@ -10179,14 +10193,14 @@
       <c r="C407" s="28"/>
       <c r="D407" s="29"/>
     </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="196" t="s">
+    <row r="410" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A410" s="157" t="s">
         <v>479</v>
       </c>
-      <c r="B410" s="196"/>
+      <c r="B410" s="157"/>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>1</v>
       </c>
@@ -10195,7 +10209,7 @@
       </c>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>3</v>
       </c>
@@ -10205,7 +10219,7 @@
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
         <v>5</v>
       </c>
@@ -10213,7 +10227,7 @@
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>6</v>
       </c>
@@ -10223,13 +10237,13 @@
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
     </row>
-    <row r="416" spans="1:4" ht="15.75" thickBot="1">
+    <row r="416" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>8</v>
       </c>
@@ -10239,7 +10253,7 @@
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="6" t="s">
         <v>395</v>
       </c>
@@ -10251,7 +10265,7 @@
       </c>
       <c r="D417" s="1"/>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="9" t="s">
         <v>415</v>
       </c>
@@ -10263,7 +10277,7 @@
       </c>
       <c r="D418" s="1"/>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="9" t="s">
         <v>450</v>
       </c>
@@ -10275,7 +10289,7 @@
       </c>
       <c r="D419" s="1"/>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="12" t="s">
         <v>416</v>
       </c>
@@ -10287,7 +10301,7 @@
       </c>
       <c r="D420" s="1"/>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="12" t="s">
         <v>452</v>
       </c>
@@ -10299,7 +10313,7 @@
       </c>
       <c r="D421" s="1"/>
     </row>
-    <row r="422" spans="1:4" ht="15.75" thickBot="1">
+    <row r="422" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A422" s="137" t="s">
         <v>454</v>
       </c>
@@ -10311,21 +10325,21 @@
       </c>
       <c r="D422" s="1"/>
     </row>
-    <row r="423" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A423" s="202" t="s">
+    <row r="423" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="158" t="s">
         <v>456</v>
       </c>
-      <c r="B423" s="198"/>
-      <c r="C423" s="199"/>
+      <c r="B423" s="159"/>
+      <c r="C423" s="160"/>
       <c r="D423" s="1"/>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
     </row>
-    <row r="425" spans="1:4" ht="18.75">
+    <row r="425" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A425" s="15" t="s">
         <v>16</v>
       </c>
@@ -10333,7 +10347,7 @@
       <c r="C425" s="15"/>
       <c r="D425" s="15"/>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="16" t="s">
         <v>17</v>
       </c>
@@ -10347,7 +10361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="60">
+    <row r="427" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A427" s="27" t="s">
         <v>457</v>
       </c>
@@ -10359,7 +10373,7 @@
       </c>
       <c r="D427" s="29"/>
     </row>
-    <row r="428" spans="1:4" ht="60">
+    <row r="428" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A428" s="27" t="s">
         <v>460</v>
       </c>
@@ -10371,7 +10385,7 @@
       </c>
       <c r="D428" s="29"/>
     </row>
-    <row r="429" spans="1:4" ht="102.75" customHeight="1">
+    <row r="429" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="27" t="s">
         <v>467</v>
       </c>
@@ -10385,7 +10399,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="60">
+    <row r="430" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A430" s="27" t="s">
         <v>471</v>
       </c>
@@ -10399,7 +10413,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="60">
+    <row r="431" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A431" s="27" t="s">
         <v>463</v>
       </c>
@@ -10413,32 +10427,39 @@
         <v>466</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A432" s="140"/>
       <c r="B432" s="141"/>
       <c r="C432" s="141"/>
     </row>
-    <row r="434" spans="4:4">
+    <row r="434" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D434" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A410:B410"/>
-    <mergeCell ref="A423:C423"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A390:B390"/>
-    <mergeCell ref="A401:C401"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A173:C173"/>
     <mergeCell ref="A265:C265"/>
     <mergeCell ref="A175:C175"/>
     <mergeCell ref="A176:D176"/>
@@ -10451,38 +10472,32 @@
     <mergeCell ref="A232:B232"/>
     <mergeCell ref="A243:D243"/>
     <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="A410:B410"/>
+    <mergeCell ref="A423:C423"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A390:B390"/>
+    <mergeCell ref="A401:C401"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -10492,7 +10507,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10504,7 +10519,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
